--- a/data/Israel/covid19-data-israel.xlsx
+++ b/data/Israel/covid19-data-israel.xlsx
@@ -168,7 +168,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="166" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="164" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -238,7 +238,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -252,7 +252,13 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -534,19 +540,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G83"/>
+  <dimension ref="A1:G88"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+      <selection activeCell="B9" sqref="A1:G88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="7" width="12.1796875" style="2" customWidth="1"/>
+    <col min="1" max="1" width="12.1796875" style="7" customWidth="1"/>
+    <col min="2" max="7" width="12.1796875" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="29" x14ac:dyDescent="0.35">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
@@ -1424,7 +1431,7 @@
         <v>43893</v>
       </c>
       <c r="B39" s="5">
-        <v>1866</v>
+        <v>1867</v>
       </c>
       <c r="C39" s="5">
         <v>17</v>
@@ -1447,7 +1454,7 @@
         <v>43894</v>
       </c>
       <c r="B40" s="5">
-        <v>1995</v>
+        <v>1996</v>
       </c>
       <c r="C40" s="5">
         <v>17</v>
@@ -1470,7 +1477,7 @@
         <v>43895</v>
       </c>
       <c r="B41" s="5">
-        <v>2168</v>
+        <v>2169</v>
       </c>
       <c r="C41" s="5">
         <v>19</v>
@@ -1493,10 +1500,10 @@
         <v>43896</v>
       </c>
       <c r="B42" s="5">
-        <v>2443</v>
+        <v>2444</v>
       </c>
       <c r="C42" s="5">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D42" s="5">
         <v>16</v>
@@ -1516,10 +1523,10 @@
         <v>43897</v>
       </c>
       <c r="B43" s="5">
-        <v>2781</v>
+        <v>2782</v>
       </c>
       <c r="C43" s="5">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D43" s="5">
         <v>19</v>
@@ -1539,10 +1546,10 @@
         <v>43898</v>
       </c>
       <c r="B44" s="5">
-        <v>3203</v>
+        <v>3204</v>
       </c>
       <c r="C44" s="5">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D44" s="5">
         <v>26</v>
@@ -1562,10 +1569,10 @@
         <v>43899</v>
       </c>
       <c r="B45" s="5">
-        <v>3722</v>
+        <v>3723</v>
       </c>
       <c r="C45" s="5">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D45" s="5">
         <v>40</v>
@@ -1585,10 +1592,10 @@
         <v>43900</v>
       </c>
       <c r="B46" s="5">
-        <v>4243</v>
+        <v>4244</v>
       </c>
       <c r="C46" s="5">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D46" s="5">
         <v>59</v>
@@ -1608,10 +1615,10 @@
         <v>43901</v>
       </c>
       <c r="B47" s="5">
-        <v>4646</v>
+        <v>4647</v>
       </c>
       <c r="C47" s="5">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D47" s="5">
         <v>81</v>
@@ -1631,10 +1638,10 @@
         <v>43902</v>
       </c>
       <c r="B48" s="5">
-        <v>5253</v>
+        <v>5254</v>
       </c>
       <c r="C48" s="5">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D48" s="5">
         <v>103</v>
@@ -1654,10 +1661,10 @@
         <v>43903</v>
       </c>
       <c r="B49" s="5">
-        <v>5949</v>
+        <v>5950</v>
       </c>
       <c r="C49" s="5">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D49" s="5">
         <v>123</v>
@@ -1677,10 +1684,10 @@
         <v>43904</v>
       </c>
       <c r="B50" s="5">
-        <v>6562</v>
+        <v>6563</v>
       </c>
       <c r="C50" s="5">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D50" s="5">
         <v>162</v>
@@ -1700,10 +1707,10 @@
         <v>43905</v>
       </c>
       <c r="B51" s="5">
-        <v>7746</v>
+        <v>7747</v>
       </c>
       <c r="C51" s="5">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D51" s="5">
         <v>201</v>
@@ -1723,10 +1730,10 @@
         <v>43906</v>
       </c>
       <c r="B52" s="5">
-        <v>9090</v>
+        <v>9092</v>
       </c>
       <c r="C52" s="5">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="D52" s="5">
         <v>221</v>
@@ -1746,10 +1753,10 @@
         <v>43907</v>
       </c>
       <c r="B53" s="5">
-        <v>10743</v>
+        <v>10748</v>
       </c>
       <c r="C53" s="5">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="D53" s="5">
         <v>257</v>
@@ -1769,10 +1776,10 @@
         <v>43908</v>
       </c>
       <c r="B54" s="5">
-        <v>12861</v>
+        <v>12866</v>
       </c>
       <c r="C54" s="5">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="D54" s="5">
         <v>306</v>
@@ -1792,10 +1799,10 @@
         <v>43909</v>
       </c>
       <c r="B55" s="5">
-        <v>14942</v>
+        <v>14947</v>
       </c>
       <c r="C55" s="5">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="D55" s="5">
         <v>295</v>
@@ -1815,13 +1822,13 @@
         <v>43910</v>
       </c>
       <c r="B56" s="5">
-        <v>17267</v>
+        <v>17272</v>
       </c>
       <c r="C56" s="5">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="D56" s="5">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="E56" s="5">
         <v>23</v>
@@ -1838,10 +1845,10 @@
         <v>43911</v>
       </c>
       <c r="B57" s="5">
-        <v>19364</v>
+        <v>19369</v>
       </c>
       <c r="C57" s="5">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="D57" s="5">
         <v>276</v>
@@ -1861,10 +1868,10 @@
         <v>43912</v>
       </c>
       <c r="B58" s="5">
-        <v>22700</v>
+        <v>22705</v>
       </c>
       <c r="C58" s="5">
-        <v>1273</v>
+        <v>1272</v>
       </c>
       <c r="D58" s="5">
         <v>323</v>
@@ -1884,10 +1891,10 @@
         <v>43913</v>
       </c>
       <c r="B59" s="5">
-        <v>26280</v>
+        <v>26329</v>
       </c>
       <c r="C59" s="5">
-        <v>1616</v>
+        <v>1620</v>
       </c>
       <c r="D59" s="5">
         <v>350</v>
@@ -1907,10 +1914,10 @@
         <v>43914</v>
       </c>
       <c r="B60" s="5">
-        <v>31037</v>
+        <v>31110</v>
       </c>
       <c r="C60" s="5">
-        <v>2036</v>
+        <v>2042</v>
       </c>
       <c r="D60" s="5">
         <v>393</v>
@@ -1930,10 +1937,10 @@
         <v>43915</v>
       </c>
       <c r="B61" s="5">
-        <v>36819</v>
+        <v>37033</v>
       </c>
       <c r="C61" s="5">
-        <v>2457</v>
+        <v>2465</v>
       </c>
       <c r="D61" s="5">
         <v>412</v>
@@ -1953,10 +1960,10 @@
         <v>43916</v>
       </c>
       <c r="B62" s="5">
-        <v>43204</v>
+        <v>43542</v>
       </c>
       <c r="C62" s="5">
-        <v>2984</v>
+        <v>2993</v>
       </c>
       <c r="D62" s="5">
         <v>464</v>
@@ -1976,13 +1983,13 @@
         <v>43917</v>
       </c>
       <c r="B63" s="5">
-        <v>48695</v>
+        <v>49287</v>
       </c>
       <c r="C63" s="5">
-        <v>3414</v>
+        <v>3427</v>
       </c>
       <c r="D63" s="5">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="E63" s="5">
         <v>65</v>
@@ -1999,10 +2006,10 @@
         <v>43918</v>
       </c>
       <c r="B64" s="5">
-        <v>54404</v>
+        <v>54997</v>
       </c>
       <c r="C64" s="5">
-        <v>3895</v>
+        <v>3907</v>
       </c>
       <c r="D64" s="5">
         <v>512</v>
@@ -2022,19 +2029,19 @@
         <v>43919</v>
       </c>
       <c r="B65" s="5">
-        <v>61771</v>
+        <v>62561</v>
       </c>
       <c r="C65" s="5">
-        <v>4416</v>
+        <v>4439</v>
       </c>
       <c r="D65" s="5">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="E65" s="5">
         <v>77</v>
       </c>
       <c r="F65" s="5">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G65" s="5">
         <v>15</v>
@@ -2045,19 +2052,19 @@
         <v>43920</v>
       </c>
       <c r="B66" s="5">
-        <v>68802</v>
+        <v>69651</v>
       </c>
       <c r="C66" s="5">
-        <v>4958</v>
+        <v>4984</v>
       </c>
       <c r="D66" s="5">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="E66" s="5">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F66" s="5">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G66" s="5">
         <v>16</v>
@@ -2068,13 +2075,13 @@
         <v>43921</v>
       </c>
       <c r="B67" s="5">
-        <v>76563</v>
+        <v>77611</v>
       </c>
       <c r="C67" s="5">
-        <v>5670</v>
+        <v>5713</v>
       </c>
       <c r="D67" s="5">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="E67" s="5">
         <v>96</v>
@@ -2091,10 +2098,10 @@
         <v>43922</v>
       </c>
       <c r="B68" s="5">
-        <v>85543</v>
+        <v>86592</v>
       </c>
       <c r="C68" s="5">
-        <v>6365</v>
+        <v>6408</v>
       </c>
       <c r="D68" s="5">
         <v>767</v>
@@ -2114,13 +2121,13 @@
         <v>43923</v>
       </c>
       <c r="B69" s="5">
-        <v>95683</v>
+        <v>96808</v>
       </c>
       <c r="C69" s="5">
-        <v>7083</v>
+        <v>7127</v>
       </c>
       <c r="D69" s="5">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="E69" s="5">
         <v>112</v>
@@ -2137,10 +2144,10 @@
         <v>43924</v>
       </c>
       <c r="B70" s="5">
-        <v>105674</v>
+        <v>107132</v>
       </c>
       <c r="C70" s="5">
-        <v>7668</v>
+        <v>7726</v>
       </c>
       <c r="D70" s="5">
         <v>799</v>
@@ -2160,10 +2167,10 @@
         <v>43925</v>
       </c>
       <c r="B71" s="5">
-        <v>112026</v>
+        <v>113648</v>
       </c>
       <c r="C71" s="5">
-        <v>8089</v>
+        <v>8154</v>
       </c>
       <c r="D71" s="5">
         <v>785</v>
@@ -2183,10 +2190,10 @@
         <v>43926</v>
       </c>
       <c r="B72" s="5">
-        <v>121282</v>
+        <v>123088</v>
       </c>
       <c r="C72" s="5">
-        <v>8654</v>
+        <v>8733</v>
       </c>
       <c r="D72" s="5">
         <v>822</v>
@@ -2206,13 +2213,13 @@
         <v>43927</v>
       </c>
       <c r="B73" s="5">
-        <v>128564</v>
+        <v>130586</v>
       </c>
       <c r="C73" s="5">
-        <v>9076</v>
+        <v>9185</v>
       </c>
       <c r="D73" s="5">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="E73" s="5">
         <v>145</v>
@@ -2229,19 +2236,19 @@
         <v>43928</v>
       </c>
       <c r="B74" s="5">
-        <v>135293</v>
+        <v>137513</v>
       </c>
       <c r="C74" s="5">
-        <v>9436</v>
+        <v>9564</v>
       </c>
       <c r="D74" s="5">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="E74" s="5">
         <v>157</v>
       </c>
       <c r="F74" s="5">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G74" s="5">
         <v>68</v>
@@ -2252,19 +2259,19 @@
         <v>43929</v>
       </c>
       <c r="B75" s="5">
-        <v>140945</v>
+        <v>143382</v>
       </c>
       <c r="C75" s="5">
-        <v>9771</v>
+        <v>9902</v>
       </c>
       <c r="D75" s="5">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="E75" s="5">
         <v>163</v>
       </c>
       <c r="F75" s="5">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G75" s="5">
         <v>77</v>
@@ -2275,19 +2282,19 @@
         <v>43930</v>
       </c>
       <c r="B76" s="5">
-        <v>146608</v>
+        <v>149130</v>
       </c>
       <c r="C76" s="5">
-        <v>10119</v>
+        <v>10247</v>
       </c>
       <c r="D76" s="5">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="E76" s="5">
         <v>164</v>
       </c>
       <c r="F76" s="5">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G76" s="5">
         <v>86</v>
@@ -2298,13 +2305,13 @@
         <v>43931</v>
       </c>
       <c r="B77" s="5">
-        <v>153871</v>
+        <v>156457</v>
       </c>
       <c r="C77" s="5">
-        <v>10484</v>
+        <v>10608</v>
       </c>
       <c r="D77" s="5">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="E77" s="5">
         <v>167</v>
@@ -2321,13 +2328,13 @@
         <v>43932</v>
       </c>
       <c r="B78" s="5">
-        <v>160544</v>
+        <v>163149</v>
       </c>
       <c r="C78" s="5">
-        <v>10833</v>
+        <v>10953</v>
       </c>
       <c r="D78" s="5">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="E78" s="5">
         <v>180</v>
@@ -2344,19 +2351,19 @@
         <v>43933</v>
       </c>
       <c r="B79" s="5">
-        <v>171164</v>
+        <v>173769</v>
       </c>
       <c r="C79" s="5">
-        <v>11399</v>
+        <v>11511</v>
       </c>
       <c r="D79" s="5">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="E79" s="5">
         <v>175</v>
       </c>
       <c r="F79" s="5">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G79" s="5">
         <v>107</v>
@@ -2367,10 +2374,10 @@
         <v>43934</v>
       </c>
       <c r="B80" s="5">
-        <v>182123</v>
+        <v>184728</v>
       </c>
       <c r="C80" s="5">
-        <v>11852</v>
+        <v>11955</v>
       </c>
       <c r="D80" s="5">
         <v>681</v>
@@ -2390,13 +2397,13 @@
         <v>43935</v>
       </c>
       <c r="B81" s="5">
-        <v>194787</v>
+        <v>197391</v>
       </c>
       <c r="C81" s="5">
-        <v>12260</v>
+        <v>12362</v>
       </c>
       <c r="D81" s="5">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="E81" s="5">
         <v>177</v>
@@ -2413,13 +2420,13 @@
         <v>43936</v>
       </c>
       <c r="B82" s="5">
-        <v>204237</v>
+        <v>206841</v>
       </c>
       <c r="C82" s="5">
-        <v>12579</v>
+        <v>12674</v>
       </c>
       <c r="D82" s="5">
-        <v>669</v>
+        <v>666</v>
       </c>
       <c r="E82" s="5">
         <v>178</v>
@@ -2436,22 +2443,137 @@
         <v>43937</v>
       </c>
       <c r="B83" s="5">
-        <v>217018</v>
+        <v>219621</v>
       </c>
       <c r="C83" s="5">
-        <v>12882</v>
+        <v>12976</v>
       </c>
       <c r="D83" s="5">
-        <v>701</v>
+        <v>697</v>
       </c>
       <c r="E83" s="5">
         <v>180</v>
       </c>
       <c r="F83" s="5">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G83" s="5">
         <v>143</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A84" s="4">
+        <v>43938</v>
+      </c>
+      <c r="B84" s="5">
+        <v>231185</v>
+      </c>
+      <c r="C84" s="5">
+        <v>13278</v>
+      </c>
+      <c r="D84" s="5">
+        <v>656</v>
+      </c>
+      <c r="E84" s="5">
+        <v>162</v>
+      </c>
+      <c r="F84" s="5">
+        <v>123</v>
+      </c>
+      <c r="G84" s="5">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A85" s="4">
+        <v>43939</v>
+      </c>
+      <c r="B85" s="5">
+        <v>241815</v>
+      </c>
+      <c r="C85" s="5">
+        <v>13589</v>
+      </c>
+      <c r="D85" s="5">
+        <v>631</v>
+      </c>
+      <c r="E85" s="5">
+        <v>167</v>
+      </c>
+      <c r="F85" s="5">
+        <v>113</v>
+      </c>
+      <c r="G85" s="5">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A86" s="4">
+        <v>43940</v>
+      </c>
+      <c r="B86" s="5">
+        <v>253100</v>
+      </c>
+      <c r="C86" s="5">
+        <v>13878</v>
+      </c>
+      <c r="D86" s="5">
+        <v>609</v>
+      </c>
+      <c r="E86" s="5">
+        <v>152</v>
+      </c>
+      <c r="F86" s="5">
+        <v>113</v>
+      </c>
+      <c r="G86" s="5">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A87" s="4">
+        <v>43941</v>
+      </c>
+      <c r="B87" s="5">
+        <v>268238</v>
+      </c>
+      <c r="C87" s="5">
+        <v>14181</v>
+      </c>
+      <c r="D87" s="5">
+        <v>606</v>
+      </c>
+      <c r="E87" s="5">
+        <v>149</v>
+      </c>
+      <c r="F87" s="5">
+        <v>118</v>
+      </c>
+      <c r="G87" s="5">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A88" s="4">
+        <v>43942</v>
+      </c>
+      <c r="B88" s="5">
+        <v>281728</v>
+      </c>
+      <c r="C88" s="5">
+        <v>14474</v>
+      </c>
+      <c r="D88" s="5">
+        <v>536</v>
+      </c>
+      <c r="E88" s="5">
+        <v>140</v>
+      </c>
+      <c r="F88" s="5">
+        <v>115</v>
+      </c>
+      <c r="G88" s="5">
+        <v>186</v>
       </c>
     </row>
   </sheetData>
@@ -2463,9 +2585,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView rightToLeft="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="A1:XFD1"/>
-    </sheetView>
+    <sheetView rightToLeft="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>

--- a/data/Israel/covid19-data-israel.xlsx
+++ b/data/Israel/covid19-data-israel.xlsx
@@ -422,10 +422,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G89"/>
+  <dimension ref="A1:G90"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="F93" sqref="F93"/>
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1385,7 +1385,7 @@
         <v>2444</v>
       </c>
       <c r="C42" s="4">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D42" s="4">
         <v>16</v>
@@ -1408,7 +1408,7 @@
         <v>2782</v>
       </c>
       <c r="C43" s="4">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D43" s="4">
         <v>19</v>
@@ -1431,7 +1431,7 @@
         <v>3204</v>
       </c>
       <c r="C44" s="4">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D44" s="4">
         <v>26</v>
@@ -1454,7 +1454,7 @@
         <v>3723</v>
       </c>
       <c r="C45" s="4">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D45" s="4">
         <v>40</v>
@@ -1477,7 +1477,7 @@
         <v>4244</v>
       </c>
       <c r="C46" s="4">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D46" s="4">
         <v>59</v>
@@ -1500,7 +1500,7 @@
         <v>4647</v>
       </c>
       <c r="C47" s="4">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D47" s="4">
         <v>81</v>
@@ -1523,7 +1523,7 @@
         <v>5254</v>
       </c>
       <c r="C48" s="4">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D48" s="4">
         <v>103</v>
@@ -1546,7 +1546,7 @@
         <v>5950</v>
       </c>
       <c r="C49" s="4">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D49" s="4">
         <v>123</v>
@@ -1569,7 +1569,7 @@
         <v>6563</v>
       </c>
       <c r="C50" s="4">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D50" s="4">
         <v>162</v>
@@ -1592,7 +1592,7 @@
         <v>7747</v>
       </c>
       <c r="C51" s="4">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D51" s="4">
         <v>201</v>
@@ -1615,7 +1615,7 @@
         <v>9092</v>
       </c>
       <c r="C52" s="4">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D52" s="4">
         <v>221</v>
@@ -1638,7 +1638,7 @@
         <v>10748</v>
       </c>
       <c r="C53" s="4">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="D53" s="4">
         <v>257</v>
@@ -1661,7 +1661,7 @@
         <v>12866</v>
       </c>
       <c r="C54" s="4">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="D54" s="4">
         <v>306</v>
@@ -1684,7 +1684,7 @@
         <v>14947</v>
       </c>
       <c r="C55" s="4">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="D55" s="4">
         <v>295</v>
@@ -1707,7 +1707,7 @@
         <v>17272</v>
       </c>
       <c r="C56" s="4">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="D56" s="4">
         <v>287</v>
@@ -1730,7 +1730,7 @@
         <v>19369</v>
       </c>
       <c r="C57" s="4">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="D57" s="4">
         <v>276</v>
@@ -1753,7 +1753,7 @@
         <v>22705</v>
       </c>
       <c r="C58" s="4">
-        <v>1271</v>
+        <v>1270</v>
       </c>
       <c r="D58" s="4">
         <v>323</v>
@@ -1776,7 +1776,7 @@
         <v>26329</v>
       </c>
       <c r="C59" s="4">
-        <v>1619</v>
+        <v>1618</v>
       </c>
       <c r="D59" s="4">
         <v>350</v>
@@ -1799,7 +1799,7 @@
         <v>31110</v>
       </c>
       <c r="C60" s="4">
-        <v>2041</v>
+        <v>2040</v>
       </c>
       <c r="D60" s="4">
         <v>393</v>
@@ -1822,7 +1822,7 @@
         <v>37033</v>
       </c>
       <c r="C61" s="4">
-        <v>2464</v>
+        <v>2463</v>
       </c>
       <c r="D61" s="4">
         <v>412</v>
@@ -1845,7 +1845,7 @@
         <v>43542</v>
       </c>
       <c r="C62" s="4">
-        <v>2992</v>
+        <v>2991</v>
       </c>
       <c r="D62" s="4">
         <v>464</v>
@@ -1868,7 +1868,7 @@
         <v>49287</v>
       </c>
       <c r="C63" s="4">
-        <v>3426</v>
+        <v>3425</v>
       </c>
       <c r="D63" s="4">
         <v>515</v>
@@ -1891,7 +1891,7 @@
         <v>54997</v>
       </c>
       <c r="C64" s="4">
-        <v>3906</v>
+        <v>3905</v>
       </c>
       <c r="D64" s="4">
         <v>512</v>
@@ -1914,7 +1914,7 @@
         <v>62561</v>
       </c>
       <c r="C65" s="4">
-        <v>4438</v>
+        <v>4437</v>
       </c>
       <c r="D65" s="4">
         <v>541</v>
@@ -1937,7 +1937,7 @@
         <v>69652</v>
       </c>
       <c r="C66" s="4">
-        <v>4984</v>
+        <v>4983</v>
       </c>
       <c r="D66" s="4">
         <v>617</v>
@@ -1960,7 +1960,7 @@
         <v>77612</v>
       </c>
       <c r="C67" s="4">
-        <v>5713</v>
+        <v>5712</v>
       </c>
       <c r="D67" s="4">
         <v>665</v>
@@ -1983,7 +1983,7 @@
         <v>86593</v>
       </c>
       <c r="C68" s="4">
-        <v>6408</v>
+        <v>6407</v>
       </c>
       <c r="D68" s="4">
         <v>767</v>
@@ -2006,7 +2006,7 @@
         <v>96809</v>
       </c>
       <c r="C69" s="4">
-        <v>7127</v>
+        <v>7126</v>
       </c>
       <c r="D69" s="4">
         <v>810</v>
@@ -2029,7 +2029,7 @@
         <v>107133</v>
       </c>
       <c r="C70" s="4">
-        <v>7726</v>
+        <v>7725</v>
       </c>
       <c r="D70" s="4">
         <v>799</v>
@@ -2052,7 +2052,7 @@
         <v>113649</v>
       </c>
       <c r="C71" s="4">
-        <v>8154</v>
+        <v>8153</v>
       </c>
       <c r="D71" s="4">
         <v>785</v>
@@ -2075,7 +2075,7 @@
         <v>123089</v>
       </c>
       <c r="C72" s="4">
-        <v>8733</v>
+        <v>8732</v>
       </c>
       <c r="D72" s="4">
         <v>822</v>
@@ -2095,10 +2095,10 @@
         <v>43927</v>
       </c>
       <c r="B73" s="4">
-        <v>130587</v>
+        <v>130586</v>
       </c>
       <c r="C73" s="4">
-        <v>9185</v>
+        <v>9184</v>
       </c>
       <c r="D73" s="4">
         <v>804</v>
@@ -2118,10 +2118,10 @@
         <v>43928</v>
       </c>
       <c r="B74" s="4">
-        <v>137514</v>
+        <v>137513</v>
       </c>
       <c r="C74" s="4">
-        <v>9564</v>
+        <v>9563</v>
       </c>
       <c r="D74" s="4">
         <v>743</v>
@@ -2141,10 +2141,10 @@
         <v>43929</v>
       </c>
       <c r="B75" s="4">
-        <v>143383</v>
+        <v>143382</v>
       </c>
       <c r="C75" s="4">
-        <v>9902</v>
+        <v>9901</v>
       </c>
       <c r="D75" s="4">
         <v>689</v>
@@ -2164,10 +2164,10 @@
         <v>43930</v>
       </c>
       <c r="B76" s="4">
-        <v>149131</v>
+        <v>149130</v>
       </c>
       <c r="C76" s="4">
-        <v>10247</v>
+        <v>10246</v>
       </c>
       <c r="D76" s="4">
         <v>662</v>
@@ -2187,10 +2187,10 @@
         <v>43931</v>
       </c>
       <c r="B77" s="4">
-        <v>156458</v>
+        <v>156457</v>
       </c>
       <c r="C77" s="4">
-        <v>10608</v>
+        <v>10607</v>
       </c>
       <c r="D77" s="4">
         <v>664</v>
@@ -2210,10 +2210,10 @@
         <v>43932</v>
       </c>
       <c r="B78" s="4">
-        <v>163150</v>
+        <v>163149</v>
       </c>
       <c r="C78" s="4">
-        <v>10953</v>
+        <v>10952</v>
       </c>
       <c r="D78" s="4">
         <v>620</v>
@@ -2233,10 +2233,10 @@
         <v>43933</v>
       </c>
       <c r="B79" s="4">
-        <v>173770</v>
+        <v>173769</v>
       </c>
       <c r="C79" s="4">
-        <v>11511</v>
+        <v>11510</v>
       </c>
       <c r="D79" s="4">
         <v>661</v>
@@ -2256,10 +2256,10 @@
         <v>43934</v>
       </c>
       <c r="B80" s="4">
-        <v>184729</v>
+        <v>184728</v>
       </c>
       <c r="C80" s="4">
-        <v>11955</v>
+        <v>11954</v>
       </c>
       <c r="D80" s="4">
         <v>681</v>
@@ -2279,10 +2279,10 @@
         <v>43935</v>
       </c>
       <c r="B81" s="4">
-        <v>197392</v>
+        <v>197391</v>
       </c>
       <c r="C81" s="4">
-        <v>12362</v>
+        <v>12361</v>
       </c>
       <c r="D81" s="4">
         <v>669</v>
@@ -2302,10 +2302,10 @@
         <v>43936</v>
       </c>
       <c r="B82" s="4">
-        <v>206842</v>
+        <v>206841</v>
       </c>
       <c r="C82" s="4">
-        <v>12674</v>
+        <v>12673</v>
       </c>
       <c r="D82" s="4">
         <v>666</v>
@@ -2325,19 +2325,19 @@
         <v>43937</v>
       </c>
       <c r="B83" s="4">
-        <v>219622</v>
+        <v>219624</v>
       </c>
       <c r="C83" s="4">
-        <v>12976</v>
+        <v>12975</v>
       </c>
       <c r="D83" s="4">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="E83" s="4">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="F83" s="4">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G83" s="4">
         <v>143</v>
@@ -2348,19 +2348,19 @@
         <v>43938</v>
       </c>
       <c r="B84" s="4">
-        <v>231187</v>
+        <v>231189</v>
       </c>
       <c r="C84" s="4">
-        <v>13278</v>
+        <v>13277</v>
       </c>
       <c r="D84" s="4">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="E84" s="4">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="F84" s="4">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="G84" s="4">
         <v>152</v>
@@ -2371,19 +2371,19 @@
         <v>43939</v>
       </c>
       <c r="B85" s="4">
-        <v>241818</v>
+        <v>241820</v>
       </c>
       <c r="C85" s="4">
-        <v>13589</v>
+        <v>13588</v>
       </c>
       <c r="D85" s="4">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="E85" s="4">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="F85" s="4">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="G85" s="4">
         <v>163</v>
@@ -2394,19 +2394,19 @@
         <v>43940</v>
       </c>
       <c r="B86" s="4">
-        <v>253103</v>
+        <v>253106</v>
       </c>
       <c r="C86" s="4">
-        <v>13878</v>
+        <v>13877</v>
       </c>
       <c r="D86" s="4">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="E86" s="4">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="F86" s="4">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="G86" s="4">
         <v>171</v>
@@ -2417,19 +2417,19 @@
         <v>43941</v>
       </c>
       <c r="B87" s="4">
-        <v>268241</v>
+        <v>268245</v>
       </c>
       <c r="C87" s="4">
-        <v>14181</v>
+        <v>14180</v>
       </c>
       <c r="D87" s="4">
-        <v>606</v>
+        <v>608</v>
       </c>
       <c r="E87" s="4">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="F87" s="4">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="G87" s="4">
         <v>177</v>
@@ -2440,19 +2440,19 @@
         <v>43942</v>
       </c>
       <c r="B88" s="4">
-        <v>281731</v>
+        <v>281733</v>
       </c>
       <c r="C88" s="4">
-        <v>14474</v>
+        <v>14473</v>
       </c>
       <c r="D88" s="4">
-        <v>536</v>
+        <v>538</v>
       </c>
       <c r="E88" s="4">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="F88" s="4">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="G88" s="4">
         <v>186</v>
@@ -2466,19 +2466,42 @@
         <v>295030</v>
       </c>
       <c r="C89" s="4">
-        <v>14704</v>
+        <v>14703</v>
       </c>
       <c r="D89" s="4">
-        <v>521</v>
+        <v>523</v>
       </c>
       <c r="E89" s="4">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="F89" s="4">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="G89" s="4">
         <v>189</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A90" s="3">
+        <v>43944</v>
+      </c>
+      <c r="B90" s="4">
+        <v>309188</v>
+      </c>
+      <c r="C90" s="4">
+        <v>14985</v>
+      </c>
+      <c r="D90" s="4">
+        <v>484</v>
+      </c>
+      <c r="E90" s="4">
+        <v>140</v>
+      </c>
+      <c r="F90" s="4">
+        <v>110</v>
+      </c>
+      <c r="G90" s="4">
+        <v>193</v>
       </c>
     </row>
   </sheetData>

--- a/data/Israel/covid19-data-israel.xlsx
+++ b/data/Israel/covid19-data-israel.xlsx
@@ -422,10 +422,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G90"/>
+  <dimension ref="A1:G91"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+      <selection activeCell="D89" sqref="D89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1385,7 +1385,7 @@
         <v>2444</v>
       </c>
       <c r="C42" s="4">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D42" s="4">
         <v>16</v>
@@ -1408,7 +1408,7 @@
         <v>2782</v>
       </c>
       <c r="C43" s="4">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D43" s="4">
         <v>19</v>
@@ -1431,7 +1431,7 @@
         <v>3204</v>
       </c>
       <c r="C44" s="4">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D44" s="4">
         <v>26</v>
@@ -1454,7 +1454,7 @@
         <v>3723</v>
       </c>
       <c r="C45" s="4">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D45" s="4">
         <v>40</v>
@@ -1477,7 +1477,7 @@
         <v>4244</v>
       </c>
       <c r="C46" s="4">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D46" s="4">
         <v>59</v>
@@ -1500,7 +1500,7 @@
         <v>4647</v>
       </c>
       <c r="C47" s="4">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D47" s="4">
         <v>81</v>
@@ -1523,7 +1523,7 @@
         <v>5254</v>
       </c>
       <c r="C48" s="4">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D48" s="4">
         <v>103</v>
@@ -1546,7 +1546,7 @@
         <v>5950</v>
       </c>
       <c r="C49" s="4">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D49" s="4">
         <v>123</v>
@@ -1569,10 +1569,10 @@
         <v>6563</v>
       </c>
       <c r="C50" s="4">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D50" s="4">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E50" s="4">
         <v>6</v>
@@ -1592,7 +1592,7 @@
         <v>7747</v>
       </c>
       <c r="C51" s="4">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="D51" s="4">
         <v>201</v>
@@ -1615,7 +1615,7 @@
         <v>9092</v>
       </c>
       <c r="C52" s="4">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="D52" s="4">
         <v>221</v>
@@ -1638,7 +1638,7 @@
         <v>10748</v>
       </c>
       <c r="C53" s="4">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="D53" s="4">
         <v>257</v>
@@ -1661,7 +1661,7 @@
         <v>12866</v>
       </c>
       <c r="C54" s="4">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="D54" s="4">
         <v>306</v>
@@ -1684,7 +1684,7 @@
         <v>14947</v>
       </c>
       <c r="C55" s="4">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="D55" s="4">
         <v>295</v>
@@ -1707,7 +1707,7 @@
         <v>17272</v>
       </c>
       <c r="C56" s="4">
-        <v>815</v>
+        <v>816</v>
       </c>
       <c r="D56" s="4">
         <v>287</v>
@@ -1730,7 +1730,7 @@
         <v>19369</v>
       </c>
       <c r="C57" s="4">
-        <v>1021</v>
+        <v>1022</v>
       </c>
       <c r="D57" s="4">
         <v>276</v>
@@ -1753,7 +1753,7 @@
         <v>22705</v>
       </c>
       <c r="C58" s="4">
-        <v>1270</v>
+        <v>1271</v>
       </c>
       <c r="D58" s="4">
         <v>323</v>
@@ -1776,7 +1776,7 @@
         <v>26329</v>
       </c>
       <c r="C59" s="4">
-        <v>1618</v>
+        <v>1619</v>
       </c>
       <c r="D59" s="4">
         <v>350</v>
@@ -1799,7 +1799,7 @@
         <v>31110</v>
       </c>
       <c r="C60" s="4">
-        <v>2040</v>
+        <v>2041</v>
       </c>
       <c r="D60" s="4">
         <v>393</v>
@@ -1819,10 +1819,10 @@
         <v>43915</v>
       </c>
       <c r="B61" s="4">
-        <v>37033</v>
+        <v>37034</v>
       </c>
       <c r="C61" s="4">
-        <v>2463</v>
+        <v>2465</v>
       </c>
       <c r="D61" s="4">
         <v>412</v>
@@ -1842,10 +1842,10 @@
         <v>43916</v>
       </c>
       <c r="B62" s="4">
-        <v>43542</v>
+        <v>43543</v>
       </c>
       <c r="C62" s="4">
-        <v>2991</v>
+        <v>2992</v>
       </c>
       <c r="D62" s="4">
         <v>464</v>
@@ -1865,10 +1865,10 @@
         <v>43917</v>
       </c>
       <c r="B63" s="4">
-        <v>49287</v>
+        <v>49288</v>
       </c>
       <c r="C63" s="4">
-        <v>3425</v>
+        <v>3426</v>
       </c>
       <c r="D63" s="4">
         <v>515</v>
@@ -1888,10 +1888,10 @@
         <v>43918</v>
       </c>
       <c r="B64" s="4">
-        <v>54997</v>
+        <v>54998</v>
       </c>
       <c r="C64" s="4">
-        <v>3905</v>
+        <v>3906</v>
       </c>
       <c r="D64" s="4">
         <v>512</v>
@@ -1911,10 +1911,10 @@
         <v>43919</v>
       </c>
       <c r="B65" s="4">
-        <v>62561</v>
+        <v>62562</v>
       </c>
       <c r="C65" s="4">
-        <v>4437</v>
+        <v>4438</v>
       </c>
       <c r="D65" s="4">
         <v>541</v>
@@ -1934,7 +1934,7 @@
         <v>43920</v>
       </c>
       <c r="B66" s="4">
-        <v>69652</v>
+        <v>69653</v>
       </c>
       <c r="C66" s="4">
         <v>4983</v>
@@ -1943,7 +1943,7 @@
         <v>617</v>
       </c>
       <c r="E66" s="4">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F66" s="4">
         <v>55</v>
@@ -1957,7 +1957,7 @@
         <v>43921</v>
       </c>
       <c r="B67" s="4">
-        <v>77612</v>
+        <v>77613</v>
       </c>
       <c r="C67" s="4">
         <v>5712</v>
@@ -1966,7 +1966,7 @@
         <v>665</v>
       </c>
       <c r="E67" s="4">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F67" s="4">
         <v>64</v>
@@ -1980,10 +1980,10 @@
         <v>43922</v>
       </c>
       <c r="B68" s="4">
-        <v>86593</v>
+        <v>86594</v>
       </c>
       <c r="C68" s="4">
-        <v>6407</v>
+        <v>6406</v>
       </c>
       <c r="D68" s="4">
         <v>767</v>
@@ -2003,10 +2003,10 @@
         <v>43923</v>
       </c>
       <c r="B69" s="4">
-        <v>96809</v>
+        <v>96810</v>
       </c>
       <c r="C69" s="4">
-        <v>7126</v>
+        <v>7125</v>
       </c>
       <c r="D69" s="4">
         <v>810</v>
@@ -2026,10 +2026,10 @@
         <v>43924</v>
       </c>
       <c r="B70" s="4">
-        <v>107133</v>
+        <v>107134</v>
       </c>
       <c r="C70" s="4">
-        <v>7725</v>
+        <v>7724</v>
       </c>
       <c r="D70" s="4">
         <v>799</v>
@@ -2049,10 +2049,10 @@
         <v>43925</v>
       </c>
       <c r="B71" s="4">
-        <v>113649</v>
+        <v>113650</v>
       </c>
       <c r="C71" s="4">
-        <v>8153</v>
+        <v>8152</v>
       </c>
       <c r="D71" s="4">
         <v>785</v>
@@ -2072,10 +2072,10 @@
         <v>43926</v>
       </c>
       <c r="B72" s="4">
-        <v>123089</v>
+        <v>123090</v>
       </c>
       <c r="C72" s="4">
-        <v>8732</v>
+        <v>8731</v>
       </c>
       <c r="D72" s="4">
         <v>822</v>
@@ -2095,10 +2095,10 @@
         <v>43927</v>
       </c>
       <c r="B73" s="4">
-        <v>130586</v>
+        <v>130587</v>
       </c>
       <c r="C73" s="4">
-        <v>9184</v>
+        <v>9183</v>
       </c>
       <c r="D73" s="4">
         <v>804</v>
@@ -2118,10 +2118,10 @@
         <v>43928</v>
       </c>
       <c r="B74" s="4">
-        <v>137513</v>
+        <v>137514</v>
       </c>
       <c r="C74" s="4">
-        <v>9563</v>
+        <v>9562</v>
       </c>
       <c r="D74" s="4">
         <v>743</v>
@@ -2141,10 +2141,10 @@
         <v>43929</v>
       </c>
       <c r="B75" s="4">
-        <v>143382</v>
+        <v>143384</v>
       </c>
       <c r="C75" s="4">
-        <v>9901</v>
+        <v>9900</v>
       </c>
       <c r="D75" s="4">
         <v>689</v>
@@ -2164,10 +2164,10 @@
         <v>43930</v>
       </c>
       <c r="B76" s="4">
-        <v>149130</v>
+        <v>149132</v>
       </c>
       <c r="C76" s="4">
-        <v>10246</v>
+        <v>10244</v>
       </c>
       <c r="D76" s="4">
         <v>662</v>
@@ -2187,10 +2187,10 @@
         <v>43931</v>
       </c>
       <c r="B77" s="4">
-        <v>156457</v>
+        <v>156459</v>
       </c>
       <c r="C77" s="4">
-        <v>10607</v>
+        <v>10605</v>
       </c>
       <c r="D77" s="4">
         <v>664</v>
@@ -2210,10 +2210,10 @@
         <v>43932</v>
       </c>
       <c r="B78" s="4">
-        <v>163149</v>
+        <v>163151</v>
       </c>
       <c r="C78" s="4">
-        <v>10952</v>
+        <v>10950</v>
       </c>
       <c r="D78" s="4">
         <v>620</v>
@@ -2233,10 +2233,10 @@
         <v>43933</v>
       </c>
       <c r="B79" s="4">
-        <v>173769</v>
+        <v>173771</v>
       </c>
       <c r="C79" s="4">
-        <v>11510</v>
+        <v>11508</v>
       </c>
       <c r="D79" s="4">
         <v>661</v>
@@ -2256,10 +2256,10 @@
         <v>43934</v>
       </c>
       <c r="B80" s="4">
-        <v>184728</v>
+        <v>184730</v>
       </c>
       <c r="C80" s="4">
-        <v>11954</v>
+        <v>11952</v>
       </c>
       <c r="D80" s="4">
         <v>681</v>
@@ -2279,10 +2279,10 @@
         <v>43935</v>
       </c>
       <c r="B81" s="4">
-        <v>197391</v>
+        <v>197393</v>
       </c>
       <c r="C81" s="4">
-        <v>12361</v>
+        <v>12359</v>
       </c>
       <c r="D81" s="4">
         <v>669</v>
@@ -2302,10 +2302,10 @@
         <v>43936</v>
       </c>
       <c r="B82" s="4">
-        <v>206841</v>
+        <v>206843</v>
       </c>
       <c r="C82" s="4">
-        <v>12673</v>
+        <v>12671</v>
       </c>
       <c r="D82" s="4">
         <v>666</v>
@@ -2325,10 +2325,10 @@
         <v>43937</v>
       </c>
       <c r="B83" s="4">
-        <v>219624</v>
+        <v>219626</v>
       </c>
       <c r="C83" s="4">
-        <v>12975</v>
+        <v>12973</v>
       </c>
       <c r="D83" s="4">
         <v>698</v>
@@ -2348,10 +2348,10 @@
         <v>43938</v>
       </c>
       <c r="B84" s="4">
-        <v>231189</v>
+        <v>231191</v>
       </c>
       <c r="C84" s="4">
-        <v>13277</v>
+        <v>13275</v>
       </c>
       <c r="D84" s="4">
         <v>657</v>
@@ -2371,10 +2371,10 @@
         <v>43939</v>
       </c>
       <c r="B85" s="4">
-        <v>241820</v>
+        <v>241821</v>
       </c>
       <c r="C85" s="4">
-        <v>13588</v>
+        <v>13585</v>
       </c>
       <c r="D85" s="4">
         <v>632</v>
@@ -2394,10 +2394,10 @@
         <v>43940</v>
       </c>
       <c r="B86" s="4">
-        <v>253106</v>
+        <v>253105</v>
       </c>
       <c r="C86" s="4">
-        <v>13877</v>
+        <v>13874</v>
       </c>
       <c r="D86" s="4">
         <v>610</v>
@@ -2417,10 +2417,10 @@
         <v>43941</v>
       </c>
       <c r="B87" s="4">
-        <v>268245</v>
+        <v>268243</v>
       </c>
       <c r="C87" s="4">
-        <v>14180</v>
+        <v>14177</v>
       </c>
       <c r="D87" s="4">
         <v>608</v>
@@ -2440,10 +2440,10 @@
         <v>43942</v>
       </c>
       <c r="B88" s="4">
-        <v>281733</v>
+        <v>281731</v>
       </c>
       <c r="C88" s="4">
-        <v>14473</v>
+        <v>14470</v>
       </c>
       <c r="D88" s="4">
         <v>538</v>
@@ -2463,10 +2463,10 @@
         <v>43943</v>
       </c>
       <c r="B89" s="4">
-        <v>295030</v>
+        <v>295027</v>
       </c>
       <c r="C89" s="4">
-        <v>14703</v>
+        <v>14700</v>
       </c>
       <c r="D89" s="4">
         <v>523</v>
@@ -2486,10 +2486,10 @@
         <v>43944</v>
       </c>
       <c r="B90" s="4">
-        <v>309188</v>
+        <v>309185</v>
       </c>
       <c r="C90" s="4">
-        <v>14985</v>
+        <v>14982</v>
       </c>
       <c r="D90" s="4">
         <v>484</v>
@@ -2502,6 +2502,29 @@
       </c>
       <c r="G90" s="4">
         <v>193</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A91" s="3">
+        <v>43945</v>
+      </c>
+      <c r="B91" s="4">
+        <v>321798</v>
+      </c>
+      <c r="C91" s="4">
+        <v>15236</v>
+      </c>
+      <c r="D91" s="4">
+        <v>446</v>
+      </c>
+      <c r="E91" s="4">
+        <v>137</v>
+      </c>
+      <c r="F91" s="4">
+        <v>102</v>
+      </c>
+      <c r="G91" s="4">
+        <v>196</v>
       </c>
     </row>
   </sheetData>

--- a/data/Israel/covid19-data-israel.xlsx
+++ b/data/Israel/covid19-data-israel.xlsx
@@ -123,7 +123,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -141,6 +141,7 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="47" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -422,10 +423,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G91"/>
+  <dimension ref="A1:L93"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D89" sqref="D89"/>
+      <selection activeCell="B9" sqref="A1:G93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -434,7 +435,7 @@
     <col min="2" max="7" width="12.1796875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -457,7 +458,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2" s="3">
         <v>43856</v>
       </c>
@@ -479,8 +480,9 @@
       <c r="G2" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="L2" s="7"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A3" s="3">
         <v>43857</v>
       </c>
@@ -502,8 +504,9 @@
       <c r="G3" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="L3" s="7"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A4" s="3">
         <v>43858</v>
       </c>
@@ -525,8 +528,9 @@
       <c r="G4" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="L4" s="7"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A5" s="3">
         <v>43859</v>
       </c>
@@ -548,8 +552,9 @@
       <c r="G5" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="L5" s="7"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A6" s="3">
         <v>43860</v>
       </c>
@@ -571,8 +576,9 @@
       <c r="G6" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="L6" s="7"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A7" s="3">
         <v>43861</v>
       </c>
@@ -594,8 +600,9 @@
       <c r="G7" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="L7" s="7"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A8" s="3">
         <v>43862</v>
       </c>
@@ -617,8 +624,9 @@
       <c r="G8" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="L8" s="7"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A9" s="3">
         <v>43863</v>
       </c>
@@ -640,8 +648,9 @@
       <c r="G9" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="L9" s="7"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A10" s="3">
         <v>43864</v>
       </c>
@@ -663,8 +672,9 @@
       <c r="G10" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="L10" s="7"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A11" s="3">
         <v>43865</v>
       </c>
@@ -686,8 +696,9 @@
       <c r="G11" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="L11" s="7"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A12" s="3">
         <v>43866</v>
       </c>
@@ -709,8 +720,9 @@
       <c r="G12" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="L12" s="7"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A13" s="3">
         <v>43867</v>
       </c>
@@ -732,8 +744,9 @@
       <c r="G13" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="L13" s="7"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A14" s="3">
         <v>43868</v>
       </c>
@@ -755,8 +768,9 @@
       <c r="G14" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="L14" s="7"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A15" s="3">
         <v>43869</v>
       </c>
@@ -778,8 +792,9 @@
       <c r="G15" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="L15" s="7"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A16" s="3">
         <v>43870</v>
       </c>
@@ -801,8 +816,9 @@
       <c r="G16" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="L16" s="7"/>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A17" s="3">
         <v>43871</v>
       </c>
@@ -824,8 +840,9 @@
       <c r="G17" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="L17" s="7"/>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A18" s="3">
         <v>43872</v>
       </c>
@@ -847,8 +864,9 @@
       <c r="G18" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="L18" s="7"/>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A19" s="3">
         <v>43873</v>
       </c>
@@ -870,8 +888,9 @@
       <c r="G19" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="L19" s="7"/>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A20" s="3">
         <v>43874</v>
       </c>
@@ -893,8 +912,9 @@
       <c r="G20" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="L20" s="7"/>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A21" s="3">
         <v>43875</v>
       </c>
@@ -916,8 +936,9 @@
       <c r="G21" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="L21" s="7"/>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A22" s="3">
         <v>43876</v>
       </c>
@@ -939,8 +960,9 @@
       <c r="G22" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="L22" s="7"/>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A23" s="3">
         <v>43877</v>
       </c>
@@ -962,8 +984,9 @@
       <c r="G23" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="L23" s="7"/>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A24" s="3">
         <v>43878</v>
       </c>
@@ -985,8 +1008,9 @@
       <c r="G24" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="L24" s="7"/>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A25" s="3">
         <v>43879</v>
       </c>
@@ -1008,8 +1032,9 @@
       <c r="G25" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="L25" s="7"/>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A26" s="3">
         <v>43880</v>
       </c>
@@ -1031,8 +1056,9 @@
       <c r="G26" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="L26" s="7"/>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A27" s="3">
         <v>43881</v>
       </c>
@@ -1054,8 +1080,9 @@
       <c r="G27" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="L27" s="7"/>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A28" s="3">
         <v>43882</v>
       </c>
@@ -1077,8 +1104,9 @@
       <c r="G28" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="L28" s="7"/>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A29" s="3">
         <v>43883</v>
       </c>
@@ -1100,8 +1128,9 @@
       <c r="G29" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="L29" s="7"/>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A30" s="3">
         <v>43884</v>
       </c>
@@ -1123,8 +1152,9 @@
       <c r="G30" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="L30" s="7"/>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A31" s="3">
         <v>43885</v>
       </c>
@@ -1146,8 +1176,9 @@
       <c r="G31" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="L31" s="7"/>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A32" s="3">
         <v>43886</v>
       </c>
@@ -1169,8 +1200,9 @@
       <c r="G32" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="L32" s="7"/>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A33" s="3">
         <v>43887</v>
       </c>
@@ -1192,8 +1224,9 @@
       <c r="G33" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="L33" s="7"/>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A34" s="3">
         <v>43888</v>
       </c>
@@ -1215,8 +1248,9 @@
       <c r="G34" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="L34" s="7"/>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A35" s="3">
         <v>43889</v>
       </c>
@@ -1238,8 +1272,9 @@
       <c r="G35" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="L35" s="7"/>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A36" s="3">
         <v>43890</v>
       </c>
@@ -1261,8 +1296,9 @@
       <c r="G36" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="L36" s="7"/>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A37" s="3">
         <v>43891</v>
       </c>
@@ -1284,8 +1320,9 @@
       <c r="G37" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="L37" s="7"/>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A38" s="3">
         <v>43892</v>
       </c>
@@ -1307,8 +1344,9 @@
       <c r="G38" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="L38" s="7"/>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A39" s="3">
         <v>43893</v>
       </c>
@@ -1330,8 +1368,9 @@
       <c r="G39" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="L39" s="7"/>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A40" s="3">
         <v>43894</v>
       </c>
@@ -1353,8 +1392,9 @@
       <c r="G40" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="L40" s="7"/>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A41" s="3">
         <v>43895</v>
       </c>
@@ -1376,8 +1416,9 @@
       <c r="G41" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="L41" s="7"/>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A42" s="3">
         <v>43896</v>
       </c>
@@ -1399,8 +1440,9 @@
       <c r="G42" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="L42" s="7"/>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A43" s="3">
         <v>43897</v>
       </c>
@@ -1422,8 +1464,9 @@
       <c r="G43" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="L43" s="7"/>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A44" s="3">
         <v>43898</v>
       </c>
@@ -1445,8 +1488,9 @@
       <c r="G44" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="L44" s="7"/>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A45" s="3">
         <v>43899</v>
       </c>
@@ -1468,8 +1512,9 @@
       <c r="G45" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="L45" s="7"/>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A46" s="3">
         <v>43900</v>
       </c>
@@ -1491,8 +1536,9 @@
       <c r="G46" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="L46" s="7"/>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A47" s="3">
         <v>43901</v>
       </c>
@@ -1514,8 +1560,9 @@
       <c r="G47" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="L47" s="7"/>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A48" s="3">
         <v>43902</v>
       </c>
@@ -1537,8 +1584,9 @@
       <c r="G48" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="L48" s="7"/>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A49" s="3">
         <v>43903</v>
       </c>
@@ -1560,8 +1608,9 @@
       <c r="G49" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="L49" s="7"/>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A50" s="3">
         <v>43904</v>
       </c>
@@ -1583,8 +1632,9 @@
       <c r="G50" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="L50" s="7"/>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A51" s="3">
         <v>43905</v>
       </c>
@@ -1606,8 +1656,9 @@
       <c r="G51" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="L51" s="7"/>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A52" s="3">
         <v>43906</v>
       </c>
@@ -1629,8 +1680,9 @@
       <c r="G52" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="L52" s="7"/>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A53" s="3">
         <v>43907</v>
       </c>
@@ -1652,8 +1704,9 @@
       <c r="G53" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="L53" s="7"/>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A54" s="3">
         <v>43908</v>
       </c>
@@ -1675,8 +1728,9 @@
       <c r="G54" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="L54" s="7"/>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A55" s="3">
         <v>43909</v>
       </c>
@@ -1698,8 +1752,9 @@
       <c r="G55" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="L55" s="7"/>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A56" s="3">
         <v>43910</v>
       </c>
@@ -1710,7 +1765,7 @@
         <v>816</v>
       </c>
       <c r="D56" s="4">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="E56" s="4">
         <v>23</v>
@@ -1721,8 +1776,9 @@
       <c r="G56" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="L56" s="7"/>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A57" s="3">
         <v>43911</v>
       </c>
@@ -1744,8 +1800,9 @@
       <c r="G57" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="L57" s="7"/>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A58" s="3">
         <v>43912</v>
       </c>
@@ -1767,13 +1824,14 @@
       <c r="G58" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="L58" s="7"/>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A59" s="3">
         <v>43913</v>
       </c>
       <c r="B59" s="4">
-        <v>26329</v>
+        <v>26332</v>
       </c>
       <c r="C59" s="4">
         <v>1619</v>
@@ -1790,13 +1848,14 @@
       <c r="G59" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="L59" s="7"/>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A60" s="3">
         <v>43914</v>
       </c>
       <c r="B60" s="4">
-        <v>31110</v>
+        <v>31114</v>
       </c>
       <c r="C60" s="4">
         <v>2041</v>
@@ -1813,13 +1872,14 @@
       <c r="G60" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="L60" s="7"/>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A61" s="3">
         <v>43915</v>
       </c>
       <c r="B61" s="4">
-        <v>37034</v>
+        <v>37039</v>
       </c>
       <c r="C61" s="4">
         <v>2465</v>
@@ -1836,13 +1896,14 @@
       <c r="G61" s="4">
         <v>5</v>
       </c>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="L61" s="7"/>
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A62" s="3">
         <v>43916</v>
       </c>
       <c r="B62" s="4">
-        <v>43543</v>
+        <v>43549</v>
       </c>
       <c r="C62" s="4">
         <v>2992</v>
@@ -1859,16 +1920,17 @@
       <c r="G62" s="4">
         <v>10</v>
       </c>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="L62" s="7"/>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A63" s="3">
         <v>43917</v>
       </c>
       <c r="B63" s="4">
-        <v>49288</v>
+        <v>49294</v>
       </c>
       <c r="C63" s="4">
-        <v>3426</v>
+        <v>3427</v>
       </c>
       <c r="D63" s="4">
         <v>515</v>
@@ -1882,16 +1944,17 @@
       <c r="G63" s="4">
         <v>12</v>
       </c>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="L63" s="7"/>
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A64" s="3">
         <v>43918</v>
       </c>
       <c r="B64" s="4">
-        <v>54998</v>
+        <v>55004</v>
       </c>
       <c r="C64" s="4">
-        <v>3906</v>
+        <v>3907</v>
       </c>
       <c r="D64" s="4">
         <v>512</v>
@@ -1905,16 +1968,17 @@
       <c r="G64" s="4">
         <v>12</v>
       </c>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="L64" s="7"/>
+    </row>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A65" s="3">
         <v>43919</v>
       </c>
       <c r="B65" s="4">
-        <v>62562</v>
+        <v>62568</v>
       </c>
       <c r="C65" s="4">
-        <v>4438</v>
+        <v>4439</v>
       </c>
       <c r="D65" s="4">
         <v>541</v>
@@ -1928,16 +1992,17 @@
       <c r="G65" s="4">
         <v>15</v>
       </c>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="L65" s="7"/>
+    </row>
+    <row r="66" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A66" s="3">
         <v>43920</v>
       </c>
       <c r="B66" s="4">
-        <v>69653</v>
+        <v>69659</v>
       </c>
       <c r="C66" s="4">
-        <v>4983</v>
+        <v>4984</v>
       </c>
       <c r="D66" s="4">
         <v>617</v>
@@ -1951,16 +2016,17 @@
       <c r="G66" s="4">
         <v>16</v>
       </c>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="L66" s="7"/>
+    </row>
+    <row r="67" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A67" s="3">
         <v>43921</v>
       </c>
       <c r="B67" s="4">
-        <v>77613</v>
+        <v>77619</v>
       </c>
       <c r="C67" s="4">
-        <v>5712</v>
+        <v>5713</v>
       </c>
       <c r="D67" s="4">
         <v>665</v>
@@ -1974,16 +2040,17 @@
       <c r="G67" s="4">
         <v>20</v>
       </c>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="L67" s="7"/>
+    </row>
+    <row r="68" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A68" s="3">
         <v>43922</v>
       </c>
       <c r="B68" s="4">
-        <v>86594</v>
+        <v>86600</v>
       </c>
       <c r="C68" s="4">
-        <v>6406</v>
+        <v>6407</v>
       </c>
       <c r="D68" s="4">
         <v>767</v>
@@ -1997,16 +2064,17 @@
       <c r="G68" s="4">
         <v>28</v>
       </c>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="L68" s="7"/>
+    </row>
+    <row r="69" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A69" s="3">
         <v>43923</v>
       </c>
       <c r="B69" s="4">
-        <v>96810</v>
+        <v>96816</v>
       </c>
       <c r="C69" s="4">
-        <v>7125</v>
+        <v>7126</v>
       </c>
       <c r="D69" s="4">
         <v>810</v>
@@ -2020,16 +2088,17 @@
       <c r="G69" s="4">
         <v>38</v>
       </c>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="L69" s="7"/>
+    </row>
+    <row r="70" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A70" s="3">
         <v>43924</v>
       </c>
       <c r="B70" s="4">
-        <v>107134</v>
+        <v>107141</v>
       </c>
       <c r="C70" s="4">
-        <v>7724</v>
+        <v>7725</v>
       </c>
       <c r="D70" s="4">
         <v>799</v>
@@ -2043,16 +2112,17 @@
       <c r="G70" s="4">
         <v>43</v>
       </c>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="L70" s="7"/>
+    </row>
+    <row r="71" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A71" s="3">
         <v>43925</v>
       </c>
       <c r="B71" s="4">
-        <v>113650</v>
+        <v>113657</v>
       </c>
       <c r="C71" s="4">
-        <v>8152</v>
+        <v>8153</v>
       </c>
       <c r="D71" s="4">
         <v>785</v>
@@ -2066,16 +2136,17 @@
       <c r="G71" s="4">
         <v>48</v>
       </c>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="L71" s="7"/>
+    </row>
+    <row r="72" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A72" s="3">
         <v>43926</v>
       </c>
       <c r="B72" s="4">
-        <v>123090</v>
+        <v>123100</v>
       </c>
       <c r="C72" s="4">
-        <v>8731</v>
+        <v>8732</v>
       </c>
       <c r="D72" s="4">
         <v>822</v>
@@ -2089,16 +2160,17 @@
       <c r="G72" s="4">
         <v>54</v>
       </c>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="L72" s="7"/>
+    </row>
+    <row r="73" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A73" s="3">
         <v>43927</v>
       </c>
       <c r="B73" s="4">
-        <v>130587</v>
+        <v>130597</v>
       </c>
       <c r="C73" s="4">
-        <v>9183</v>
+        <v>9184</v>
       </c>
       <c r="D73" s="4">
         <v>804</v>
@@ -2112,16 +2184,17 @@
       <c r="G73" s="4">
         <v>61</v>
       </c>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="L73" s="7"/>
+    </row>
+    <row r="74" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A74" s="3">
         <v>43928</v>
       </c>
       <c r="B74" s="4">
-        <v>137514</v>
+        <v>137525</v>
       </c>
       <c r="C74" s="4">
-        <v>9562</v>
+        <v>9563</v>
       </c>
       <c r="D74" s="4">
         <v>743</v>
@@ -2135,16 +2208,17 @@
       <c r="G74" s="4">
         <v>68</v>
       </c>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="L74" s="7"/>
+    </row>
+    <row r="75" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A75" s="3">
         <v>43929</v>
       </c>
       <c r="B75" s="4">
-        <v>143384</v>
+        <v>143395</v>
       </c>
       <c r="C75" s="4">
-        <v>9900</v>
+        <v>9901</v>
       </c>
       <c r="D75" s="4">
         <v>689</v>
@@ -2158,16 +2232,17 @@
       <c r="G75" s="4">
         <v>77</v>
       </c>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="L75" s="7"/>
+    </row>
+    <row r="76" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A76" s="3">
         <v>43930</v>
       </c>
       <c r="B76" s="4">
-        <v>149132</v>
+        <v>149143</v>
       </c>
       <c r="C76" s="4">
-        <v>10244</v>
+        <v>10245</v>
       </c>
       <c r="D76" s="4">
         <v>662</v>
@@ -2181,16 +2256,17 @@
       <c r="G76" s="4">
         <v>86</v>
       </c>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="L76" s="7"/>
+    </row>
+    <row r="77" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A77" s="3">
         <v>43931</v>
       </c>
       <c r="B77" s="4">
-        <v>156459</v>
+        <v>156470</v>
       </c>
       <c r="C77" s="4">
-        <v>10605</v>
+        <v>10606</v>
       </c>
       <c r="D77" s="4">
         <v>664</v>
@@ -2204,16 +2280,17 @@
       <c r="G77" s="4">
         <v>94</v>
       </c>
-    </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="L77" s="7"/>
+    </row>
+    <row r="78" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A78" s="3">
         <v>43932</v>
       </c>
       <c r="B78" s="4">
-        <v>163151</v>
+        <v>163162</v>
       </c>
       <c r="C78" s="4">
-        <v>10950</v>
+        <v>10951</v>
       </c>
       <c r="D78" s="4">
         <v>620</v>
@@ -2227,16 +2304,17 @@
       <c r="G78" s="4">
         <v>100</v>
       </c>
-    </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="L78" s="7"/>
+    </row>
+    <row r="79" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A79" s="3">
         <v>43933</v>
       </c>
       <c r="B79" s="4">
-        <v>173771</v>
+        <v>173782</v>
       </c>
       <c r="C79" s="4">
-        <v>11508</v>
+        <v>11509</v>
       </c>
       <c r="D79" s="4">
         <v>661</v>
@@ -2250,16 +2328,17 @@
       <c r="G79" s="4">
         <v>107</v>
       </c>
-    </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="L79" s="7"/>
+    </row>
+    <row r="80" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A80" s="3">
         <v>43934</v>
       </c>
       <c r="B80" s="4">
-        <v>184730</v>
+        <v>184741</v>
       </c>
       <c r="C80" s="4">
-        <v>11952</v>
+        <v>11953</v>
       </c>
       <c r="D80" s="4">
         <v>681</v>
@@ -2273,16 +2352,17 @@
       <c r="G80" s="4">
         <v>115</v>
       </c>
-    </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="L80" s="7"/>
+    </row>
+    <row r="81" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A81" s="3">
         <v>43935</v>
       </c>
       <c r="B81" s="4">
-        <v>197393</v>
+        <v>197404</v>
       </c>
       <c r="C81" s="4">
-        <v>12359</v>
+        <v>12360</v>
       </c>
       <c r="D81" s="4">
         <v>669</v>
@@ -2296,16 +2376,17 @@
       <c r="G81" s="4">
         <v>123</v>
       </c>
-    </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="L81" s="7"/>
+    </row>
+    <row r="82" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A82" s="3">
         <v>43936</v>
       </c>
       <c r="B82" s="4">
-        <v>206843</v>
+        <v>206854</v>
       </c>
       <c r="C82" s="4">
-        <v>12671</v>
+        <v>12672</v>
       </c>
       <c r="D82" s="4">
         <v>666</v>
@@ -2319,16 +2400,17 @@
       <c r="G82" s="4">
         <v>136</v>
       </c>
-    </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="L82" s="7"/>
+    </row>
+    <row r="83" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A83" s="3">
         <v>43937</v>
       </c>
       <c r="B83" s="4">
-        <v>219626</v>
+        <v>219637</v>
       </c>
       <c r="C83" s="4">
-        <v>12973</v>
+        <v>12974</v>
       </c>
       <c r="D83" s="4">
         <v>698</v>
@@ -2342,16 +2424,17 @@
       <c r="G83" s="4">
         <v>143</v>
       </c>
-    </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="L83" s="7"/>
+    </row>
+    <row r="84" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A84" s="3">
         <v>43938</v>
       </c>
       <c r="B84" s="4">
-        <v>231191</v>
+        <v>231198</v>
       </c>
       <c r="C84" s="4">
-        <v>13275</v>
+        <v>13276</v>
       </c>
       <c r="D84" s="4">
         <v>657</v>
@@ -2365,16 +2448,17 @@
       <c r="G84" s="4">
         <v>152</v>
       </c>
-    </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="L84" s="7"/>
+    </row>
+    <row r="85" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A85" s="3">
         <v>43939</v>
       </c>
       <c r="B85" s="4">
-        <v>241821</v>
+        <v>241828</v>
       </c>
       <c r="C85" s="4">
-        <v>13585</v>
+        <v>13586</v>
       </c>
       <c r="D85" s="4">
         <v>632</v>
@@ -2388,16 +2472,17 @@
       <c r="G85" s="4">
         <v>163</v>
       </c>
-    </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="L85" s="7"/>
+    </row>
+    <row r="86" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A86" s="3">
         <v>43940</v>
       </c>
       <c r="B86" s="4">
-        <v>253105</v>
+        <v>253112</v>
       </c>
       <c r="C86" s="4">
-        <v>13874</v>
+        <v>13875</v>
       </c>
       <c r="D86" s="4">
         <v>610</v>
@@ -2411,19 +2496,20 @@
       <c r="G86" s="4">
         <v>171</v>
       </c>
-    </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="L86" s="7"/>
+    </row>
+    <row r="87" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A87" s="3">
         <v>43941</v>
       </c>
       <c r="B87" s="4">
-        <v>268243</v>
+        <v>268249</v>
       </c>
       <c r="C87" s="4">
-        <v>14177</v>
+        <v>14178</v>
       </c>
       <c r="D87" s="4">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="E87" s="4">
         <v>150</v>
@@ -2434,19 +2520,20 @@
       <c r="G87" s="4">
         <v>177</v>
       </c>
-    </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="L87" s="7"/>
+    </row>
+    <row r="88" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A88" s="3">
         <v>43942</v>
       </c>
       <c r="B88" s="4">
-        <v>281731</v>
+        <v>281737</v>
       </c>
       <c r="C88" s="4">
         <v>14470</v>
       </c>
       <c r="D88" s="4">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="E88" s="4">
         <v>141</v>
@@ -2457,13 +2544,14 @@
       <c r="G88" s="4">
         <v>186</v>
       </c>
-    </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="L88" s="7"/>
+    </row>
+    <row r="89" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A89" s="3">
         <v>43943</v>
       </c>
       <c r="B89" s="4">
-        <v>295027</v>
+        <v>295032</v>
       </c>
       <c r="C89" s="4">
         <v>14700</v>
@@ -2480,16 +2568,17 @@
       <c r="G89" s="4">
         <v>189</v>
       </c>
-    </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="L89" s="7"/>
+    </row>
+    <row r="90" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A90" s="3">
         <v>43944</v>
       </c>
       <c r="B90" s="4">
-        <v>309185</v>
+        <v>309189</v>
       </c>
       <c r="C90" s="4">
-        <v>14982</v>
+        <v>14981</v>
       </c>
       <c r="D90" s="4">
         <v>484</v>
@@ -2503,16 +2592,17 @@
       <c r="G90" s="4">
         <v>193</v>
       </c>
-    </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="L90" s="7"/>
+    </row>
+    <row r="91" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A91" s="3">
         <v>43945</v>
       </c>
       <c r="B91" s="4">
-        <v>321798</v>
+        <v>321802</v>
       </c>
       <c r="C91" s="4">
-        <v>15236</v>
+        <v>15235</v>
       </c>
       <c r="D91" s="4">
         <v>446</v>
@@ -2526,6 +2616,55 @@
       <c r="G91" s="4">
         <v>196</v>
       </c>
+      <c r="L91" s="7"/>
+    </row>
+    <row r="92" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A92" s="3">
+        <v>43946</v>
+      </c>
+      <c r="B92" s="4">
+        <v>330881</v>
+      </c>
+      <c r="C92" s="4">
+        <v>15395</v>
+      </c>
+      <c r="D92" s="4">
+        <v>423</v>
+      </c>
+      <c r="E92" s="4">
+        <v>129</v>
+      </c>
+      <c r="F92" s="4">
+        <v>101</v>
+      </c>
+      <c r="G92" s="4">
+        <v>199</v>
+      </c>
+      <c r="L92" s="7"/>
+    </row>
+    <row r="93" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A93" s="3">
+        <v>43947</v>
+      </c>
+      <c r="B93" s="4">
+        <v>339348</v>
+      </c>
+      <c r="C93" s="4">
+        <v>15484</v>
+      </c>
+      <c r="D93" s="4">
+        <v>432</v>
+      </c>
+      <c r="E93" s="4">
+        <v>135</v>
+      </c>
+      <c r="F93" s="4">
+        <v>106</v>
+      </c>
+      <c r="G93" s="4">
+        <v>201</v>
+      </c>
+      <c r="L93" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/Israel/covid19-data-israel.xlsx
+++ b/data/Israel/covid19-data-israel.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="7480" windowHeight="2860"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="7485" windowHeight="2865"/>
   </bookViews>
   <sheets>
     <sheet name="SQL Results" sheetId="1" r:id="rId1"/>
@@ -123,7 +123,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -141,7 +141,6 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="47" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -423,19 +422,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L93"/>
+  <dimension ref="A1:G94"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="A1:G93"/>
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.1796875" style="6" customWidth="1"/>
-    <col min="2" max="7" width="12.1796875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="12.140625" style="6" customWidth="1"/>
+    <col min="2" max="7" width="12.140625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -458,7 +457,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>43856</v>
       </c>
@@ -480,9 +479,8 @@
       <c r="G2" s="4">
         <v>0</v>
       </c>
-      <c r="L2" s="7"/>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>43857</v>
       </c>
@@ -504,9 +502,8 @@
       <c r="G3" s="4">
         <v>0</v>
       </c>
-      <c r="L3" s="7"/>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>43858</v>
       </c>
@@ -528,9 +525,8 @@
       <c r="G4" s="4">
         <v>0</v>
       </c>
-      <c r="L4" s="7"/>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>43859</v>
       </c>
@@ -552,9 +548,8 @@
       <c r="G5" s="4">
         <v>0</v>
       </c>
-      <c r="L5" s="7"/>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>43860</v>
       </c>
@@ -576,9 +571,8 @@
       <c r="G6" s="4">
         <v>0</v>
       </c>
-      <c r="L6" s="7"/>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>43861</v>
       </c>
@@ -600,9 +594,8 @@
       <c r="G7" s="4">
         <v>0</v>
       </c>
-      <c r="L7" s="7"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>43862</v>
       </c>
@@ -624,9 +617,8 @@
       <c r="G8" s="4">
         <v>0</v>
       </c>
-      <c r="L8" s="7"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>43863</v>
       </c>
@@ -648,9 +640,8 @@
       <c r="G9" s="4">
         <v>0</v>
       </c>
-      <c r="L9" s="7"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>43864</v>
       </c>
@@ -672,9 +663,8 @@
       <c r="G10" s="4">
         <v>0</v>
       </c>
-      <c r="L10" s="7"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>43865</v>
       </c>
@@ -696,9 +686,8 @@
       <c r="G11" s="4">
         <v>0</v>
       </c>
-      <c r="L11" s="7"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>43866</v>
       </c>
@@ -720,9 +709,8 @@
       <c r="G12" s="4">
         <v>0</v>
       </c>
-      <c r="L12" s="7"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>43867</v>
       </c>
@@ -744,9 +732,8 @@
       <c r="G13" s="4">
         <v>0</v>
       </c>
-      <c r="L13" s="7"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <v>43868</v>
       </c>
@@ -768,9 +755,8 @@
       <c r="G14" s="4">
         <v>0</v>
       </c>
-      <c r="L14" s="7"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <v>43869</v>
       </c>
@@ -792,9 +778,8 @@
       <c r="G15" s="4">
         <v>0</v>
       </c>
-      <c r="L15" s="7"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <v>43870</v>
       </c>
@@ -816,9 +801,8 @@
       <c r="G16" s="4">
         <v>0</v>
       </c>
-      <c r="L16" s="7"/>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
         <v>43871</v>
       </c>
@@ -840,9 +824,8 @@
       <c r="G17" s="4">
         <v>0</v>
       </c>
-      <c r="L17" s="7"/>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.35">
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <v>43872</v>
       </c>
@@ -864,9 +847,8 @@
       <c r="G18" s="4">
         <v>0</v>
       </c>
-      <c r="L18" s="7"/>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.35">
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
         <v>43873</v>
       </c>
@@ -888,9 +870,8 @@
       <c r="G19" s="4">
         <v>0</v>
       </c>
-      <c r="L19" s="7"/>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.35">
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
         <v>43874</v>
       </c>
@@ -912,9 +893,8 @@
       <c r="G20" s="4">
         <v>0</v>
       </c>
-      <c r="L20" s="7"/>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.35">
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
         <v>43875</v>
       </c>
@@ -936,9 +916,8 @@
       <c r="G21" s="4">
         <v>0</v>
       </c>
-      <c r="L21" s="7"/>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.35">
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
         <v>43876</v>
       </c>
@@ -960,9 +939,8 @@
       <c r="G22" s="4">
         <v>0</v>
       </c>
-      <c r="L22" s="7"/>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.35">
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
         <v>43877</v>
       </c>
@@ -984,9 +962,8 @@
       <c r="G23" s="4">
         <v>0</v>
       </c>
-      <c r="L23" s="7"/>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.35">
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
         <v>43878</v>
       </c>
@@ -1008,9 +985,8 @@
       <c r="G24" s="4">
         <v>0</v>
       </c>
-      <c r="L24" s="7"/>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.35">
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
         <v>43879</v>
       </c>
@@ -1032,9 +1008,8 @@
       <c r="G25" s="4">
         <v>0</v>
       </c>
-      <c r="L25" s="7"/>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.35">
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
         <v>43880</v>
       </c>
@@ -1056,9 +1031,8 @@
       <c r="G26" s="4">
         <v>0</v>
       </c>
-      <c r="L26" s="7"/>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.35">
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="3">
         <v>43881</v>
       </c>
@@ -1080,9 +1054,8 @@
       <c r="G27" s="4">
         <v>0</v>
       </c>
-      <c r="L27" s="7"/>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.35">
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="3">
         <v>43882</v>
       </c>
@@ -1104,9 +1077,8 @@
       <c r="G28" s="4">
         <v>0</v>
       </c>
-      <c r="L28" s="7"/>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.35">
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="3">
         <v>43883</v>
       </c>
@@ -1128,9 +1100,8 @@
       <c r="G29" s="4">
         <v>0</v>
       </c>
-      <c r="L29" s="7"/>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.35">
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="3">
         <v>43884</v>
       </c>
@@ -1152,9 +1123,8 @@
       <c r="G30" s="4">
         <v>0</v>
       </c>
-      <c r="L30" s="7"/>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.35">
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="3">
         <v>43885</v>
       </c>
@@ -1176,9 +1146,8 @@
       <c r="G31" s="4">
         <v>0</v>
       </c>
-      <c r="L31" s="7"/>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.35">
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="3">
         <v>43886</v>
       </c>
@@ -1200,9 +1169,8 @@
       <c r="G32" s="4">
         <v>0</v>
       </c>
-      <c r="L32" s="7"/>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.35">
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="3">
         <v>43887</v>
       </c>
@@ -1224,9 +1192,8 @@
       <c r="G33" s="4">
         <v>0</v>
       </c>
-      <c r="L33" s="7"/>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.35">
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="3">
         <v>43888</v>
       </c>
@@ -1248,9 +1215,8 @@
       <c r="G34" s="4">
         <v>0</v>
       </c>
-      <c r="L34" s="7"/>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.35">
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="3">
         <v>43889</v>
       </c>
@@ -1272,9 +1238,8 @@
       <c r="G35" s="4">
         <v>0</v>
       </c>
-      <c r="L35" s="7"/>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.35">
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="3">
         <v>43890</v>
       </c>
@@ -1296,9 +1261,8 @@
       <c r="G36" s="4">
         <v>0</v>
       </c>
-      <c r="L36" s="7"/>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.35">
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="3">
         <v>43891</v>
       </c>
@@ -1320,9 +1284,8 @@
       <c r="G37" s="4">
         <v>0</v>
       </c>
-      <c r="L37" s="7"/>
-    </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.35">
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="3">
         <v>43892</v>
       </c>
@@ -1344,9 +1307,8 @@
       <c r="G38" s="4">
         <v>0</v>
       </c>
-      <c r="L38" s="7"/>
-    </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.35">
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="3">
         <v>43893</v>
       </c>
@@ -1368,9 +1330,8 @@
       <c r="G39" s="4">
         <v>0</v>
       </c>
-      <c r="L39" s="7"/>
-    </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.35">
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="3">
         <v>43894</v>
       </c>
@@ -1392,9 +1353,8 @@
       <c r="G40" s="4">
         <v>0</v>
       </c>
-      <c r="L40" s="7"/>
-    </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.35">
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="3">
         <v>43895</v>
       </c>
@@ -1416,9 +1376,8 @@
       <c r="G41" s="4">
         <v>0</v>
       </c>
-      <c r="L41" s="7"/>
-    </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.35">
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="3">
         <v>43896</v>
       </c>
@@ -1440,9 +1399,8 @@
       <c r="G42" s="4">
         <v>0</v>
       </c>
-      <c r="L42" s="7"/>
-    </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.35">
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="3">
         <v>43897</v>
       </c>
@@ -1464,9 +1422,8 @@
       <c r="G43" s="4">
         <v>0</v>
       </c>
-      <c r="L43" s="7"/>
-    </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.35">
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="3">
         <v>43898</v>
       </c>
@@ -1488,9 +1445,8 @@
       <c r="G44" s="4">
         <v>0</v>
       </c>
-      <c r="L44" s="7"/>
-    </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.35">
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="3">
         <v>43899</v>
       </c>
@@ -1512,9 +1468,8 @@
       <c r="G45" s="4">
         <v>0</v>
       </c>
-      <c r="L45" s="7"/>
-    </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.35">
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="3">
         <v>43900</v>
       </c>
@@ -1536,9 +1491,8 @@
       <c r="G46" s="4">
         <v>0</v>
       </c>
-      <c r="L46" s="7"/>
-    </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.35">
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="3">
         <v>43901</v>
       </c>
@@ -1560,9 +1514,8 @@
       <c r="G47" s="4">
         <v>0</v>
       </c>
-      <c r="L47" s="7"/>
-    </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.35">
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="3">
         <v>43902</v>
       </c>
@@ -1584,9 +1537,8 @@
       <c r="G48" s="4">
         <v>0</v>
       </c>
-      <c r="L48" s="7"/>
-    </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.35">
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="3">
         <v>43903</v>
       </c>
@@ -1608,9 +1560,8 @@
       <c r="G49" s="4">
         <v>0</v>
       </c>
-      <c r="L49" s="7"/>
-    </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.35">
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="3">
         <v>43904</v>
       </c>
@@ -1632,9 +1583,8 @@
       <c r="G50" s="4">
         <v>0</v>
       </c>
-      <c r="L50" s="7"/>
-    </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.35">
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="3">
         <v>43905</v>
       </c>
@@ -1656,9 +1606,8 @@
       <c r="G51" s="4">
         <v>0</v>
       </c>
-      <c r="L51" s="7"/>
-    </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.35">
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="3">
         <v>43906</v>
       </c>
@@ -1680,9 +1629,8 @@
       <c r="G52" s="4">
         <v>0</v>
       </c>
-      <c r="L52" s="7"/>
-    </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.35">
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="3">
         <v>43907</v>
       </c>
@@ -1704,9 +1652,8 @@
       <c r="G53" s="4">
         <v>0</v>
       </c>
-      <c r="L53" s="7"/>
-    </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.35">
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" s="3">
         <v>43908</v>
       </c>
@@ -1728,9 +1675,8 @@
       <c r="G54" s="4">
         <v>0</v>
       </c>
-      <c r="L54" s="7"/>
-    </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.35">
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" s="3">
         <v>43909</v>
       </c>
@@ -1752,9 +1698,8 @@
       <c r="G55" s="4">
         <v>0</v>
       </c>
-      <c r="L55" s="7"/>
-    </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.35">
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" s="3">
         <v>43910</v>
       </c>
@@ -1776,9 +1721,8 @@
       <c r="G56" s="4">
         <v>1</v>
       </c>
-      <c r="L56" s="7"/>
-    </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.35">
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" s="3">
         <v>43911</v>
       </c>
@@ -1800,9 +1744,8 @@
       <c r="G57" s="4">
         <v>1</v>
       </c>
-      <c r="L57" s="7"/>
-    </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.35">
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" s="3">
         <v>43912</v>
       </c>
@@ -1824,14 +1767,13 @@
       <c r="G58" s="4">
         <v>1</v>
       </c>
-      <c r="L58" s="7"/>
-    </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.35">
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" s="3">
         <v>43913</v>
       </c>
       <c r="B59" s="4">
-        <v>26332</v>
+        <v>26335</v>
       </c>
       <c r="C59" s="4">
         <v>1619</v>
@@ -1848,14 +1790,13 @@
       <c r="G59" s="4">
         <v>1</v>
       </c>
-      <c r="L59" s="7"/>
-    </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.35">
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" s="3">
         <v>43914</v>
       </c>
       <c r="B60" s="4">
-        <v>31114</v>
+        <v>31118</v>
       </c>
       <c r="C60" s="4">
         <v>2041</v>
@@ -1872,14 +1813,13 @@
       <c r="G60" s="4">
         <v>4</v>
       </c>
-      <c r="L60" s="7"/>
-    </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.35">
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" s="3">
         <v>43915</v>
       </c>
       <c r="B61" s="4">
-        <v>37039</v>
+        <v>37044</v>
       </c>
       <c r="C61" s="4">
         <v>2465</v>
@@ -1896,14 +1836,13 @@
       <c r="G61" s="4">
         <v>5</v>
       </c>
-      <c r="L61" s="7"/>
-    </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.35">
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" s="3">
         <v>43916</v>
       </c>
       <c r="B62" s="4">
-        <v>43549</v>
+        <v>43555</v>
       </c>
       <c r="C62" s="4">
         <v>2992</v>
@@ -1920,14 +1859,13 @@
       <c r="G62" s="4">
         <v>10</v>
       </c>
-      <c r="L62" s="7"/>
-    </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.35">
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" s="3">
         <v>43917</v>
       </c>
       <c r="B63" s="4">
-        <v>49294</v>
+        <v>49300</v>
       </c>
       <c r="C63" s="4">
         <v>3427</v>
@@ -1944,14 +1882,13 @@
       <c r="G63" s="4">
         <v>12</v>
       </c>
-      <c r="L63" s="7"/>
-    </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.35">
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" s="3">
         <v>43918</v>
       </c>
       <c r="B64" s="4">
-        <v>55004</v>
+        <v>55010</v>
       </c>
       <c r="C64" s="4">
         <v>3907</v>
@@ -1968,14 +1905,13 @@
       <c r="G64" s="4">
         <v>12</v>
       </c>
-      <c r="L64" s="7"/>
-    </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.35">
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" s="3">
         <v>43919</v>
       </c>
       <c r="B65" s="4">
-        <v>62568</v>
+        <v>62574</v>
       </c>
       <c r="C65" s="4">
         <v>4439</v>
@@ -1992,14 +1928,13 @@
       <c r="G65" s="4">
         <v>15</v>
       </c>
-      <c r="L65" s="7"/>
-    </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.35">
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" s="3">
         <v>43920</v>
       </c>
       <c r="B66" s="4">
-        <v>69659</v>
+        <v>69665</v>
       </c>
       <c r="C66" s="4">
         <v>4984</v>
@@ -2016,14 +1951,13 @@
       <c r="G66" s="4">
         <v>16</v>
       </c>
-      <c r="L66" s="7"/>
-    </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.35">
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" s="3">
         <v>43921</v>
       </c>
       <c r="B67" s="4">
-        <v>77619</v>
+        <v>77625</v>
       </c>
       <c r="C67" s="4">
         <v>5713</v>
@@ -2040,14 +1974,13 @@
       <c r="G67" s="4">
         <v>20</v>
       </c>
-      <c r="L67" s="7"/>
-    </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.35">
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" s="3">
         <v>43922</v>
       </c>
       <c r="B68" s="4">
-        <v>86600</v>
+        <v>86606</v>
       </c>
       <c r="C68" s="4">
         <v>6407</v>
@@ -2064,607 +1997,604 @@
       <c r="G68" s="4">
         <v>28</v>
       </c>
-      <c r="L68" s="7"/>
-    </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.35">
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" s="3">
         <v>43923</v>
       </c>
       <c r="B69" s="4">
-        <v>96816</v>
+        <v>96823</v>
       </c>
       <c r="C69" s="4">
-        <v>7126</v>
+        <v>7127</v>
       </c>
       <c r="D69" s="4">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="E69" s="4">
         <v>112</v>
       </c>
       <c r="F69" s="4">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G69" s="4">
         <v>38</v>
       </c>
-      <c r="L69" s="7"/>
-    </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.35">
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" s="3">
         <v>43924</v>
       </c>
       <c r="B70" s="4">
-        <v>107141</v>
+        <v>107148</v>
       </c>
       <c r="C70" s="4">
-        <v>7725</v>
+        <v>7726</v>
       </c>
       <c r="D70" s="4">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="E70" s="4">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="F70" s="4">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="G70" s="4">
         <v>43</v>
       </c>
-      <c r="L70" s="7"/>
-    </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.35">
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" s="3">
         <v>43925</v>
       </c>
       <c r="B71" s="4">
-        <v>113657</v>
+        <v>113664</v>
       </c>
       <c r="C71" s="4">
-        <v>8153</v>
+        <v>8154</v>
       </c>
       <c r="D71" s="4">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="E71" s="4">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="F71" s="4">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="G71" s="4">
         <v>48</v>
       </c>
-      <c r="L71" s="7"/>
-    </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.35">
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" s="3">
         <v>43926</v>
       </c>
       <c r="B72" s="4">
-        <v>123100</v>
+        <v>123107</v>
       </c>
       <c r="C72" s="4">
-        <v>8732</v>
+        <v>8733</v>
       </c>
       <c r="D72" s="4">
-        <v>822</v>
+        <v>823</v>
       </c>
       <c r="E72" s="4">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F72" s="4">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="G72" s="4">
         <v>54</v>
       </c>
-      <c r="L72" s="7"/>
-    </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.35">
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" s="3">
         <v>43927</v>
       </c>
       <c r="B73" s="4">
-        <v>130597</v>
+        <v>130604</v>
       </c>
       <c r="C73" s="4">
-        <v>9184</v>
+        <v>9185</v>
       </c>
       <c r="D73" s="4">
-        <v>804</v>
+        <v>806</v>
       </c>
       <c r="E73" s="4">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="F73" s="4">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="G73" s="4">
         <v>61</v>
       </c>
-      <c r="L73" s="7"/>
-    </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.35">
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" s="3">
         <v>43928</v>
       </c>
       <c r="B74" s="4">
-        <v>137525</v>
+        <v>137532</v>
       </c>
       <c r="C74" s="4">
-        <v>9563</v>
+        <v>9564</v>
       </c>
       <c r="D74" s="4">
         <v>743</v>
       </c>
       <c r="E74" s="4">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="F74" s="4">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="G74" s="4">
         <v>68</v>
       </c>
-      <c r="L74" s="7"/>
-    </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.35">
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" s="3">
         <v>43929</v>
       </c>
       <c r="B75" s="4">
-        <v>143395</v>
+        <v>143402</v>
       </c>
       <c r="C75" s="4">
-        <v>9901</v>
+        <v>9902</v>
       </c>
       <c r="D75" s="4">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="E75" s="4">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="F75" s="4">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="G75" s="4">
         <v>77</v>
       </c>
-      <c r="L75" s="7"/>
-    </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.35">
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" s="3">
         <v>43930</v>
       </c>
       <c r="B76" s="4">
-        <v>149143</v>
+        <v>149150</v>
       </c>
       <c r="C76" s="4">
-        <v>10245</v>
+        <v>10246</v>
       </c>
       <c r="D76" s="4">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="E76" s="4">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="F76" s="4">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="G76" s="4">
         <v>86</v>
       </c>
-      <c r="L76" s="7"/>
-    </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.35">
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" s="3">
         <v>43931</v>
       </c>
       <c r="B77" s="4">
-        <v>156470</v>
+        <v>156476</v>
       </c>
       <c r="C77" s="4">
-        <v>10606</v>
+        <v>10607</v>
       </c>
       <c r="D77" s="4">
-        <v>664</v>
+        <v>666</v>
       </c>
       <c r="E77" s="4">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="F77" s="4">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="G77" s="4">
         <v>94</v>
       </c>
-      <c r="L77" s="7"/>
-    </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.35">
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" s="3">
         <v>43932</v>
       </c>
       <c r="B78" s="4">
-        <v>163162</v>
+        <v>163167</v>
       </c>
       <c r="C78" s="4">
-        <v>10951</v>
+        <v>10952</v>
       </c>
       <c r="D78" s="4">
-        <v>620</v>
+        <v>623</v>
       </c>
       <c r="E78" s="4">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="F78" s="4">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="G78" s="4">
         <v>100</v>
       </c>
-      <c r="L78" s="7"/>
-    </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.35">
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" s="3">
         <v>43933</v>
       </c>
       <c r="B79" s="4">
-        <v>173782</v>
+        <v>173787</v>
       </c>
       <c r="C79" s="4">
-        <v>11509</v>
+        <v>11510</v>
       </c>
       <c r="D79" s="4">
-        <v>661</v>
+        <v>664</v>
       </c>
       <c r="E79" s="4">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="F79" s="4">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="G79" s="4">
         <v>107</v>
       </c>
-      <c r="L79" s="7"/>
-    </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.35">
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" s="3">
         <v>43934</v>
       </c>
       <c r="B80" s="4">
-        <v>184741</v>
+        <v>184746</v>
       </c>
       <c r="C80" s="4">
-        <v>11953</v>
+        <v>11954</v>
       </c>
       <c r="D80" s="4">
-        <v>681</v>
+        <v>684</v>
       </c>
       <c r="E80" s="4">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="F80" s="4">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="G80" s="4">
         <v>115</v>
       </c>
-      <c r="L80" s="7"/>
-    </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.35">
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" s="3">
         <v>43935</v>
       </c>
       <c r="B81" s="4">
-        <v>197404</v>
+        <v>197409</v>
       </c>
       <c r="C81" s="4">
-        <v>12360</v>
+        <v>12361</v>
       </c>
       <c r="D81" s="4">
-        <v>669</v>
+        <v>672</v>
       </c>
       <c r="E81" s="4">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="F81" s="4">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G81" s="4">
         <v>123</v>
       </c>
-      <c r="L81" s="7"/>
-    </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.35">
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" s="3">
         <v>43936</v>
       </c>
       <c r="B82" s="4">
-        <v>206854</v>
+        <v>206859</v>
       </c>
       <c r="C82" s="4">
-        <v>12672</v>
+        <v>12673</v>
       </c>
       <c r="D82" s="4">
-        <v>666</v>
+        <v>670</v>
       </c>
       <c r="E82" s="4">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="F82" s="4">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="G82" s="4">
         <v>136</v>
       </c>
-      <c r="L82" s="7"/>
-    </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.35">
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" s="3">
         <v>43937</v>
       </c>
       <c r="B83" s="4">
-        <v>219637</v>
+        <v>219643</v>
       </c>
       <c r="C83" s="4">
         <v>12974</v>
       </c>
       <c r="D83" s="4">
-        <v>698</v>
+        <v>703</v>
       </c>
       <c r="E83" s="4">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="F83" s="4">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="G83" s="4">
         <v>143</v>
       </c>
-      <c r="L83" s="7"/>
-    </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.35">
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" s="3">
         <v>43938</v>
       </c>
       <c r="B84" s="4">
-        <v>231198</v>
+        <v>231204</v>
       </c>
       <c r="C84" s="4">
-        <v>13276</v>
+        <v>13275</v>
       </c>
       <c r="D84" s="4">
-        <v>657</v>
+        <v>662</v>
       </c>
       <c r="E84" s="4">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="F84" s="4">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="G84" s="4">
         <v>152</v>
       </c>
-      <c r="L84" s="7"/>
-    </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.35">
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" s="3">
         <v>43939</v>
       </c>
       <c r="B85" s="4">
-        <v>241828</v>
+        <v>241834</v>
       </c>
       <c r="C85" s="4">
-        <v>13586</v>
+        <v>13585</v>
       </c>
       <c r="D85" s="4">
-        <v>632</v>
+        <v>642</v>
       </c>
       <c r="E85" s="4">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="F85" s="4">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="G85" s="4">
         <v>163</v>
       </c>
-      <c r="L85" s="7"/>
-    </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.35">
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" s="3">
         <v>43940</v>
       </c>
       <c r="B86" s="4">
-        <v>253112</v>
+        <v>253297</v>
       </c>
       <c r="C86" s="4">
-        <v>13875</v>
+        <v>13878</v>
       </c>
       <c r="D86" s="4">
-        <v>610</v>
+        <v>619</v>
       </c>
       <c r="E86" s="4">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="F86" s="4">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="G86" s="4">
         <v>171</v>
       </c>
-      <c r="L86" s="7"/>
-    </row>
-    <row r="87" spans="1:12" x14ac:dyDescent="0.35">
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" s="3">
         <v>43941</v>
       </c>
       <c r="B87" s="4">
-        <v>268249</v>
+        <v>268644</v>
       </c>
       <c r="C87" s="4">
-        <v>14178</v>
+        <v>14185</v>
       </c>
       <c r="D87" s="4">
-        <v>606</v>
+        <v>614</v>
       </c>
       <c r="E87" s="4">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="F87" s="4">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="G87" s="4">
         <v>177</v>
       </c>
-      <c r="L87" s="7"/>
-    </row>
-    <row r="88" spans="1:12" x14ac:dyDescent="0.35">
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" s="3">
         <v>43942</v>
       </c>
       <c r="B88" s="4">
-        <v>281737</v>
+        <v>282229</v>
       </c>
       <c r="C88" s="4">
-        <v>14470</v>
+        <v>14479</v>
       </c>
       <c r="D88" s="4">
-        <v>537</v>
+        <v>543</v>
       </c>
       <c r="E88" s="4">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="F88" s="4">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="G88" s="4">
         <v>186</v>
       </c>
-      <c r="L88" s="7"/>
-    </row>
-    <row r="89" spans="1:12" x14ac:dyDescent="0.35">
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" s="3">
         <v>43943</v>
       </c>
       <c r="B89" s="4">
-        <v>295032</v>
+        <v>295523</v>
       </c>
       <c r="C89" s="4">
-        <v>14700</v>
+        <v>14708</v>
       </c>
       <c r="D89" s="4">
-        <v>523</v>
+        <v>532</v>
       </c>
       <c r="E89" s="4">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="F89" s="4">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="G89" s="4">
         <v>189</v>
       </c>
-      <c r="L89" s="7"/>
-    </row>
-    <row r="90" spans="1:12" x14ac:dyDescent="0.35">
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" s="3">
         <v>43944</v>
       </c>
       <c r="B90" s="4">
-        <v>309189</v>
+        <v>309680</v>
       </c>
       <c r="C90" s="4">
-        <v>14981</v>
+        <v>14989</v>
       </c>
       <c r="D90" s="4">
-        <v>484</v>
+        <v>491</v>
       </c>
       <c r="E90" s="4">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="F90" s="4">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="G90" s="4">
         <v>193</v>
       </c>
-      <c r="L90" s="7"/>
-    </row>
-    <row r="91" spans="1:12" x14ac:dyDescent="0.35">
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91" s="3">
         <v>43945</v>
       </c>
       <c r="B91" s="4">
-        <v>321802</v>
+        <v>322293</v>
       </c>
       <c r="C91" s="4">
-        <v>15235</v>
+        <v>15243</v>
       </c>
       <c r="D91" s="4">
-        <v>446</v>
+        <v>454</v>
       </c>
       <c r="E91" s="4">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="F91" s="4">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="G91" s="4">
         <v>196</v>
       </c>
-      <c r="L91" s="7"/>
-    </row>
-    <row r="92" spans="1:12" x14ac:dyDescent="0.35">
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92" s="3">
         <v>43946</v>
       </c>
       <c r="B92" s="4">
-        <v>330881</v>
+        <v>331372</v>
       </c>
       <c r="C92" s="4">
-        <v>15395</v>
+        <v>15403</v>
       </c>
       <c r="D92" s="4">
-        <v>423</v>
+        <v>432</v>
       </c>
       <c r="E92" s="4">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="F92" s="4">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="G92" s="4">
         <v>199</v>
       </c>
-      <c r="L92" s="7"/>
-    </row>
-    <row r="93" spans="1:12" x14ac:dyDescent="0.35">
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93" s="3">
         <v>43947</v>
       </c>
       <c r="B93" s="4">
-        <v>339348</v>
+        <v>339839</v>
       </c>
       <c r="C93" s="4">
-        <v>15484</v>
+        <v>15491</v>
       </c>
       <c r="D93" s="4">
-        <v>432</v>
+        <v>441</v>
       </c>
       <c r="E93" s="4">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="F93" s="4">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="G93" s="4">
         <v>201</v>
       </c>
-      <c r="L93" s="7"/>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A94" s="3">
+        <v>43948</v>
+      </c>
+      <c r="B94" s="4">
+        <v>350858</v>
+      </c>
+      <c r="C94" s="4">
+        <v>15607</v>
+      </c>
+      <c r="D94" s="4">
+        <v>410</v>
+      </c>
+      <c r="E94" s="4">
+        <v>130</v>
+      </c>
+      <c r="F94" s="4">
+        <v>99</v>
+      </c>
+      <c r="G94" s="4">
+        <v>205</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/Israel/covid19-data-israel.xlsx
+++ b/data/Israel/covid19-data-israel.xlsx
@@ -422,10 +422,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G94"/>
+  <dimension ref="A1:G95"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+      <selection activeCell="D95" sqref="D95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -853,10 +853,10 @@
         <v>43873</v>
       </c>
       <c r="B19" s="4">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C19" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D19" s="4">
         <v>0</v>
@@ -876,10 +876,10 @@
         <v>43874</v>
       </c>
       <c r="B20" s="4">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C20" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D20" s="4">
         <v>0</v>
@@ -899,10 +899,10 @@
         <v>43875</v>
       </c>
       <c r="B21" s="4">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="C21" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D21" s="4">
         <v>0</v>
@@ -922,10 +922,10 @@
         <v>43876</v>
       </c>
       <c r="B22" s="4">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C22" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D22" s="4">
         <v>0</v>
@@ -945,10 +945,10 @@
         <v>43877</v>
       </c>
       <c r="B23" s="4">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C23" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D23" s="4">
         <v>0</v>
@@ -968,10 +968,10 @@
         <v>43878</v>
       </c>
       <c r="B24" s="4">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="C24" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D24" s="4">
         <v>0</v>
@@ -991,10 +991,10 @@
         <v>43879</v>
       </c>
       <c r="B25" s="4">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="C25" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D25" s="4">
         <v>0</v>
@@ -1014,10 +1014,10 @@
         <v>43880</v>
       </c>
       <c r="B26" s="4">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="C26" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D26" s="4">
         <v>0</v>
@@ -1037,10 +1037,10 @@
         <v>43881</v>
       </c>
       <c r="B27" s="4">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="C27" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D27" s="4">
         <v>0</v>
@@ -1060,10 +1060,10 @@
         <v>43882</v>
       </c>
       <c r="B28" s="4">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="C28" s="4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D28" s="4">
         <v>2</v>
@@ -1083,10 +1083,10 @@
         <v>43883</v>
       </c>
       <c r="B29" s="4">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="C29" s="4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D29" s="4">
         <v>2</v>
@@ -1106,10 +1106,10 @@
         <v>43884</v>
       </c>
       <c r="B30" s="4">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="C30" s="4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D30" s="4">
         <v>2</v>
@@ -1129,10 +1129,10 @@
         <v>43885</v>
       </c>
       <c r="B31" s="4">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="C31" s="4">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D31" s="4">
         <v>2</v>
@@ -1152,10 +1152,10 @@
         <v>43886</v>
       </c>
       <c r="B32" s="4">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="C32" s="4">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D32" s="4">
         <v>2</v>
@@ -1175,10 +1175,10 @@
         <v>43887</v>
       </c>
       <c r="B33" s="4">
-        <v>823</v>
+        <v>821</v>
       </c>
       <c r="C33" s="4">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D33" s="4">
         <v>2</v>
@@ -1198,10 +1198,10 @@
         <v>43888</v>
       </c>
       <c r="B34" s="4">
-        <v>994</v>
+        <v>992</v>
       </c>
       <c r="C34" s="4">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D34" s="4">
         <v>3</v>
@@ -1221,10 +1221,10 @@
         <v>43889</v>
       </c>
       <c r="B35" s="4">
-        <v>1112</v>
+        <v>1110</v>
       </c>
       <c r="C35" s="4">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D35" s="4">
         <v>5</v>
@@ -1244,10 +1244,10 @@
         <v>43890</v>
       </c>
       <c r="B36" s="4">
-        <v>1272</v>
+        <v>1270</v>
       </c>
       <c r="C36" s="4">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D36" s="4">
         <v>5</v>
@@ -1267,10 +1267,10 @@
         <v>43891</v>
       </c>
       <c r="B37" s="4">
-        <v>1462</v>
+        <v>1460</v>
       </c>
       <c r="C37" s="4">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D37" s="4">
         <v>7</v>
@@ -1290,10 +1290,10 @@
         <v>43892</v>
       </c>
       <c r="B38" s="4">
-        <v>1633</v>
+        <v>1631</v>
       </c>
       <c r="C38" s="4">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D38" s="4">
         <v>11</v>
@@ -1313,10 +1313,10 @@
         <v>43893</v>
       </c>
       <c r="B39" s="4">
-        <v>1867</v>
+        <v>1865</v>
       </c>
       <c r="C39" s="4">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D39" s="4">
         <v>11</v>
@@ -1336,10 +1336,10 @@
         <v>43894</v>
       </c>
       <c r="B40" s="4">
-        <v>1996</v>
+        <v>1994</v>
       </c>
       <c r="C40" s="4">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D40" s="4">
         <v>11</v>
@@ -1359,10 +1359,10 @@
         <v>43895</v>
       </c>
       <c r="B41" s="4">
-        <v>2169</v>
+        <v>2167</v>
       </c>
       <c r="C41" s="4">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D41" s="4">
         <v>13</v>
@@ -1382,10 +1382,10 @@
         <v>43896</v>
       </c>
       <c r="B42" s="4">
-        <v>2444</v>
+        <v>2442</v>
       </c>
       <c r="C42" s="4">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D42" s="4">
         <v>16</v>
@@ -1405,10 +1405,10 @@
         <v>43897</v>
       </c>
       <c r="B43" s="4">
-        <v>2782</v>
+        <v>2780</v>
       </c>
       <c r="C43" s="4">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="D43" s="4">
         <v>19</v>
@@ -1428,10 +1428,10 @@
         <v>43898</v>
       </c>
       <c r="B44" s="4">
-        <v>3204</v>
+        <v>3202</v>
       </c>
       <c r="C44" s="4">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="D44" s="4">
         <v>26</v>
@@ -1451,10 +1451,10 @@
         <v>43899</v>
       </c>
       <c r="B45" s="4">
-        <v>3723</v>
+        <v>3721</v>
       </c>
       <c r="C45" s="4">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="D45" s="4">
         <v>40</v>
@@ -1474,10 +1474,10 @@
         <v>43900</v>
       </c>
       <c r="B46" s="4">
-        <v>4244</v>
+        <v>4242</v>
       </c>
       <c r="C46" s="4">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="D46" s="4">
         <v>59</v>
@@ -1497,10 +1497,10 @@
         <v>43901</v>
       </c>
       <c r="B47" s="4">
-        <v>4647</v>
+        <v>4645</v>
       </c>
       <c r="C47" s="4">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="D47" s="4">
         <v>81</v>
@@ -1520,10 +1520,10 @@
         <v>43902</v>
       </c>
       <c r="B48" s="4">
-        <v>5254</v>
+        <v>5252</v>
       </c>
       <c r="C48" s="4">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="D48" s="4">
         <v>103</v>
@@ -1543,10 +1543,10 @@
         <v>43903</v>
       </c>
       <c r="B49" s="4">
-        <v>5950</v>
+        <v>5948</v>
       </c>
       <c r="C49" s="4">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="D49" s="4">
         <v>123</v>
@@ -1566,10 +1566,10 @@
         <v>43904</v>
       </c>
       <c r="B50" s="4">
-        <v>6563</v>
+        <v>6561</v>
       </c>
       <c r="C50" s="4">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="D50" s="4">
         <v>161</v>
@@ -1589,10 +1589,10 @@
         <v>43905</v>
       </c>
       <c r="B51" s="4">
-        <v>7747</v>
+        <v>7745</v>
       </c>
       <c r="C51" s="4">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="D51" s="4">
         <v>201</v>
@@ -1612,10 +1612,10 @@
         <v>43906</v>
       </c>
       <c r="B52" s="4">
-        <v>9092</v>
+        <v>9090</v>
       </c>
       <c r="C52" s="4">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="D52" s="4">
         <v>221</v>
@@ -1635,10 +1635,10 @@
         <v>43907</v>
       </c>
       <c r="B53" s="4">
-        <v>10748</v>
+        <v>10747</v>
       </c>
       <c r="C53" s="4">
-        <v>393</v>
+        <v>388</v>
       </c>
       <c r="D53" s="4">
         <v>257</v>
@@ -1661,7 +1661,7 @@
         <v>12866</v>
       </c>
       <c r="C54" s="4">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="D54" s="4">
         <v>306</v>
@@ -1684,7 +1684,7 @@
         <v>14947</v>
       </c>
       <c r="C55" s="4">
-        <v>647</v>
+        <v>643</v>
       </c>
       <c r="D55" s="4">
         <v>295</v>
@@ -1707,7 +1707,7 @@
         <v>17272</v>
       </c>
       <c r="C56" s="4">
-        <v>816</v>
+        <v>812</v>
       </c>
       <c r="D56" s="4">
         <v>288</v>
@@ -1730,7 +1730,7 @@
         <v>19369</v>
       </c>
       <c r="C57" s="4">
-        <v>1022</v>
+        <v>1018</v>
       </c>
       <c r="D57" s="4">
         <v>276</v>
@@ -1753,7 +1753,7 @@
         <v>22705</v>
       </c>
       <c r="C58" s="4">
-        <v>1271</v>
+        <v>1267</v>
       </c>
       <c r="D58" s="4">
         <v>323</v>
@@ -1776,7 +1776,7 @@
         <v>26335</v>
       </c>
       <c r="C59" s="4">
-        <v>1619</v>
+        <v>1615</v>
       </c>
       <c r="D59" s="4">
         <v>350</v>
@@ -1799,7 +1799,7 @@
         <v>31118</v>
       </c>
       <c r="C60" s="4">
-        <v>2041</v>
+        <v>2036</v>
       </c>
       <c r="D60" s="4">
         <v>393</v>
@@ -1822,7 +1822,7 @@
         <v>37044</v>
       </c>
       <c r="C61" s="4">
-        <v>2465</v>
+        <v>2460</v>
       </c>
       <c r="D61" s="4">
         <v>412</v>
@@ -1845,7 +1845,7 @@
         <v>43555</v>
       </c>
       <c r="C62" s="4">
-        <v>2992</v>
+        <v>2987</v>
       </c>
       <c r="D62" s="4">
         <v>464</v>
@@ -1865,10 +1865,10 @@
         <v>43917</v>
       </c>
       <c r="B63" s="4">
-        <v>49300</v>
+        <v>49299</v>
       </c>
       <c r="C63" s="4">
-        <v>3427</v>
+        <v>3422</v>
       </c>
       <c r="D63" s="4">
         <v>515</v>
@@ -1891,7 +1891,7 @@
         <v>55010</v>
       </c>
       <c r="C64" s="4">
-        <v>3907</v>
+        <v>3902</v>
       </c>
       <c r="D64" s="4">
         <v>512</v>
@@ -1914,7 +1914,7 @@
         <v>62574</v>
       </c>
       <c r="C65" s="4">
-        <v>4439</v>
+        <v>4434</v>
       </c>
       <c r="D65" s="4">
         <v>541</v>
@@ -1937,7 +1937,7 @@
         <v>69665</v>
       </c>
       <c r="C66" s="4">
-        <v>4984</v>
+        <v>4979</v>
       </c>
       <c r="D66" s="4">
         <v>617</v>
@@ -1960,7 +1960,7 @@
         <v>77625</v>
       </c>
       <c r="C67" s="4">
-        <v>5713</v>
+        <v>5708</v>
       </c>
       <c r="D67" s="4">
         <v>665</v>
@@ -1983,7 +1983,7 @@
         <v>86606</v>
       </c>
       <c r="C68" s="4">
-        <v>6407</v>
+        <v>6403</v>
       </c>
       <c r="D68" s="4">
         <v>767</v>
@@ -2006,7 +2006,7 @@
         <v>96823</v>
       </c>
       <c r="C69" s="4">
-        <v>7127</v>
+        <v>7122</v>
       </c>
       <c r="D69" s="4">
         <v>811</v>
@@ -2029,7 +2029,7 @@
         <v>107148</v>
       </c>
       <c r="C70" s="4">
-        <v>7726</v>
+        <v>7721</v>
       </c>
       <c r="D70" s="4">
         <v>800</v>
@@ -2052,7 +2052,7 @@
         <v>113664</v>
       </c>
       <c r="C71" s="4">
-        <v>8154</v>
+        <v>8149</v>
       </c>
       <c r="D71" s="4">
         <v>786</v>
@@ -2075,7 +2075,7 @@
         <v>123107</v>
       </c>
       <c r="C72" s="4">
-        <v>8733</v>
+        <v>8728</v>
       </c>
       <c r="D72" s="4">
         <v>823</v>
@@ -2095,10 +2095,10 @@
         <v>43927</v>
       </c>
       <c r="B73" s="4">
-        <v>130604</v>
+        <v>130603</v>
       </c>
       <c r="C73" s="4">
-        <v>9185</v>
+        <v>9180</v>
       </c>
       <c r="D73" s="4">
         <v>806</v>
@@ -2118,10 +2118,10 @@
         <v>43928</v>
       </c>
       <c r="B74" s="4">
-        <v>137532</v>
+        <v>137531</v>
       </c>
       <c r="C74" s="4">
-        <v>9564</v>
+        <v>9559</v>
       </c>
       <c r="D74" s="4">
         <v>743</v>
@@ -2141,10 +2141,10 @@
         <v>43929</v>
       </c>
       <c r="B75" s="4">
-        <v>143402</v>
+        <v>143401</v>
       </c>
       <c r="C75" s="4">
-        <v>9902</v>
+        <v>9897</v>
       </c>
       <c r="D75" s="4">
         <v>690</v>
@@ -2164,10 +2164,10 @@
         <v>43930</v>
       </c>
       <c r="B76" s="4">
-        <v>149150</v>
+        <v>149149</v>
       </c>
       <c r="C76" s="4">
-        <v>10246</v>
+        <v>10241</v>
       </c>
       <c r="D76" s="4">
         <v>663</v>
@@ -2190,7 +2190,7 @@
         <v>156476</v>
       </c>
       <c r="C77" s="4">
-        <v>10607</v>
+        <v>10601</v>
       </c>
       <c r="D77" s="4">
         <v>666</v>
@@ -2213,7 +2213,7 @@
         <v>163167</v>
       </c>
       <c r="C78" s="4">
-        <v>10952</v>
+        <v>10946</v>
       </c>
       <c r="D78" s="4">
         <v>623</v>
@@ -2233,10 +2233,10 @@
         <v>43933</v>
       </c>
       <c r="B79" s="4">
-        <v>173787</v>
+        <v>173789</v>
       </c>
       <c r="C79" s="4">
-        <v>11510</v>
+        <v>11506</v>
       </c>
       <c r="D79" s="4">
         <v>664</v>
@@ -2256,10 +2256,10 @@
         <v>43934</v>
       </c>
       <c r="B80" s="4">
-        <v>184746</v>
+        <v>184748</v>
       </c>
       <c r="C80" s="4">
-        <v>11954</v>
+        <v>11950</v>
       </c>
       <c r="D80" s="4">
         <v>684</v>
@@ -2279,10 +2279,10 @@
         <v>43935</v>
       </c>
       <c r="B81" s="4">
-        <v>197409</v>
+        <v>197411</v>
       </c>
       <c r="C81" s="4">
-        <v>12361</v>
+        <v>12357</v>
       </c>
       <c r="D81" s="4">
         <v>672</v>
@@ -2302,10 +2302,10 @@
         <v>43936</v>
       </c>
       <c r="B82" s="4">
-        <v>206859</v>
+        <v>206861</v>
       </c>
       <c r="C82" s="4">
-        <v>12673</v>
+        <v>12669</v>
       </c>
       <c r="D82" s="4">
         <v>670</v>
@@ -2325,16 +2325,16 @@
         <v>43937</v>
       </c>
       <c r="B83" s="4">
-        <v>219643</v>
+        <v>219645</v>
       </c>
       <c r="C83" s="4">
-        <v>12974</v>
+        <v>12970</v>
       </c>
       <c r="D83" s="4">
         <v>703</v>
       </c>
       <c r="E83" s="4">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="F83" s="4">
         <v>136</v>
@@ -2348,10 +2348,10 @@
         <v>43938</v>
       </c>
       <c r="B84" s="4">
-        <v>231204</v>
+        <v>231206</v>
       </c>
       <c r="C84" s="4">
-        <v>13275</v>
+        <v>13271</v>
       </c>
       <c r="D84" s="4">
         <v>662</v>
@@ -2371,10 +2371,10 @@
         <v>43939</v>
       </c>
       <c r="B85" s="4">
-        <v>241834</v>
+        <v>241836</v>
       </c>
       <c r="C85" s="4">
-        <v>13585</v>
+        <v>13581</v>
       </c>
       <c r="D85" s="4">
         <v>642</v>
@@ -2394,10 +2394,10 @@
         <v>43940</v>
       </c>
       <c r="B86" s="4">
-        <v>253297</v>
+        <v>253299</v>
       </c>
       <c r="C86" s="4">
-        <v>13878</v>
+        <v>13874</v>
       </c>
       <c r="D86" s="4">
         <v>619</v>
@@ -2417,10 +2417,10 @@
         <v>43941</v>
       </c>
       <c r="B87" s="4">
-        <v>268644</v>
+        <v>268646</v>
       </c>
       <c r="C87" s="4">
-        <v>14185</v>
+        <v>14181</v>
       </c>
       <c r="D87" s="4">
         <v>614</v>
@@ -2440,10 +2440,10 @@
         <v>43942</v>
       </c>
       <c r="B88" s="4">
-        <v>282229</v>
+        <v>282231</v>
       </c>
       <c r="C88" s="4">
-        <v>14479</v>
+        <v>14474</v>
       </c>
       <c r="D88" s="4">
         <v>543</v>
@@ -2463,10 +2463,10 @@
         <v>43943</v>
       </c>
       <c r="B89" s="4">
-        <v>295523</v>
+        <v>295525</v>
       </c>
       <c r="C89" s="4">
-        <v>14708</v>
+        <v>14703</v>
       </c>
       <c r="D89" s="4">
         <v>532</v>
@@ -2486,10 +2486,10 @@
         <v>43944</v>
       </c>
       <c r="B90" s="4">
-        <v>309680</v>
+        <v>309683</v>
       </c>
       <c r="C90" s="4">
-        <v>14989</v>
+        <v>14983</v>
       </c>
       <c r="D90" s="4">
         <v>491</v>
@@ -2509,10 +2509,10 @@
         <v>43945</v>
       </c>
       <c r="B91" s="4">
-        <v>322293</v>
+        <v>322296</v>
       </c>
       <c r="C91" s="4">
-        <v>15243</v>
+        <v>15237</v>
       </c>
       <c r="D91" s="4">
         <v>454</v>
@@ -2532,10 +2532,10 @@
         <v>43946</v>
       </c>
       <c r="B92" s="4">
-        <v>331372</v>
+        <v>331374</v>
       </c>
       <c r="C92" s="4">
-        <v>15403</v>
+        <v>15397</v>
       </c>
       <c r="D92" s="4">
         <v>432</v>
@@ -2555,10 +2555,10 @@
         <v>43947</v>
       </c>
       <c r="B93" s="4">
-        <v>339839</v>
+        <v>339841</v>
       </c>
       <c r="C93" s="4">
-        <v>15491</v>
+        <v>15485</v>
       </c>
       <c r="D93" s="4">
         <v>441</v>
@@ -2578,10 +2578,10 @@
         <v>43948</v>
       </c>
       <c r="B94" s="4">
-        <v>350858</v>
+        <v>350860</v>
       </c>
       <c r="C94" s="4">
-        <v>15607</v>
+        <v>15600</v>
       </c>
       <c r="D94" s="4">
         <v>410</v>
@@ -2594,6 +2594,29 @@
       </c>
       <c r="G94" s="4">
         <v>205</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A95" s="3">
+        <v>43949</v>
+      </c>
+      <c r="B95" s="4">
+        <v>361501</v>
+      </c>
+      <c r="C95" s="4">
+        <v>15767</v>
+      </c>
+      <c r="D95" s="4">
+        <v>391</v>
+      </c>
+      <c r="E95" s="4">
+        <v>125</v>
+      </c>
+      <c r="F95" s="4">
+        <v>98</v>
+      </c>
+      <c r="G95" s="4">
+        <v>210</v>
       </c>
     </row>
   </sheetData>

--- a/data/Israel/covid19-data-israel.xlsx
+++ b/data/Israel/covid19-data-israel.xlsx
@@ -422,10 +422,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G95"/>
+  <dimension ref="A1:G96"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D95" sqref="D95"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1546,7 +1546,7 @@
         <v>5948</v>
       </c>
       <c r="C49" s="4">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D49" s="4">
         <v>123</v>
@@ -1569,7 +1569,7 @@
         <v>6561</v>
       </c>
       <c r="C50" s="4">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="D50" s="4">
         <v>161</v>
@@ -1592,7 +1592,7 @@
         <v>7745</v>
       </c>
       <c r="C51" s="4">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="D51" s="4">
         <v>201</v>
@@ -1615,7 +1615,7 @@
         <v>9090</v>
       </c>
       <c r="C52" s="4">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="D52" s="4">
         <v>221</v>
@@ -1638,7 +1638,7 @@
         <v>10747</v>
       </c>
       <c r="C53" s="4">
-        <v>388</v>
+        <v>392</v>
       </c>
       <c r="D53" s="4">
         <v>257</v>
@@ -1661,7 +1661,7 @@
         <v>12866</v>
       </c>
       <c r="C54" s="4">
-        <v>507</v>
+        <v>511</v>
       </c>
       <c r="D54" s="4">
         <v>306</v>
@@ -1684,7 +1684,7 @@
         <v>14947</v>
       </c>
       <c r="C55" s="4">
-        <v>643</v>
+        <v>648</v>
       </c>
       <c r="D55" s="4">
         <v>295</v>
@@ -1707,7 +1707,7 @@
         <v>17272</v>
       </c>
       <c r="C56" s="4">
-        <v>812</v>
+        <v>818</v>
       </c>
       <c r="D56" s="4">
         <v>288</v>
@@ -1730,7 +1730,7 @@
         <v>19369</v>
       </c>
       <c r="C57" s="4">
-        <v>1018</v>
+        <v>1026</v>
       </c>
       <c r="D57" s="4">
         <v>276</v>
@@ -1753,7 +1753,7 @@
         <v>22705</v>
       </c>
       <c r="C58" s="4">
-        <v>1267</v>
+        <v>1275</v>
       </c>
       <c r="D58" s="4">
         <v>323</v>
@@ -1776,7 +1776,7 @@
         <v>26335</v>
       </c>
       <c r="C59" s="4">
-        <v>1615</v>
+        <v>1623</v>
       </c>
       <c r="D59" s="4">
         <v>350</v>
@@ -1799,7 +1799,7 @@
         <v>31118</v>
       </c>
       <c r="C60" s="4">
-        <v>2036</v>
+        <v>2046</v>
       </c>
       <c r="D60" s="4">
         <v>393</v>
@@ -1822,7 +1822,7 @@
         <v>37044</v>
       </c>
       <c r="C61" s="4">
-        <v>2460</v>
+        <v>2471</v>
       </c>
       <c r="D61" s="4">
         <v>412</v>
@@ -1845,7 +1845,7 @@
         <v>43555</v>
       </c>
       <c r="C62" s="4">
-        <v>2987</v>
+        <v>2998</v>
       </c>
       <c r="D62" s="4">
         <v>464</v>
@@ -1868,7 +1868,7 @@
         <v>49299</v>
       </c>
       <c r="C63" s="4">
-        <v>3422</v>
+        <v>3434</v>
       </c>
       <c r="D63" s="4">
         <v>515</v>
@@ -1891,7 +1891,7 @@
         <v>55010</v>
       </c>
       <c r="C64" s="4">
-        <v>3902</v>
+        <v>3916</v>
       </c>
       <c r="D64" s="4">
         <v>512</v>
@@ -1914,7 +1914,7 @@
         <v>62574</v>
       </c>
       <c r="C65" s="4">
-        <v>4434</v>
+        <v>4452</v>
       </c>
       <c r="D65" s="4">
         <v>541</v>
@@ -1937,7 +1937,7 @@
         <v>69665</v>
       </c>
       <c r="C66" s="4">
-        <v>4979</v>
+        <v>4999</v>
       </c>
       <c r="D66" s="4">
         <v>617</v>
@@ -1960,7 +1960,7 @@
         <v>77625</v>
       </c>
       <c r="C67" s="4">
-        <v>5708</v>
+        <v>5732</v>
       </c>
       <c r="D67" s="4">
         <v>665</v>
@@ -1983,7 +1983,7 @@
         <v>86606</v>
       </c>
       <c r="C68" s="4">
-        <v>6403</v>
+        <v>6428</v>
       </c>
       <c r="D68" s="4">
         <v>767</v>
@@ -2006,7 +2006,7 @@
         <v>96823</v>
       </c>
       <c r="C69" s="4">
-        <v>7122</v>
+        <v>7150</v>
       </c>
       <c r="D69" s="4">
         <v>811</v>
@@ -2029,7 +2029,7 @@
         <v>107148</v>
       </c>
       <c r="C70" s="4">
-        <v>7721</v>
+        <v>7748</v>
       </c>
       <c r="D70" s="4">
         <v>800</v>
@@ -2052,7 +2052,7 @@
         <v>113664</v>
       </c>
       <c r="C71" s="4">
-        <v>8149</v>
+        <v>8176</v>
       </c>
       <c r="D71" s="4">
         <v>786</v>
@@ -2064,7 +2064,7 @@
         <v>107</v>
       </c>
       <c r="G71" s="4">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
@@ -2075,7 +2075,7 @@
         <v>123107</v>
       </c>
       <c r="C72" s="4">
-        <v>8728</v>
+        <v>8755</v>
       </c>
       <c r="D72" s="4">
         <v>823</v>
@@ -2087,7 +2087,7 @@
         <v>106</v>
       </c>
       <c r="G72" s="4">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
@@ -2098,7 +2098,7 @@
         <v>130603</v>
       </c>
       <c r="C73" s="4">
-        <v>9180</v>
+        <v>9206</v>
       </c>
       <c r="D73" s="4">
         <v>806</v>
@@ -2110,7 +2110,7 @@
         <v>110</v>
       </c>
       <c r="G73" s="4">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
@@ -2121,7 +2121,7 @@
         <v>137531</v>
       </c>
       <c r="C74" s="4">
-        <v>9559</v>
+        <v>9585</v>
       </c>
       <c r="D74" s="4">
         <v>743</v>
@@ -2133,7 +2133,7 @@
         <v>106</v>
       </c>
       <c r="G74" s="4">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
@@ -2144,7 +2144,7 @@
         <v>143401</v>
       </c>
       <c r="C75" s="4">
-        <v>9897</v>
+        <v>9925</v>
       </c>
       <c r="D75" s="4">
         <v>690</v>
@@ -2156,7 +2156,7 @@
         <v>114</v>
       </c>
       <c r="G75" s="4">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
@@ -2167,7 +2167,7 @@
         <v>149149</v>
       </c>
       <c r="C76" s="4">
-        <v>10241</v>
+        <v>10269</v>
       </c>
       <c r="D76" s="4">
         <v>663</v>
@@ -2179,7 +2179,7 @@
         <v>117</v>
       </c>
       <c r="G76" s="4">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
@@ -2190,7 +2190,7 @@
         <v>156476</v>
       </c>
       <c r="C77" s="4">
-        <v>10601</v>
+        <v>10629</v>
       </c>
       <c r="D77" s="4">
         <v>666</v>
@@ -2202,7 +2202,7 @@
         <v>128</v>
       </c>
       <c r="G77" s="4">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
@@ -2213,7 +2213,7 @@
         <v>163167</v>
       </c>
       <c r="C78" s="4">
-        <v>10946</v>
+        <v>10974</v>
       </c>
       <c r="D78" s="4">
         <v>623</v>
@@ -2225,7 +2225,7 @@
         <v>130</v>
       </c>
       <c r="G78" s="4">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
@@ -2236,7 +2236,7 @@
         <v>173789</v>
       </c>
       <c r="C79" s="4">
-        <v>11506</v>
+        <v>11534</v>
       </c>
       <c r="D79" s="4">
         <v>664</v>
@@ -2248,7 +2248,7 @@
         <v>130</v>
       </c>
       <c r="G79" s="4">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
@@ -2259,7 +2259,7 @@
         <v>184748</v>
       </c>
       <c r="C80" s="4">
-        <v>11950</v>
+        <v>11978</v>
       </c>
       <c r="D80" s="4">
         <v>684</v>
@@ -2271,7 +2271,7 @@
         <v>137</v>
       </c>
       <c r="G80" s="4">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
@@ -2282,7 +2282,7 @@
         <v>197411</v>
       </c>
       <c r="C81" s="4">
-        <v>12357</v>
+        <v>12383</v>
       </c>
       <c r="D81" s="4">
         <v>672</v>
@@ -2294,7 +2294,7 @@
         <v>135</v>
       </c>
       <c r="G81" s="4">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
@@ -2305,7 +2305,7 @@
         <v>206861</v>
       </c>
       <c r="C82" s="4">
-        <v>12669</v>
+        <v>12694</v>
       </c>
       <c r="D82" s="4">
         <v>670</v>
@@ -2317,7 +2317,7 @@
         <v>132</v>
       </c>
       <c r="G82" s="4">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
@@ -2328,7 +2328,7 @@
         <v>219645</v>
       </c>
       <c r="C83" s="4">
-        <v>12970</v>
+        <v>12995</v>
       </c>
       <c r="D83" s="4">
         <v>703</v>
@@ -2340,7 +2340,7 @@
         <v>136</v>
       </c>
       <c r="G83" s="4">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
@@ -2351,7 +2351,7 @@
         <v>231206</v>
       </c>
       <c r="C84" s="4">
-        <v>13271</v>
+        <v>13295</v>
       </c>
       <c r="D84" s="4">
         <v>662</v>
@@ -2363,7 +2363,7 @@
         <v>125</v>
       </c>
       <c r="G84" s="4">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
@@ -2374,7 +2374,7 @@
         <v>241836</v>
       </c>
       <c r="C85" s="4">
-        <v>13581</v>
+        <v>13605</v>
       </c>
       <c r="D85" s="4">
         <v>642</v>
@@ -2386,7 +2386,7 @@
         <v>117</v>
       </c>
       <c r="G85" s="4">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
@@ -2397,7 +2397,7 @@
         <v>253299</v>
       </c>
       <c r="C86" s="4">
-        <v>13874</v>
+        <v>13896</v>
       </c>
       <c r="D86" s="4">
         <v>619</v>
@@ -2409,7 +2409,7 @@
         <v>117</v>
       </c>
       <c r="G86" s="4">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
@@ -2420,7 +2420,7 @@
         <v>268646</v>
       </c>
       <c r="C87" s="4">
-        <v>14181</v>
+        <v>14199</v>
       </c>
       <c r="D87" s="4">
         <v>614</v>
@@ -2432,7 +2432,7 @@
         <v>122</v>
       </c>
       <c r="G87" s="4">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
@@ -2443,7 +2443,7 @@
         <v>282231</v>
       </c>
       <c r="C88" s="4">
-        <v>14474</v>
+        <v>14491</v>
       </c>
       <c r="D88" s="4">
         <v>543</v>
@@ -2455,7 +2455,7 @@
         <v>117</v>
       </c>
       <c r="G88" s="4">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.25">
@@ -2466,7 +2466,7 @@
         <v>295525</v>
       </c>
       <c r="C89" s="4">
-        <v>14703</v>
+        <v>14720</v>
       </c>
       <c r="D89" s="4">
         <v>532</v>
@@ -2478,7 +2478,7 @@
         <v>108</v>
       </c>
       <c r="G89" s="4">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.25">
@@ -2489,7 +2489,7 @@
         <v>309683</v>
       </c>
       <c r="C90" s="4">
-        <v>14983</v>
+        <v>15000</v>
       </c>
       <c r="D90" s="4">
         <v>491</v>
@@ -2501,7 +2501,7 @@
         <v>112</v>
       </c>
       <c r="G90" s="4">
-        <v>193</v>
+        <v>194</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.25">
@@ -2512,7 +2512,7 @@
         <v>322296</v>
       </c>
       <c r="C91" s="4">
-        <v>15237</v>
+        <v>15255</v>
       </c>
       <c r="D91" s="4">
         <v>454</v>
@@ -2524,7 +2524,7 @@
         <v>104</v>
       </c>
       <c r="G91" s="4">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.25">
@@ -2535,7 +2535,7 @@
         <v>331374</v>
       </c>
       <c r="C92" s="4">
-        <v>15397</v>
+        <v>15415</v>
       </c>
       <c r="D92" s="4">
         <v>432</v>
@@ -2547,7 +2547,7 @@
         <v>104</v>
       </c>
       <c r="G92" s="4">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.25">
@@ -2558,7 +2558,7 @@
         <v>339841</v>
       </c>
       <c r="C93" s="4">
-        <v>15485</v>
+        <v>15503</v>
       </c>
       <c r="D93" s="4">
         <v>441</v>
@@ -2570,7 +2570,7 @@
         <v>109</v>
       </c>
       <c r="G93" s="4">
-        <v>201</v>
+        <v>202</v>
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.25">
@@ -2581,7 +2581,7 @@
         <v>350860</v>
       </c>
       <c r="C94" s="4">
-        <v>15600</v>
+        <v>15618</v>
       </c>
       <c r="D94" s="4">
         <v>410</v>
@@ -2593,7 +2593,7 @@
         <v>99</v>
       </c>
       <c r="G94" s="4">
-        <v>205</v>
+        <v>206</v>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.25">
@@ -2604,7 +2604,7 @@
         <v>361501</v>
       </c>
       <c r="C95" s="4">
-        <v>15767</v>
+        <v>15786</v>
       </c>
       <c r="D95" s="4">
         <v>391</v>
@@ -2616,7 +2616,30 @@
         <v>98</v>
       </c>
       <c r="G95" s="4">
-        <v>210</v>
+        <v>211</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A96" s="3">
+        <v>43950</v>
+      </c>
+      <c r="B96" s="4">
+        <v>370505</v>
+      </c>
+      <c r="C96" s="4">
+        <v>15869</v>
+      </c>
+      <c r="D96" s="4">
+        <v>370</v>
+      </c>
+      <c r="E96" s="4">
+        <v>118</v>
+      </c>
+      <c r="F96" s="4">
+        <v>93</v>
+      </c>
+      <c r="G96" s="4">
+        <v>217</v>
       </c>
     </row>
   </sheetData>

--- a/data/Israel/covid19-data-israel.xlsx
+++ b/data/Israel/covid19-data-israel.xlsx
@@ -422,10 +422,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G96"/>
+  <dimension ref="A1:G97"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+    <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
+      <selection activeCell="E101" sqref="E101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1385,7 +1385,7 @@
         <v>2442</v>
       </c>
       <c r="C42" s="4">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D42" s="4">
         <v>16</v>
@@ -1408,7 +1408,7 @@
         <v>2780</v>
       </c>
       <c r="C43" s="4">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D43" s="4">
         <v>19</v>
@@ -1431,7 +1431,7 @@
         <v>3202</v>
       </c>
       <c r="C44" s="4">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D44" s="4">
         <v>26</v>
@@ -1454,7 +1454,7 @@
         <v>3721</v>
       </c>
       <c r="C45" s="4">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D45" s="4">
         <v>40</v>
@@ -1477,7 +1477,7 @@
         <v>4242</v>
       </c>
       <c r="C46" s="4">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D46" s="4">
         <v>59</v>
@@ -1500,7 +1500,7 @@
         <v>4645</v>
       </c>
       <c r="C47" s="4">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D47" s="4">
         <v>81</v>
@@ -1523,7 +1523,7 @@
         <v>5252</v>
       </c>
       <c r="C48" s="4">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D48" s="4">
         <v>103</v>
@@ -1546,7 +1546,7 @@
         <v>5948</v>
       </c>
       <c r="C49" s="4">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D49" s="4">
         <v>123</v>
@@ -1569,7 +1569,7 @@
         <v>6561</v>
       </c>
       <c r="C50" s="4">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D50" s="4">
         <v>161</v>
@@ -1592,7 +1592,7 @@
         <v>7745</v>
       </c>
       <c r="C51" s="4">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D51" s="4">
         <v>201</v>
@@ -1615,7 +1615,7 @@
         <v>9090</v>
       </c>
       <c r="C52" s="4">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D52" s="4">
         <v>221</v>
@@ -1638,7 +1638,7 @@
         <v>10747</v>
       </c>
       <c r="C53" s="4">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="D53" s="4">
         <v>257</v>
@@ -1661,7 +1661,7 @@
         <v>12866</v>
       </c>
       <c r="C54" s="4">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="D54" s="4">
         <v>306</v>
@@ -1684,7 +1684,7 @@
         <v>14947</v>
       </c>
       <c r="C55" s="4">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="D55" s="4">
         <v>295</v>
@@ -1707,7 +1707,7 @@
         <v>17272</v>
       </c>
       <c r="C56" s="4">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="D56" s="4">
         <v>288</v>
@@ -1730,7 +1730,7 @@
         <v>19369</v>
       </c>
       <c r="C57" s="4">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="D57" s="4">
         <v>276</v>
@@ -1753,7 +1753,7 @@
         <v>22705</v>
       </c>
       <c r="C58" s="4">
-        <v>1275</v>
+        <v>1274</v>
       </c>
       <c r="D58" s="4">
         <v>323</v>
@@ -1776,7 +1776,7 @@
         <v>26335</v>
       </c>
       <c r="C59" s="4">
-        <v>1623</v>
+        <v>1622</v>
       </c>
       <c r="D59" s="4">
         <v>350</v>
@@ -1799,7 +1799,7 @@
         <v>31118</v>
       </c>
       <c r="C60" s="4">
-        <v>2046</v>
+        <v>2045</v>
       </c>
       <c r="D60" s="4">
         <v>393</v>
@@ -1822,7 +1822,7 @@
         <v>37044</v>
       </c>
       <c r="C61" s="4">
-        <v>2471</v>
+        <v>2470</v>
       </c>
       <c r="D61" s="4">
         <v>412</v>
@@ -1845,7 +1845,7 @@
         <v>43555</v>
       </c>
       <c r="C62" s="4">
-        <v>2998</v>
+        <v>2996</v>
       </c>
       <c r="D62" s="4">
         <v>464</v>
@@ -1868,7 +1868,7 @@
         <v>49299</v>
       </c>
       <c r="C63" s="4">
-        <v>3434</v>
+        <v>3432</v>
       </c>
       <c r="D63" s="4">
         <v>515</v>
@@ -1891,7 +1891,7 @@
         <v>55010</v>
       </c>
       <c r="C64" s="4">
-        <v>3916</v>
+        <v>3914</v>
       </c>
       <c r="D64" s="4">
         <v>512</v>
@@ -1914,7 +1914,7 @@
         <v>62574</v>
       </c>
       <c r="C65" s="4">
-        <v>4452</v>
+        <v>4450</v>
       </c>
       <c r="D65" s="4">
         <v>541</v>
@@ -1937,7 +1937,7 @@
         <v>69665</v>
       </c>
       <c r="C66" s="4">
-        <v>4999</v>
+        <v>4997</v>
       </c>
       <c r="D66" s="4">
         <v>617</v>
@@ -1960,7 +1960,7 @@
         <v>77625</v>
       </c>
       <c r="C67" s="4">
-        <v>5732</v>
+        <v>5728</v>
       </c>
       <c r="D67" s="4">
         <v>665</v>
@@ -1983,7 +1983,7 @@
         <v>86606</v>
       </c>
       <c r="C68" s="4">
-        <v>6428</v>
+        <v>6424</v>
       </c>
       <c r="D68" s="4">
         <v>767</v>
@@ -2006,7 +2006,7 @@
         <v>96823</v>
       </c>
       <c r="C69" s="4">
-        <v>7150</v>
+        <v>7146</v>
       </c>
       <c r="D69" s="4">
         <v>811</v>
@@ -2029,7 +2029,7 @@
         <v>107148</v>
       </c>
       <c r="C70" s="4">
-        <v>7748</v>
+        <v>7743</v>
       </c>
       <c r="D70" s="4">
         <v>800</v>
@@ -2052,7 +2052,7 @@
         <v>113664</v>
       </c>
       <c r="C71" s="4">
-        <v>8176</v>
+        <v>8171</v>
       </c>
       <c r="D71" s="4">
         <v>786</v>
@@ -2075,7 +2075,7 @@
         <v>123107</v>
       </c>
       <c r="C72" s="4">
-        <v>8755</v>
+        <v>8749</v>
       </c>
       <c r="D72" s="4">
         <v>823</v>
@@ -2098,7 +2098,7 @@
         <v>130603</v>
       </c>
       <c r="C73" s="4">
-        <v>9206</v>
+        <v>9200</v>
       </c>
       <c r="D73" s="4">
         <v>806</v>
@@ -2121,7 +2121,7 @@
         <v>137531</v>
       </c>
       <c r="C74" s="4">
-        <v>9585</v>
+        <v>9579</v>
       </c>
       <c r="D74" s="4">
         <v>743</v>
@@ -2144,7 +2144,7 @@
         <v>143401</v>
       </c>
       <c r="C75" s="4">
-        <v>9925</v>
+        <v>9918</v>
       </c>
       <c r="D75" s="4">
         <v>690</v>
@@ -2167,7 +2167,7 @@
         <v>149149</v>
       </c>
       <c r="C76" s="4">
-        <v>10269</v>
+        <v>10262</v>
       </c>
       <c r="D76" s="4">
         <v>663</v>
@@ -2190,7 +2190,7 @@
         <v>156476</v>
       </c>
       <c r="C77" s="4">
-        <v>10629</v>
+        <v>10622</v>
       </c>
       <c r="D77" s="4">
         <v>666</v>
@@ -2213,7 +2213,7 @@
         <v>163167</v>
       </c>
       <c r="C78" s="4">
-        <v>10974</v>
+        <v>10967</v>
       </c>
       <c r="D78" s="4">
         <v>623</v>
@@ -2236,7 +2236,7 @@
         <v>173789</v>
       </c>
       <c r="C79" s="4">
-        <v>11534</v>
+        <v>11526</v>
       </c>
       <c r="D79" s="4">
         <v>664</v>
@@ -2259,7 +2259,7 @@
         <v>184748</v>
       </c>
       <c r="C80" s="4">
-        <v>11978</v>
+        <v>11969</v>
       </c>
       <c r="D80" s="4">
         <v>684</v>
@@ -2282,7 +2282,7 @@
         <v>197411</v>
       </c>
       <c r="C81" s="4">
-        <v>12383</v>
+        <v>12372</v>
       </c>
       <c r="D81" s="4">
         <v>672</v>
@@ -2305,7 +2305,7 @@
         <v>206861</v>
       </c>
       <c r="C82" s="4">
-        <v>12694</v>
+        <v>12682</v>
       </c>
       <c r="D82" s="4">
         <v>670</v>
@@ -2328,7 +2328,7 @@
         <v>219645</v>
       </c>
       <c r="C83" s="4">
-        <v>12995</v>
+        <v>12983</v>
       </c>
       <c r="D83" s="4">
         <v>703</v>
@@ -2351,7 +2351,7 @@
         <v>231206</v>
       </c>
       <c r="C84" s="4">
-        <v>13295</v>
+        <v>13281</v>
       </c>
       <c r="D84" s="4">
         <v>662</v>
@@ -2374,7 +2374,7 @@
         <v>241836</v>
       </c>
       <c r="C85" s="4">
-        <v>13605</v>
+        <v>13591</v>
       </c>
       <c r="D85" s="4">
         <v>642</v>
@@ -2397,7 +2397,7 @@
         <v>253299</v>
       </c>
       <c r="C86" s="4">
-        <v>13896</v>
+        <v>13872</v>
       </c>
       <c r="D86" s="4">
         <v>619</v>
@@ -2420,7 +2420,7 @@
         <v>268646</v>
       </c>
       <c r="C87" s="4">
-        <v>14199</v>
+        <v>14174</v>
       </c>
       <c r="D87" s="4">
         <v>614</v>
@@ -2443,7 +2443,7 @@
         <v>282231</v>
       </c>
       <c r="C88" s="4">
-        <v>14491</v>
+        <v>14463</v>
       </c>
       <c r="D88" s="4">
         <v>543</v>
@@ -2466,7 +2466,7 @@
         <v>295525</v>
       </c>
       <c r="C89" s="4">
-        <v>14720</v>
+        <v>14689</v>
       </c>
       <c r="D89" s="4">
         <v>532</v>
@@ -2489,7 +2489,7 @@
         <v>309683</v>
       </c>
       <c r="C90" s="4">
-        <v>15000</v>
+        <v>14969</v>
       </c>
       <c r="D90" s="4">
         <v>491</v>
@@ -2512,7 +2512,7 @@
         <v>322296</v>
       </c>
       <c r="C91" s="4">
-        <v>15255</v>
+        <v>15224</v>
       </c>
       <c r="D91" s="4">
         <v>454</v>
@@ -2535,7 +2535,7 @@
         <v>331374</v>
       </c>
       <c r="C92" s="4">
-        <v>15415</v>
+        <v>15384</v>
       </c>
       <c r="D92" s="4">
         <v>432</v>
@@ -2558,7 +2558,7 @@
         <v>339841</v>
       </c>
       <c r="C93" s="4">
-        <v>15503</v>
+        <v>15472</v>
       </c>
       <c r="D93" s="4">
         <v>441</v>
@@ -2581,7 +2581,7 @@
         <v>350860</v>
       </c>
       <c r="C94" s="4">
-        <v>15618</v>
+        <v>15587</v>
       </c>
       <c r="D94" s="4">
         <v>410</v>
@@ -2604,7 +2604,7 @@
         <v>361501</v>
       </c>
       <c r="C95" s="4">
-        <v>15786</v>
+        <v>15756</v>
       </c>
       <c r="D95" s="4">
         <v>391</v>
@@ -2627,7 +2627,7 @@
         <v>370505</v>
       </c>
       <c r="C96" s="4">
-        <v>15869</v>
+        <v>15839</v>
       </c>
       <c r="D96" s="4">
         <v>370</v>
@@ -2640,6 +2640,29 @@
       </c>
       <c r="G96" s="4">
         <v>217</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A97" s="3">
+        <v>43951</v>
+      </c>
+      <c r="B97" s="4">
+        <v>380339</v>
+      </c>
+      <c r="C97" s="4">
+        <v>15983</v>
+      </c>
+      <c r="D97" s="4">
+        <v>371</v>
+      </c>
+      <c r="E97" s="4">
+        <v>110</v>
+      </c>
+      <c r="F97" s="4">
+        <v>87</v>
+      </c>
+      <c r="G97" s="4">
+        <v>223</v>
       </c>
     </row>
   </sheetData>

--- a/data/Israel/covid19-data-israel.xlsx
+++ b/data/Israel/covid19-data-israel.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="7485" windowHeight="2865"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="7490" windowHeight="2870"/>
   </bookViews>
   <sheets>
     <sheet name="SQL Results" sheetId="1" r:id="rId1"/>
@@ -422,19 +422,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G97"/>
+  <dimension ref="A1:G98"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="E101" sqref="E101"/>
+      <selection activeCell="F103" sqref="F103"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="12.140625" style="6" customWidth="1"/>
-    <col min="2" max="7" width="12.140625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="12.1796875" style="6" customWidth="1"/>
+    <col min="2" max="7" width="12.1796875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -457,7 +457,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" s="3">
         <v>43856</v>
       </c>
@@ -480,7 +480,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" s="3">
         <v>43857</v>
       </c>
@@ -503,7 +503,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" s="3">
         <v>43858</v>
       </c>
@@ -526,7 +526,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" s="3">
         <v>43859</v>
       </c>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" s="3">
         <v>43860</v>
       </c>
@@ -572,7 +572,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" s="3">
         <v>43861</v>
       </c>
@@ -595,7 +595,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" s="3">
         <v>43862</v>
       </c>
@@ -618,7 +618,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" s="3">
         <v>43863</v>
       </c>
@@ -641,7 +641,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" s="3">
         <v>43864</v>
       </c>
@@ -664,7 +664,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" s="3">
         <v>43865</v>
       </c>
@@ -687,7 +687,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12" s="3">
         <v>43866</v>
       </c>
@@ -710,7 +710,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" s="3">
         <v>43867</v>
       </c>
@@ -733,7 +733,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14" s="3">
         <v>43868</v>
       </c>
@@ -756,7 +756,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15" s="3">
         <v>43869</v>
       </c>
@@ -779,7 +779,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A16" s="3">
         <v>43870</v>
       </c>
@@ -802,7 +802,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A17" s="3">
         <v>43871</v>
       </c>
@@ -825,7 +825,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A18" s="3">
         <v>43872</v>
       </c>
@@ -848,7 +848,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A19" s="3">
         <v>43873</v>
       </c>
@@ -871,7 +871,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A20" s="3">
         <v>43874</v>
       </c>
@@ -894,7 +894,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A21" s="3">
         <v>43875</v>
       </c>
@@ -917,7 +917,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A22" s="3">
         <v>43876</v>
       </c>
@@ -940,7 +940,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A23" s="3">
         <v>43877</v>
       </c>
@@ -963,7 +963,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A24" s="3">
         <v>43878</v>
       </c>
@@ -986,7 +986,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A25" s="3">
         <v>43879</v>
       </c>
@@ -1009,7 +1009,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A26" s="3">
         <v>43880</v>
       </c>
@@ -1032,7 +1032,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A27" s="3">
         <v>43881</v>
       </c>
@@ -1055,7 +1055,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A28" s="3">
         <v>43882</v>
       </c>
@@ -1078,7 +1078,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A29" s="3">
         <v>43883</v>
       </c>
@@ -1101,7 +1101,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A30" s="3">
         <v>43884</v>
       </c>
@@ -1124,7 +1124,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A31" s="3">
         <v>43885</v>
       </c>
@@ -1147,7 +1147,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A32" s="3">
         <v>43886</v>
       </c>
@@ -1170,7 +1170,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A33" s="3">
         <v>43887</v>
       </c>
@@ -1193,7 +1193,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A34" s="3">
         <v>43888</v>
       </c>
@@ -1216,7 +1216,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A35" s="3">
         <v>43889</v>
       </c>
@@ -1239,7 +1239,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A36" s="3">
         <v>43890</v>
       </c>
@@ -1262,7 +1262,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A37" s="3">
         <v>43891</v>
       </c>
@@ -1285,7 +1285,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A38" s="3">
         <v>43892</v>
       </c>
@@ -1308,7 +1308,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A39" s="3">
         <v>43893</v>
       </c>
@@ -1331,7 +1331,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A40" s="3">
         <v>43894</v>
       </c>
@@ -1354,7 +1354,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A41" s="3">
         <v>43895</v>
       </c>
@@ -1377,7 +1377,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A42" s="3">
         <v>43896</v>
       </c>
@@ -1385,7 +1385,7 @@
         <v>2442</v>
       </c>
       <c r="C42" s="4">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D42" s="4">
         <v>16</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A43" s="3">
         <v>43897</v>
       </c>
@@ -1408,7 +1408,7 @@
         <v>2780</v>
       </c>
       <c r="C43" s="4">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D43" s="4">
         <v>19</v>
@@ -1423,7 +1423,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A44" s="3">
         <v>43898</v>
       </c>
@@ -1431,7 +1431,7 @@
         <v>3202</v>
       </c>
       <c r="C44" s="4">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D44" s="4">
         <v>26</v>
@@ -1446,7 +1446,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A45" s="3">
         <v>43899</v>
       </c>
@@ -1454,7 +1454,7 @@
         <v>3721</v>
       </c>
       <c r="C45" s="4">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D45" s="4">
         <v>40</v>
@@ -1469,7 +1469,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A46" s="3">
         <v>43900</v>
       </c>
@@ -1477,7 +1477,7 @@
         <v>4242</v>
       </c>
       <c r="C46" s="4">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D46" s="4">
         <v>59</v>
@@ -1492,7 +1492,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A47" s="3">
         <v>43901</v>
       </c>
@@ -1500,7 +1500,7 @@
         <v>4645</v>
       </c>
       <c r="C47" s="4">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D47" s="4">
         <v>81</v>
@@ -1515,7 +1515,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A48" s="3">
         <v>43902</v>
       </c>
@@ -1523,7 +1523,7 @@
         <v>5252</v>
       </c>
       <c r="C48" s="4">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D48" s="4">
         <v>103</v>
@@ -1538,7 +1538,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A49" s="3">
         <v>43903</v>
       </c>
@@ -1546,7 +1546,7 @@
         <v>5948</v>
       </c>
       <c r="C49" s="4">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D49" s="4">
         <v>123</v>
@@ -1561,7 +1561,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A50" s="3">
         <v>43904</v>
       </c>
@@ -1569,7 +1569,7 @@
         <v>6561</v>
       </c>
       <c r="C50" s="4">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D50" s="4">
         <v>161</v>
@@ -1584,7 +1584,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A51" s="3">
         <v>43905</v>
       </c>
@@ -1592,7 +1592,7 @@
         <v>7745</v>
       </c>
       <c r="C51" s="4">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D51" s="4">
         <v>201</v>
@@ -1607,7 +1607,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A52" s="3">
         <v>43906</v>
       </c>
@@ -1615,7 +1615,7 @@
         <v>9090</v>
       </c>
       <c r="C52" s="4">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D52" s="4">
         <v>221</v>
@@ -1630,7 +1630,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A53" s="3">
         <v>43907</v>
       </c>
@@ -1638,7 +1638,7 @@
         <v>10747</v>
       </c>
       <c r="C53" s="4">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="D53" s="4">
         <v>257</v>
@@ -1653,7 +1653,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A54" s="3">
         <v>43908</v>
       </c>
@@ -1661,7 +1661,7 @@
         <v>12866</v>
       </c>
       <c r="C54" s="4">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="D54" s="4">
         <v>306</v>
@@ -1676,7 +1676,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A55" s="3">
         <v>43909</v>
       </c>
@@ -1684,7 +1684,7 @@
         <v>14947</v>
       </c>
       <c r="C55" s="4">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="D55" s="4">
         <v>295</v>
@@ -1699,7 +1699,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A56" s="3">
         <v>43910</v>
       </c>
@@ -1707,7 +1707,7 @@
         <v>17272</v>
       </c>
       <c r="C56" s="4">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="D56" s="4">
         <v>288</v>
@@ -1722,7 +1722,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A57" s="3">
         <v>43911</v>
       </c>
@@ -1730,7 +1730,7 @@
         <v>19369</v>
       </c>
       <c r="C57" s="4">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="D57" s="4">
         <v>276</v>
@@ -1745,7 +1745,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A58" s="3">
         <v>43912</v>
       </c>
@@ -1753,7 +1753,7 @@
         <v>22705</v>
       </c>
       <c r="C58" s="4">
-        <v>1274</v>
+        <v>1273</v>
       </c>
       <c r="D58" s="4">
         <v>323</v>
@@ -1768,7 +1768,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A59" s="3">
         <v>43913</v>
       </c>
@@ -1776,7 +1776,7 @@
         <v>26335</v>
       </c>
       <c r="C59" s="4">
-        <v>1622</v>
+        <v>1621</v>
       </c>
       <c r="D59" s="4">
         <v>350</v>
@@ -1791,7 +1791,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A60" s="3">
         <v>43914</v>
       </c>
@@ -1799,7 +1799,7 @@
         <v>31118</v>
       </c>
       <c r="C60" s="4">
-        <v>2045</v>
+        <v>2044</v>
       </c>
       <c r="D60" s="4">
         <v>393</v>
@@ -1814,7 +1814,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A61" s="3">
         <v>43915</v>
       </c>
@@ -1822,7 +1822,7 @@
         <v>37044</v>
       </c>
       <c r="C61" s="4">
-        <v>2470</v>
+        <v>2469</v>
       </c>
       <c r="D61" s="4">
         <v>412</v>
@@ -1837,7 +1837,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A62" s="3">
         <v>43916</v>
       </c>
@@ -1845,7 +1845,7 @@
         <v>43555</v>
       </c>
       <c r="C62" s="4">
-        <v>2996</v>
+        <v>2995</v>
       </c>
       <c r="D62" s="4">
         <v>464</v>
@@ -1860,7 +1860,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A63" s="3">
         <v>43917</v>
       </c>
@@ -1868,7 +1868,7 @@
         <v>49299</v>
       </c>
       <c r="C63" s="4">
-        <v>3432</v>
+        <v>3431</v>
       </c>
       <c r="D63" s="4">
         <v>515</v>
@@ -1883,7 +1883,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A64" s="3">
         <v>43918</v>
       </c>
@@ -1891,7 +1891,7 @@
         <v>55010</v>
       </c>
       <c r="C64" s="4">
-        <v>3914</v>
+        <v>3913</v>
       </c>
       <c r="D64" s="4">
         <v>512</v>
@@ -1906,7 +1906,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A65" s="3">
         <v>43919</v>
       </c>
@@ -1914,7 +1914,7 @@
         <v>62574</v>
       </c>
       <c r="C65" s="4">
-        <v>4450</v>
+        <v>4449</v>
       </c>
       <c r="D65" s="4">
         <v>541</v>
@@ -1929,7 +1929,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A66" s="3">
         <v>43920</v>
       </c>
@@ -1937,7 +1937,7 @@
         <v>69665</v>
       </c>
       <c r="C66" s="4">
-        <v>4997</v>
+        <v>4996</v>
       </c>
       <c r="D66" s="4">
         <v>617</v>
@@ -1952,7 +1952,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A67" s="3">
         <v>43921</v>
       </c>
@@ -1960,7 +1960,7 @@
         <v>77625</v>
       </c>
       <c r="C67" s="4">
-        <v>5728</v>
+        <v>5727</v>
       </c>
       <c r="D67" s="4">
         <v>665</v>
@@ -1975,7 +1975,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A68" s="3">
         <v>43922</v>
       </c>
@@ -1983,7 +1983,7 @@
         <v>86606</v>
       </c>
       <c r="C68" s="4">
-        <v>6424</v>
+        <v>6423</v>
       </c>
       <c r="D68" s="4">
         <v>767</v>
@@ -1998,7 +1998,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A69" s="3">
         <v>43923</v>
       </c>
@@ -2006,7 +2006,7 @@
         <v>96823</v>
       </c>
       <c r="C69" s="4">
-        <v>7146</v>
+        <v>7145</v>
       </c>
       <c r="D69" s="4">
         <v>811</v>
@@ -2021,7 +2021,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A70" s="3">
         <v>43924</v>
       </c>
@@ -2029,7 +2029,7 @@
         <v>107148</v>
       </c>
       <c r="C70" s="4">
-        <v>7743</v>
+        <v>7742</v>
       </c>
       <c r="D70" s="4">
         <v>800</v>
@@ -2044,7 +2044,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A71" s="3">
         <v>43925</v>
       </c>
@@ -2052,7 +2052,7 @@
         <v>113664</v>
       </c>
       <c r="C71" s="4">
-        <v>8171</v>
+        <v>8170</v>
       </c>
       <c r="D71" s="4">
         <v>786</v>
@@ -2067,7 +2067,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A72" s="3">
         <v>43926</v>
       </c>
@@ -2090,7 +2090,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A73" s="3">
         <v>43927</v>
       </c>
@@ -2113,7 +2113,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A74" s="3">
         <v>43928</v>
       </c>
@@ -2136,7 +2136,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A75" s="3">
         <v>43929</v>
       </c>
@@ -2159,7 +2159,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A76" s="3">
         <v>43930</v>
       </c>
@@ -2182,7 +2182,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A77" s="3">
         <v>43931</v>
       </c>
@@ -2205,7 +2205,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A78" s="3">
         <v>43932</v>
       </c>
@@ -2228,7 +2228,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A79" s="3">
         <v>43933</v>
       </c>
@@ -2251,7 +2251,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A80" s="3">
         <v>43934</v>
       </c>
@@ -2274,7 +2274,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A81" s="3">
         <v>43935</v>
       </c>
@@ -2282,7 +2282,7 @@
         <v>197411</v>
       </c>
       <c r="C81" s="4">
-        <v>12372</v>
+        <v>12371</v>
       </c>
       <c r="D81" s="4">
         <v>672</v>
@@ -2297,7 +2297,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A82" s="3">
         <v>43936</v>
       </c>
@@ -2305,7 +2305,7 @@
         <v>206861</v>
       </c>
       <c r="C82" s="4">
-        <v>12682</v>
+        <v>12681</v>
       </c>
       <c r="D82" s="4">
         <v>670</v>
@@ -2320,7 +2320,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A83" s="3">
         <v>43937</v>
       </c>
@@ -2328,7 +2328,7 @@
         <v>219645</v>
       </c>
       <c r="C83" s="4">
-        <v>12983</v>
+        <v>12982</v>
       </c>
       <c r="D83" s="4">
         <v>703</v>
@@ -2343,7 +2343,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A84" s="3">
         <v>43938</v>
       </c>
@@ -2351,7 +2351,7 @@
         <v>231206</v>
       </c>
       <c r="C84" s="4">
-        <v>13281</v>
+        <v>13280</v>
       </c>
       <c r="D84" s="4">
         <v>662</v>
@@ -2366,7 +2366,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A85" s="3">
         <v>43939</v>
       </c>
@@ -2374,7 +2374,7 @@
         <v>241836</v>
       </c>
       <c r="C85" s="4">
-        <v>13591</v>
+        <v>13590</v>
       </c>
       <c r="D85" s="4">
         <v>642</v>
@@ -2389,7 +2389,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A86" s="3">
         <v>43940</v>
       </c>
@@ -2397,7 +2397,7 @@
         <v>253299</v>
       </c>
       <c r="C86" s="4">
-        <v>13872</v>
+        <v>13871</v>
       </c>
       <c r="D86" s="4">
         <v>619</v>
@@ -2412,7 +2412,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A87" s="3">
         <v>43941</v>
       </c>
@@ -2420,7 +2420,7 @@
         <v>268646</v>
       </c>
       <c r="C87" s="4">
-        <v>14174</v>
+        <v>14173</v>
       </c>
       <c r="D87" s="4">
         <v>614</v>
@@ -2435,7 +2435,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A88" s="3">
         <v>43942</v>
       </c>
@@ -2443,7 +2443,7 @@
         <v>282231</v>
       </c>
       <c r="C88" s="4">
-        <v>14463</v>
+        <v>14462</v>
       </c>
       <c r="D88" s="4">
         <v>543</v>
@@ -2458,7 +2458,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A89" s="3">
         <v>43943</v>
       </c>
@@ -2466,7 +2466,7 @@
         <v>295525</v>
       </c>
       <c r="C89" s="4">
-        <v>14689</v>
+        <v>14688</v>
       </c>
       <c r="D89" s="4">
         <v>532</v>
@@ -2481,7 +2481,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A90" s="3">
         <v>43944</v>
       </c>
@@ -2489,7 +2489,7 @@
         <v>309683</v>
       </c>
       <c r="C90" s="4">
-        <v>14969</v>
+        <v>14968</v>
       </c>
       <c r="D90" s="4">
         <v>491</v>
@@ -2504,7 +2504,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A91" s="3">
         <v>43945</v>
       </c>
@@ -2512,7 +2512,7 @@
         <v>322296</v>
       </c>
       <c r="C91" s="4">
-        <v>15224</v>
+        <v>15223</v>
       </c>
       <c r="D91" s="4">
         <v>454</v>
@@ -2527,7 +2527,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A92" s="3">
         <v>43946</v>
       </c>
@@ -2535,7 +2535,7 @@
         <v>331374</v>
       </c>
       <c r="C92" s="4">
-        <v>15384</v>
+        <v>15383</v>
       </c>
       <c r="D92" s="4">
         <v>432</v>
@@ -2550,7 +2550,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A93" s="3">
         <v>43947</v>
       </c>
@@ -2558,7 +2558,7 @@
         <v>339841</v>
       </c>
       <c r="C93" s="4">
-        <v>15472</v>
+        <v>15471</v>
       </c>
       <c r="D93" s="4">
         <v>441</v>
@@ -2573,7 +2573,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A94" s="3">
         <v>43948</v>
       </c>
@@ -2581,7 +2581,7 @@
         <v>350860</v>
       </c>
       <c r="C94" s="4">
-        <v>15587</v>
+        <v>15586</v>
       </c>
       <c r="D94" s="4">
         <v>410</v>
@@ -2596,7 +2596,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A95" s="3">
         <v>43949</v>
       </c>
@@ -2604,7 +2604,7 @@
         <v>361501</v>
       </c>
       <c r="C95" s="4">
-        <v>15756</v>
+        <v>15754</v>
       </c>
       <c r="D95" s="4">
         <v>391</v>
@@ -2619,7 +2619,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A96" s="3">
         <v>43950</v>
       </c>
@@ -2627,7 +2627,7 @@
         <v>370505</v>
       </c>
       <c r="C96" s="4">
-        <v>15839</v>
+        <v>15837</v>
       </c>
       <c r="D96" s="4">
         <v>370</v>
@@ -2642,7 +2642,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A97" s="3">
         <v>43951</v>
       </c>
@@ -2650,7 +2650,7 @@
         <v>380339</v>
       </c>
       <c r="C97" s="4">
-        <v>15983</v>
+        <v>15981</v>
       </c>
       <c r="D97" s="4">
         <v>371</v>
@@ -2663,6 +2663,29 @@
       </c>
       <c r="G97" s="4">
         <v>223</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A98" s="3">
+        <v>43952</v>
+      </c>
+      <c r="B98" s="4">
+        <v>391104</v>
+      </c>
+      <c r="C98" s="4">
+        <v>16098</v>
+      </c>
+      <c r="D98" s="4">
+        <v>348</v>
+      </c>
+      <c r="E98" s="4">
+        <v>108</v>
+      </c>
+      <c r="F98" s="4">
+        <v>86</v>
+      </c>
+      <c r="G98" s="4">
+        <v>227</v>
       </c>
     </row>
   </sheetData>

--- a/data/Israel/covid19-data-israel.xlsx
+++ b/data/Israel/covid19-data-israel.xlsx
@@ -422,10 +422,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G98"/>
+  <dimension ref="A1:G101"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="F103" sqref="F103"/>
+      <selection activeCell="E105" sqref="E105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1385,7 +1385,7 @@
         <v>2442</v>
       </c>
       <c r="C42" s="4">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D42" s="4">
         <v>16</v>
@@ -1408,7 +1408,7 @@
         <v>2780</v>
       </c>
       <c r="C43" s="4">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D43" s="4">
         <v>19</v>
@@ -1431,7 +1431,7 @@
         <v>3202</v>
       </c>
       <c r="C44" s="4">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D44" s="4">
         <v>26</v>
@@ -1454,7 +1454,7 @@
         <v>3721</v>
       </c>
       <c r="C45" s="4">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D45" s="4">
         <v>40</v>
@@ -1477,7 +1477,7 @@
         <v>4242</v>
       </c>
       <c r="C46" s="4">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D46" s="4">
         <v>59</v>
@@ -1500,7 +1500,7 @@
         <v>4645</v>
       </c>
       <c r="C47" s="4">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D47" s="4">
         <v>81</v>
@@ -1523,7 +1523,7 @@
         <v>5252</v>
       </c>
       <c r="C48" s="4">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D48" s="4">
         <v>103</v>
@@ -1546,7 +1546,7 @@
         <v>5948</v>
       </c>
       <c r="C49" s="4">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D49" s="4">
         <v>123</v>
@@ -1569,7 +1569,7 @@
         <v>6561</v>
       </c>
       <c r="C50" s="4">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D50" s="4">
         <v>161</v>
@@ -1592,7 +1592,7 @@
         <v>7745</v>
       </c>
       <c r="C51" s="4">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D51" s="4">
         <v>201</v>
@@ -1615,7 +1615,7 @@
         <v>9090</v>
       </c>
       <c r="C52" s="4">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D52" s="4">
         <v>221</v>
@@ -1638,7 +1638,7 @@
         <v>10747</v>
       </c>
       <c r="C53" s="4">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="D53" s="4">
         <v>257</v>
@@ -1661,7 +1661,7 @@
         <v>12866</v>
       </c>
       <c r="C54" s="4">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="D54" s="4">
         <v>306</v>
@@ -1684,7 +1684,7 @@
         <v>14947</v>
       </c>
       <c r="C55" s="4">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="D55" s="4">
         <v>295</v>
@@ -1707,7 +1707,7 @@
         <v>17272</v>
       </c>
       <c r="C56" s="4">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="D56" s="4">
         <v>288</v>
@@ -1730,7 +1730,7 @@
         <v>19369</v>
       </c>
       <c r="C57" s="4">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="D57" s="4">
         <v>276</v>
@@ -1753,7 +1753,7 @@
         <v>22705</v>
       </c>
       <c r="C58" s="4">
-        <v>1273</v>
+        <v>1272</v>
       </c>
       <c r="D58" s="4">
         <v>323</v>
@@ -1776,7 +1776,7 @@
         <v>26335</v>
       </c>
       <c r="C59" s="4">
-        <v>1621</v>
+        <v>1620</v>
       </c>
       <c r="D59" s="4">
         <v>350</v>
@@ -1799,7 +1799,7 @@
         <v>31118</v>
       </c>
       <c r="C60" s="4">
-        <v>2044</v>
+        <v>2043</v>
       </c>
       <c r="D60" s="4">
         <v>393</v>
@@ -1822,7 +1822,7 @@
         <v>37044</v>
       </c>
       <c r="C61" s="4">
-        <v>2469</v>
+        <v>2467</v>
       </c>
       <c r="D61" s="4">
         <v>412</v>
@@ -1845,7 +1845,7 @@
         <v>43555</v>
       </c>
       <c r="C62" s="4">
-        <v>2995</v>
+        <v>2993</v>
       </c>
       <c r="D62" s="4">
         <v>464</v>
@@ -1868,7 +1868,7 @@
         <v>49299</v>
       </c>
       <c r="C63" s="4">
-        <v>3431</v>
+        <v>3429</v>
       </c>
       <c r="D63" s="4">
         <v>515</v>
@@ -1891,7 +1891,7 @@
         <v>55010</v>
       </c>
       <c r="C64" s="4">
-        <v>3913</v>
+        <v>3912</v>
       </c>
       <c r="D64" s="4">
         <v>512</v>
@@ -1914,7 +1914,7 @@
         <v>62574</v>
       </c>
       <c r="C65" s="4">
-        <v>4449</v>
+        <v>4448</v>
       </c>
       <c r="D65" s="4">
         <v>541</v>
@@ -1937,7 +1937,7 @@
         <v>69665</v>
       </c>
       <c r="C66" s="4">
-        <v>4996</v>
+        <v>4995</v>
       </c>
       <c r="D66" s="4">
         <v>617</v>
@@ -1960,7 +1960,7 @@
         <v>77625</v>
       </c>
       <c r="C67" s="4">
-        <v>5727</v>
+        <v>5726</v>
       </c>
       <c r="D67" s="4">
         <v>665</v>
@@ -1983,7 +1983,7 @@
         <v>86606</v>
       </c>
       <c r="C68" s="4">
-        <v>6423</v>
+        <v>6422</v>
       </c>
       <c r="D68" s="4">
         <v>767</v>
@@ -2006,7 +2006,7 @@
         <v>96823</v>
       </c>
       <c r="C69" s="4">
-        <v>7145</v>
+        <v>7144</v>
       </c>
       <c r="D69" s="4">
         <v>811</v>
@@ -2029,7 +2029,7 @@
         <v>107148</v>
       </c>
       <c r="C70" s="4">
-        <v>7742</v>
+        <v>7741</v>
       </c>
       <c r="D70" s="4">
         <v>800</v>
@@ -2052,7 +2052,7 @@
         <v>113664</v>
       </c>
       <c r="C71" s="4">
-        <v>8170</v>
+        <v>8169</v>
       </c>
       <c r="D71" s="4">
         <v>786</v>
@@ -2075,7 +2075,7 @@
         <v>123107</v>
       </c>
       <c r="C72" s="4">
-        <v>8749</v>
+        <v>8748</v>
       </c>
       <c r="D72" s="4">
         <v>823</v>
@@ -2098,7 +2098,7 @@
         <v>130603</v>
       </c>
       <c r="C73" s="4">
-        <v>9200</v>
+        <v>9199</v>
       </c>
       <c r="D73" s="4">
         <v>806</v>
@@ -2121,7 +2121,7 @@
         <v>137531</v>
       </c>
       <c r="C74" s="4">
-        <v>9579</v>
+        <v>9578</v>
       </c>
       <c r="D74" s="4">
         <v>743</v>
@@ -2144,7 +2144,7 @@
         <v>143401</v>
       </c>
       <c r="C75" s="4">
-        <v>9918</v>
+        <v>9917</v>
       </c>
       <c r="D75" s="4">
         <v>690</v>
@@ -2167,7 +2167,7 @@
         <v>149149</v>
       </c>
       <c r="C76" s="4">
-        <v>10262</v>
+        <v>10261</v>
       </c>
       <c r="D76" s="4">
         <v>663</v>
@@ -2190,7 +2190,7 @@
         <v>156476</v>
       </c>
       <c r="C77" s="4">
-        <v>10622</v>
+        <v>10621</v>
       </c>
       <c r="D77" s="4">
         <v>666</v>
@@ -2213,7 +2213,7 @@
         <v>163167</v>
       </c>
       <c r="C78" s="4">
-        <v>10967</v>
+        <v>10966</v>
       </c>
       <c r="D78" s="4">
         <v>623</v>
@@ -2236,7 +2236,7 @@
         <v>173789</v>
       </c>
       <c r="C79" s="4">
-        <v>11526</v>
+        <v>11525</v>
       </c>
       <c r="D79" s="4">
         <v>664</v>
@@ -2259,7 +2259,7 @@
         <v>184748</v>
       </c>
       <c r="C80" s="4">
-        <v>11969</v>
+        <v>11968</v>
       </c>
       <c r="D80" s="4">
         <v>684</v>
@@ -2282,7 +2282,7 @@
         <v>197411</v>
       </c>
       <c r="C81" s="4">
-        <v>12371</v>
+        <v>12370</v>
       </c>
       <c r="D81" s="4">
         <v>672</v>
@@ -2305,7 +2305,7 @@
         <v>206861</v>
       </c>
       <c r="C82" s="4">
-        <v>12681</v>
+        <v>12680</v>
       </c>
       <c r="D82" s="4">
         <v>670</v>
@@ -2328,7 +2328,7 @@
         <v>219645</v>
       </c>
       <c r="C83" s="4">
-        <v>12982</v>
+        <v>12981</v>
       </c>
       <c r="D83" s="4">
         <v>703</v>
@@ -2351,7 +2351,7 @@
         <v>231206</v>
       </c>
       <c r="C84" s="4">
-        <v>13280</v>
+        <v>13279</v>
       </c>
       <c r="D84" s="4">
         <v>662</v>
@@ -2374,7 +2374,7 @@
         <v>241836</v>
       </c>
       <c r="C85" s="4">
-        <v>13590</v>
+        <v>13589</v>
       </c>
       <c r="D85" s="4">
         <v>642</v>
@@ -2397,7 +2397,7 @@
         <v>253299</v>
       </c>
       <c r="C86" s="4">
-        <v>13871</v>
+        <v>13870</v>
       </c>
       <c r="D86" s="4">
         <v>619</v>
@@ -2420,7 +2420,7 @@
         <v>268646</v>
       </c>
       <c r="C87" s="4">
-        <v>14173</v>
+        <v>14171</v>
       </c>
       <c r="D87" s="4">
         <v>614</v>
@@ -2443,7 +2443,7 @@
         <v>282231</v>
       </c>
       <c r="C88" s="4">
-        <v>14462</v>
+        <v>14460</v>
       </c>
       <c r="D88" s="4">
         <v>543</v>
@@ -2466,7 +2466,7 @@
         <v>295525</v>
       </c>
       <c r="C89" s="4">
-        <v>14688</v>
+        <v>14686</v>
       </c>
       <c r="D89" s="4">
         <v>532</v>
@@ -2489,7 +2489,7 @@
         <v>309683</v>
       </c>
       <c r="C90" s="4">
-        <v>14968</v>
+        <v>14966</v>
       </c>
       <c r="D90" s="4">
         <v>491</v>
@@ -2512,7 +2512,7 @@
         <v>322296</v>
       </c>
       <c r="C91" s="4">
-        <v>15223</v>
+        <v>15221</v>
       </c>
       <c r="D91" s="4">
         <v>454</v>
@@ -2535,7 +2535,7 @@
         <v>331374</v>
       </c>
       <c r="C92" s="4">
-        <v>15383</v>
+        <v>15381</v>
       </c>
       <c r="D92" s="4">
         <v>432</v>
@@ -2558,7 +2558,7 @@
         <v>339841</v>
       </c>
       <c r="C93" s="4">
-        <v>15471</v>
+        <v>15469</v>
       </c>
       <c r="D93" s="4">
         <v>441</v>
@@ -2581,7 +2581,7 @@
         <v>350860</v>
       </c>
       <c r="C94" s="4">
-        <v>15586</v>
+        <v>15584</v>
       </c>
       <c r="D94" s="4">
         <v>410</v>
@@ -2604,7 +2604,7 @@
         <v>361501</v>
       </c>
       <c r="C95" s="4">
-        <v>15754</v>
+        <v>15752</v>
       </c>
       <c r="D95" s="4">
         <v>391</v>
@@ -2627,7 +2627,7 @@
         <v>370505</v>
       </c>
       <c r="C96" s="4">
-        <v>15837</v>
+        <v>15835</v>
       </c>
       <c r="D96" s="4">
         <v>370</v>
@@ -2650,7 +2650,7 @@
         <v>380339</v>
       </c>
       <c r="C97" s="4">
-        <v>15981</v>
+        <v>15979</v>
       </c>
       <c r="D97" s="4">
         <v>371</v>
@@ -2673,7 +2673,7 @@
         <v>391104</v>
       </c>
       <c r="C98" s="4">
-        <v>16098</v>
+        <v>16096</v>
       </c>
       <c r="D98" s="4">
         <v>348</v>
@@ -2686,6 +2686,75 @@
       </c>
       <c r="G98" s="4">
         <v>227</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A99" s="3">
+        <v>43953</v>
+      </c>
+      <c r="B99" s="4">
+        <v>396659</v>
+      </c>
+      <c r="C99" s="4">
+        <v>16153</v>
+      </c>
+      <c r="D99" s="4">
+        <v>324</v>
+      </c>
+      <c r="E99" s="4">
+        <v>109</v>
+      </c>
+      <c r="F99" s="4">
+        <v>87</v>
+      </c>
+      <c r="G99" s="4">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A100" s="3">
+        <v>43954</v>
+      </c>
+      <c r="B100" s="4">
+        <v>404586</v>
+      </c>
+      <c r="C100" s="4">
+        <v>16182</v>
+      </c>
+      <c r="D100" s="4">
+        <v>312</v>
+      </c>
+      <c r="E100" s="4">
+        <v>94</v>
+      </c>
+      <c r="F100" s="4">
+        <v>76</v>
+      </c>
+      <c r="G100" s="4">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A101" s="3">
+        <v>43955</v>
+      </c>
+      <c r="B101" s="4">
+        <v>409515</v>
+      </c>
+      <c r="C101" s="4">
+        <v>16237</v>
+      </c>
+      <c r="D101" s="4">
+        <v>291</v>
+      </c>
+      <c r="E101" s="4">
+        <v>91</v>
+      </c>
+      <c r="F101" s="4">
+        <v>71</v>
+      </c>
+      <c r="G101" s="4">
+        <v>236</v>
       </c>
     </row>
   </sheetData>

--- a/data/Israel/covid19-data-israel.xlsx
+++ b/data/Israel/covid19-data-israel.xlsx
@@ -422,10 +422,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G101"/>
+  <dimension ref="A1:G103"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="E105" sqref="E105"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1060,7 +1060,7 @@
         <v>43882</v>
       </c>
       <c r="B28" s="4">
-        <v>450</v>
+        <v>459</v>
       </c>
       <c r="C28" s="4">
         <v>1</v>
@@ -1129,7 +1129,7 @@
         <v>43885</v>
       </c>
       <c r="B31" s="4">
-        <v>606</v>
+        <v>603</v>
       </c>
       <c r="C31" s="4">
         <v>2</v>
@@ -1152,7 +1152,7 @@
         <v>43886</v>
       </c>
       <c r="B32" s="4">
-        <v>713</v>
+        <v>709</v>
       </c>
       <c r="C32" s="4">
         <v>2</v>
@@ -1175,7 +1175,7 @@
         <v>43887</v>
       </c>
       <c r="B33" s="4">
-        <v>821</v>
+        <v>817</v>
       </c>
       <c r="C33" s="4">
         <v>2</v>
@@ -1198,7 +1198,7 @@
         <v>43888</v>
       </c>
       <c r="B34" s="4">
-        <v>992</v>
+        <v>988</v>
       </c>
       <c r="C34" s="4">
         <v>3</v>
@@ -1221,7 +1221,7 @@
         <v>43889</v>
       </c>
       <c r="B35" s="4">
-        <v>1110</v>
+        <v>1107</v>
       </c>
       <c r="C35" s="4">
         <v>6</v>
@@ -1244,7 +1244,7 @@
         <v>43890</v>
       </c>
       <c r="B36" s="4">
-        <v>1270</v>
+        <v>1266</v>
       </c>
       <c r="C36" s="4">
         <v>6</v>
@@ -1267,7 +1267,7 @@
         <v>43891</v>
       </c>
       <c r="B37" s="4">
-        <v>1460</v>
+        <v>1454</v>
       </c>
       <c r="C37" s="4">
         <v>7</v>
@@ -1290,7 +1290,7 @@
         <v>43892</v>
       </c>
       <c r="B38" s="4">
-        <v>1631</v>
+        <v>1625</v>
       </c>
       <c r="C38" s="4">
         <v>12</v>
@@ -1313,13 +1313,13 @@
         <v>43893</v>
       </c>
       <c r="B39" s="4">
-        <v>1865</v>
+        <v>1860</v>
       </c>
       <c r="C39" s="4">
         <v>15</v>
       </c>
       <c r="D39" s="4">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E39" s="4">
         <v>0</v>
@@ -1336,7 +1336,7 @@
         <v>43894</v>
       </c>
       <c r="B40" s="4">
-        <v>1994</v>
+        <v>1989</v>
       </c>
       <c r="C40" s="4">
         <v>15</v>
@@ -1359,7 +1359,7 @@
         <v>43895</v>
       </c>
       <c r="B41" s="4">
-        <v>2167</v>
+        <v>2163</v>
       </c>
       <c r="C41" s="4">
         <v>17</v>
@@ -1382,7 +1382,7 @@
         <v>43896</v>
       </c>
       <c r="B42" s="4">
-        <v>2442</v>
+        <v>2438</v>
       </c>
       <c r="C42" s="4">
         <v>27</v>
@@ -1405,13 +1405,13 @@
         <v>43897</v>
       </c>
       <c r="B43" s="4">
-        <v>2780</v>
+        <v>2774</v>
       </c>
       <c r="C43" s="4">
         <v>31</v>
       </c>
       <c r="D43" s="4">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E43" s="4">
         <v>3</v>
@@ -1428,7 +1428,7 @@
         <v>43898</v>
       </c>
       <c r="B44" s="4">
-        <v>3202</v>
+        <v>3195</v>
       </c>
       <c r="C44" s="4">
         <v>40</v>
@@ -1451,7 +1451,7 @@
         <v>43899</v>
       </c>
       <c r="B45" s="4">
-        <v>3721</v>
+        <v>3714</v>
       </c>
       <c r="C45" s="4">
         <v>44</v>
@@ -1474,7 +1474,7 @@
         <v>43900</v>
       </c>
       <c r="B46" s="4">
-        <v>4242</v>
+        <v>4234</v>
       </c>
       <c r="C46" s="4">
         <v>77</v>
@@ -1497,10 +1497,10 @@
         <v>43901</v>
       </c>
       <c r="B47" s="4">
-        <v>4645</v>
+        <v>4636</v>
       </c>
       <c r="C47" s="4">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D47" s="4">
         <v>81</v>
@@ -1520,7 +1520,7 @@
         <v>43902</v>
       </c>
       <c r="B48" s="4">
-        <v>5252</v>
+        <v>5243</v>
       </c>
       <c r="C48" s="4">
         <v>117</v>
@@ -1543,10 +1543,10 @@
         <v>43903</v>
       </c>
       <c r="B49" s="4">
-        <v>5948</v>
+        <v>5939</v>
       </c>
       <c r="C49" s="4">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D49" s="4">
         <v>123</v>
@@ -1566,13 +1566,13 @@
         <v>43904</v>
       </c>
       <c r="B50" s="4">
-        <v>6561</v>
+        <v>6553</v>
       </c>
       <c r="C50" s="4">
         <v>183</v>
       </c>
       <c r="D50" s="4">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="E50" s="4">
         <v>6</v>
@@ -1589,7 +1589,7 @@
         <v>43905</v>
       </c>
       <c r="B51" s="4">
-        <v>7745</v>
+        <v>7733</v>
       </c>
       <c r="C51" s="4">
         <v>221</v>
@@ -1612,7 +1612,7 @@
         <v>43906</v>
       </c>
       <c r="B52" s="4">
-        <v>9090</v>
+        <v>9076</v>
       </c>
       <c r="C52" s="4">
         <v>294</v>
@@ -1635,13 +1635,13 @@
         <v>43907</v>
       </c>
       <c r="B53" s="4">
-        <v>10747</v>
+        <v>10723</v>
       </c>
       <c r="C53" s="4">
         <v>389</v>
       </c>
       <c r="D53" s="4">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E53" s="4">
         <v>12</v>
@@ -1658,7 +1658,7 @@
         <v>43908</v>
       </c>
       <c r="B54" s="4">
-        <v>12866</v>
+        <v>12834</v>
       </c>
       <c r="C54" s="4">
         <v>508</v>
@@ -1681,10 +1681,10 @@
         <v>43909</v>
       </c>
       <c r="B55" s="4">
-        <v>14947</v>
+        <v>14907</v>
       </c>
       <c r="C55" s="4">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="D55" s="4">
         <v>295</v>
@@ -1704,10 +1704,10 @@
         <v>43910</v>
       </c>
       <c r="B56" s="4">
-        <v>17272</v>
+        <v>17230</v>
       </c>
       <c r="C56" s="4">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="D56" s="4">
         <v>288</v>
@@ -1727,10 +1727,10 @@
         <v>43911</v>
       </c>
       <c r="B57" s="4">
-        <v>19369</v>
+        <v>19333</v>
       </c>
       <c r="C57" s="4">
-        <v>1023</v>
+        <v>1019</v>
       </c>
       <c r="D57" s="4">
         <v>276</v>
@@ -1750,10 +1750,10 @@
         <v>43912</v>
       </c>
       <c r="B58" s="4">
-        <v>22705</v>
+        <v>22674</v>
       </c>
       <c r="C58" s="4">
-        <v>1272</v>
+        <v>1268</v>
       </c>
       <c r="D58" s="4">
         <v>323</v>
@@ -1773,10 +1773,10 @@
         <v>43913</v>
       </c>
       <c r="B59" s="4">
-        <v>26335</v>
+        <v>26293</v>
       </c>
       <c r="C59" s="4">
-        <v>1620</v>
+        <v>1616</v>
       </c>
       <c r="D59" s="4">
         <v>350</v>
@@ -1796,10 +1796,10 @@
         <v>43914</v>
       </c>
       <c r="B60" s="4">
-        <v>31118</v>
+        <v>31078</v>
       </c>
       <c r="C60" s="4">
-        <v>2043</v>
+        <v>2038</v>
       </c>
       <c r="D60" s="4">
         <v>393</v>
@@ -1819,10 +1819,10 @@
         <v>43915</v>
       </c>
       <c r="B61" s="4">
-        <v>37044</v>
+        <v>37011</v>
       </c>
       <c r="C61" s="4">
-        <v>2467</v>
+        <v>2462</v>
       </c>
       <c r="D61" s="4">
         <v>412</v>
@@ -1842,10 +1842,10 @@
         <v>43916</v>
       </c>
       <c r="B62" s="4">
-        <v>43555</v>
+        <v>43521</v>
       </c>
       <c r="C62" s="4">
-        <v>2993</v>
+        <v>2988</v>
       </c>
       <c r="D62" s="4">
         <v>464</v>
@@ -1865,10 +1865,10 @@
         <v>43917</v>
       </c>
       <c r="B63" s="4">
-        <v>49299</v>
+        <v>49269</v>
       </c>
       <c r="C63" s="4">
-        <v>3429</v>
+        <v>3422</v>
       </c>
       <c r="D63" s="4">
         <v>515</v>
@@ -1888,10 +1888,10 @@
         <v>43918</v>
       </c>
       <c r="B64" s="4">
-        <v>55010</v>
+        <v>55011</v>
       </c>
       <c r="C64" s="4">
-        <v>3912</v>
+        <v>3904</v>
       </c>
       <c r="D64" s="4">
         <v>512</v>
@@ -1911,10 +1911,10 @@
         <v>43919</v>
       </c>
       <c r="B65" s="4">
-        <v>62574</v>
+        <v>62593</v>
       </c>
       <c r="C65" s="4">
-        <v>4448</v>
+        <v>4437</v>
       </c>
       <c r="D65" s="4">
         <v>541</v>
@@ -1934,16 +1934,16 @@
         <v>43920</v>
       </c>
       <c r="B66" s="4">
-        <v>69665</v>
+        <v>69689</v>
       </c>
       <c r="C66" s="4">
-        <v>4995</v>
+        <v>4985</v>
       </c>
       <c r="D66" s="4">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="E66" s="4">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F66" s="4">
         <v>55</v>
@@ -1957,16 +1957,16 @@
         <v>43921</v>
       </c>
       <c r="B67" s="4">
-        <v>77625</v>
+        <v>77664</v>
       </c>
       <c r="C67" s="4">
-        <v>5726</v>
+        <v>5713</v>
       </c>
       <c r="D67" s="4">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="E67" s="4">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F67" s="4">
         <v>64</v>
@@ -1980,10 +1980,10 @@
         <v>43922</v>
       </c>
       <c r="B68" s="4">
-        <v>86606</v>
+        <v>86661</v>
       </c>
       <c r="C68" s="4">
-        <v>6422</v>
+        <v>6408</v>
       </c>
       <c r="D68" s="4">
         <v>767</v>
@@ -2003,10 +2003,10 @@
         <v>43923</v>
       </c>
       <c r="B69" s="4">
-        <v>96823</v>
+        <v>96891</v>
       </c>
       <c r="C69" s="4">
-        <v>7144</v>
+        <v>7129</v>
       </c>
       <c r="D69" s="4">
         <v>811</v>
@@ -2026,13 +2026,13 @@
         <v>43924</v>
       </c>
       <c r="B70" s="4">
-        <v>107148</v>
+        <v>107217</v>
       </c>
       <c r="C70" s="4">
-        <v>7741</v>
+        <v>7726</v>
       </c>
       <c r="D70" s="4">
-        <v>800</v>
+        <v>802</v>
       </c>
       <c r="E70" s="4">
         <v>128</v>
@@ -2049,13 +2049,13 @@
         <v>43925</v>
       </c>
       <c r="B71" s="4">
-        <v>113664</v>
+        <v>113561</v>
       </c>
       <c r="C71" s="4">
-        <v>8169</v>
+        <v>8154</v>
       </c>
       <c r="D71" s="4">
-        <v>786</v>
+        <v>788</v>
       </c>
       <c r="E71" s="4">
         <v>138</v>
@@ -2072,13 +2072,13 @@
         <v>43926</v>
       </c>
       <c r="B72" s="4">
-        <v>123107</v>
+        <v>122923</v>
       </c>
       <c r="C72" s="4">
-        <v>8748</v>
+        <v>8733</v>
       </c>
       <c r="D72" s="4">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="E72" s="4">
         <v>134</v>
@@ -2095,13 +2095,13 @@
         <v>43927</v>
       </c>
       <c r="B73" s="4">
-        <v>130603</v>
+        <v>130416</v>
       </c>
       <c r="C73" s="4">
-        <v>9199</v>
+        <v>9185</v>
       </c>
       <c r="D73" s="4">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="E73" s="4">
         <v>146</v>
@@ -2118,13 +2118,13 @@
         <v>43928</v>
       </c>
       <c r="B74" s="4">
-        <v>137531</v>
+        <v>137343</v>
       </c>
       <c r="C74" s="4">
-        <v>9578</v>
+        <v>9564</v>
       </c>
       <c r="D74" s="4">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="E74" s="4">
         <v>158</v>
@@ -2141,13 +2141,13 @@
         <v>43929</v>
       </c>
       <c r="B75" s="4">
-        <v>143401</v>
+        <v>143216</v>
       </c>
       <c r="C75" s="4">
-        <v>9917</v>
+        <v>9902</v>
       </c>
       <c r="D75" s="4">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="E75" s="4">
         <v>164</v>
@@ -2164,13 +2164,13 @@
         <v>43930</v>
       </c>
       <c r="B76" s="4">
-        <v>149149</v>
+        <v>148960</v>
       </c>
       <c r="C76" s="4">
-        <v>10261</v>
+        <v>10246</v>
       </c>
       <c r="D76" s="4">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="E76" s="4">
         <v>165</v>
@@ -2187,13 +2187,13 @@
         <v>43931</v>
       </c>
       <c r="B77" s="4">
-        <v>156476</v>
+        <v>156283</v>
       </c>
       <c r="C77" s="4">
-        <v>10621</v>
+        <v>10606</v>
       </c>
       <c r="D77" s="4">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="E77" s="4">
         <v>169</v>
@@ -2210,13 +2210,13 @@
         <v>43932</v>
       </c>
       <c r="B78" s="4">
-        <v>163167</v>
+        <v>162973</v>
       </c>
       <c r="C78" s="4">
-        <v>10966</v>
+        <v>10951</v>
       </c>
       <c r="D78" s="4">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="E78" s="4">
         <v>182</v>
@@ -2233,16 +2233,16 @@
         <v>43933</v>
       </c>
       <c r="B79" s="4">
-        <v>173789</v>
+        <v>173587</v>
       </c>
       <c r="C79" s="4">
-        <v>11525</v>
+        <v>11508</v>
       </c>
       <c r="D79" s="4">
-        <v>664</v>
+        <v>666</v>
       </c>
       <c r="E79" s="4">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="F79" s="4">
         <v>130</v>
@@ -2256,13 +2256,13 @@
         <v>43934</v>
       </c>
       <c r="B80" s="4">
-        <v>184748</v>
+        <v>184542</v>
       </c>
       <c r="C80" s="4">
-        <v>11968</v>
+        <v>11951</v>
       </c>
       <c r="D80" s="4">
-        <v>684</v>
+        <v>686</v>
       </c>
       <c r="E80" s="4">
         <v>192</v>
@@ -2279,13 +2279,13 @@
         <v>43935</v>
       </c>
       <c r="B81" s="4">
-        <v>197411</v>
+        <v>197204</v>
       </c>
       <c r="C81" s="4">
-        <v>12370</v>
+        <v>12353</v>
       </c>
       <c r="D81" s="4">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="E81" s="4">
         <v>178</v>
@@ -2302,19 +2302,19 @@
         <v>43936</v>
       </c>
       <c r="B82" s="4">
-        <v>206861</v>
+        <v>206648</v>
       </c>
       <c r="C82" s="4">
-        <v>12680</v>
+        <v>12663</v>
       </c>
       <c r="D82" s="4">
-        <v>670</v>
+        <v>672</v>
       </c>
       <c r="E82" s="4">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="F82" s="4">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="G82" s="4">
         <v>137</v>
@@ -2325,10 +2325,10 @@
         <v>43937</v>
       </c>
       <c r="B83" s="4">
-        <v>219645</v>
+        <v>219430</v>
       </c>
       <c r="C83" s="4">
-        <v>12981</v>
+        <v>12964</v>
       </c>
       <c r="D83" s="4">
         <v>703</v>
@@ -2348,16 +2348,16 @@
         <v>43938</v>
       </c>
       <c r="B84" s="4">
-        <v>231206</v>
+        <v>231008</v>
       </c>
       <c r="C84" s="4">
-        <v>13279</v>
+        <v>13262</v>
       </c>
       <c r="D84" s="4">
-        <v>662</v>
+        <v>664</v>
       </c>
       <c r="E84" s="4">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="F84" s="4">
         <v>125</v>
@@ -2371,19 +2371,19 @@
         <v>43939</v>
       </c>
       <c r="B85" s="4">
-        <v>241836</v>
+        <v>241641</v>
       </c>
       <c r="C85" s="4">
-        <v>13589</v>
+        <v>13571</v>
       </c>
       <c r="D85" s="4">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="E85" s="4">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="F85" s="4">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="G85" s="4">
         <v>164</v>
@@ -2394,19 +2394,19 @@
         <v>43940</v>
       </c>
       <c r="B86" s="4">
-        <v>253299</v>
+        <v>253105</v>
       </c>
       <c r="C86" s="4">
-        <v>13870</v>
+        <v>13852</v>
       </c>
       <c r="D86" s="4">
         <v>619</v>
       </c>
       <c r="E86" s="4">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="F86" s="4">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="G86" s="4">
         <v>172</v>
@@ -2417,19 +2417,19 @@
         <v>43941</v>
       </c>
       <c r="B87" s="4">
-        <v>268646</v>
+        <v>268452</v>
       </c>
       <c r="C87" s="4">
-        <v>14171</v>
+        <v>14153</v>
       </c>
       <c r="D87" s="4">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="E87" s="4">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="F87" s="4">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="G87" s="4">
         <v>178</v>
@@ -2440,19 +2440,19 @@
         <v>43942</v>
       </c>
       <c r="B88" s="4">
-        <v>282231</v>
+        <v>282044</v>
       </c>
       <c r="C88" s="4">
-        <v>14460</v>
+        <v>14442</v>
       </c>
       <c r="D88" s="4">
         <v>543</v>
       </c>
       <c r="E88" s="4">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="F88" s="4">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="G88" s="4">
         <v>187</v>
@@ -2463,19 +2463,19 @@
         <v>43943</v>
       </c>
       <c r="B89" s="4">
-        <v>295525</v>
+        <v>295344</v>
       </c>
       <c r="C89" s="4">
-        <v>14686</v>
+        <v>14669</v>
       </c>
       <c r="D89" s="4">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="E89" s="4">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="F89" s="4">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="G89" s="4">
         <v>190</v>
@@ -2486,19 +2486,19 @@
         <v>43944</v>
       </c>
       <c r="B90" s="4">
-        <v>309683</v>
+        <v>309529</v>
       </c>
       <c r="C90" s="4">
-        <v>14966</v>
+        <v>14949</v>
       </c>
       <c r="D90" s="4">
-        <v>491</v>
+        <v>502</v>
       </c>
       <c r="E90" s="4">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="F90" s="4">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="G90" s="4">
         <v>194</v>
@@ -2509,19 +2509,19 @@
         <v>43945</v>
       </c>
       <c r="B91" s="4">
-        <v>322296</v>
+        <v>322144</v>
       </c>
       <c r="C91" s="4">
-        <v>15221</v>
+        <v>15204</v>
       </c>
       <c r="D91" s="4">
-        <v>454</v>
+        <v>462</v>
       </c>
       <c r="E91" s="4">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="F91" s="4">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="G91" s="4">
         <v>197</v>
@@ -2532,19 +2532,19 @@
         <v>43946</v>
       </c>
       <c r="B92" s="4">
-        <v>331374</v>
+        <v>331225</v>
       </c>
       <c r="C92" s="4">
-        <v>15381</v>
+        <v>15364</v>
       </c>
       <c r="D92" s="4">
-        <v>432</v>
+        <v>441</v>
       </c>
       <c r="E92" s="4">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="F92" s="4">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="G92" s="4">
         <v>200</v>
@@ -2555,19 +2555,19 @@
         <v>43947</v>
       </c>
       <c r="B93" s="4">
-        <v>339841</v>
+        <v>339699</v>
       </c>
       <c r="C93" s="4">
-        <v>15469</v>
+        <v>15452</v>
       </c>
       <c r="D93" s="4">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="E93" s="4">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="F93" s="4">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="G93" s="4">
         <v>202</v>
@@ -2578,19 +2578,19 @@
         <v>43948</v>
       </c>
       <c r="B94" s="4">
-        <v>350860</v>
+        <v>350720</v>
       </c>
       <c r="C94" s="4">
-        <v>15584</v>
+        <v>15566</v>
       </c>
       <c r="D94" s="4">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="E94" s="4">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="F94" s="4">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="G94" s="4">
         <v>206</v>
@@ -2601,19 +2601,19 @@
         <v>43949</v>
       </c>
       <c r="B95" s="4">
-        <v>361501</v>
+        <v>361365</v>
       </c>
       <c r="C95" s="4">
-        <v>15752</v>
+        <v>15734</v>
       </c>
       <c r="D95" s="4">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="E95" s="4">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="F95" s="4">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="G95" s="4">
         <v>211</v>
@@ -2624,19 +2624,19 @@
         <v>43950</v>
       </c>
       <c r="B96" s="4">
-        <v>370505</v>
+        <v>370367</v>
       </c>
       <c r="C96" s="4">
-        <v>15835</v>
+        <v>15817</v>
       </c>
       <c r="D96" s="4">
-        <v>370</v>
+        <v>376</v>
       </c>
       <c r="E96" s="4">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="F96" s="4">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="G96" s="4">
         <v>217</v>
@@ -2647,19 +2647,19 @@
         <v>43951</v>
       </c>
       <c r="B97" s="4">
-        <v>380339</v>
+        <v>380299</v>
       </c>
       <c r="C97" s="4">
-        <v>15979</v>
+        <v>15961</v>
       </c>
       <c r="D97" s="4">
-        <v>371</v>
+        <v>377</v>
       </c>
       <c r="E97" s="4">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="F97" s="4">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="G97" s="4">
         <v>223</v>
@@ -2670,19 +2670,19 @@
         <v>43952</v>
       </c>
       <c r="B98" s="4">
-        <v>391104</v>
+        <v>391348</v>
       </c>
       <c r="C98" s="4">
-        <v>16096</v>
+        <v>16078</v>
       </c>
       <c r="D98" s="4">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="E98" s="4">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="F98" s="4">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="G98" s="4">
         <v>227</v>
@@ -2693,19 +2693,19 @@
         <v>43953</v>
       </c>
       <c r="B99" s="4">
-        <v>396659</v>
+        <v>396916</v>
       </c>
       <c r="C99" s="4">
-        <v>16153</v>
+        <v>16135</v>
       </c>
       <c r="D99" s="4">
-        <v>324</v>
+        <v>334</v>
       </c>
       <c r="E99" s="4">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="F99" s="4">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="G99" s="4">
         <v>230</v>
@@ -2716,19 +2716,19 @@
         <v>43954</v>
       </c>
       <c r="B100" s="4">
-        <v>404586</v>
+        <v>404944</v>
       </c>
       <c r="C100" s="4">
-        <v>16182</v>
+        <v>16164</v>
       </c>
       <c r="D100" s="4">
-        <v>312</v>
+        <v>323</v>
       </c>
       <c r="E100" s="4">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="F100" s="4">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="G100" s="4">
         <v>233</v>
@@ -2739,22 +2739,68 @@
         <v>43955</v>
       </c>
       <c r="B101" s="4">
-        <v>409515</v>
+        <v>414205</v>
       </c>
       <c r="C101" s="4">
-        <v>16237</v>
+        <v>16219</v>
       </c>
       <c r="D101" s="4">
-        <v>291</v>
+        <v>316</v>
       </c>
       <c r="E101" s="4">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="F101" s="4">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="G101" s="4">
         <v>236</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A102" s="3">
+        <v>43956</v>
+      </c>
+      <c r="B102" s="4">
+        <v>423158</v>
+      </c>
+      <c r="C102" s="4">
+        <v>16253</v>
+      </c>
+      <c r="D102" s="4">
+        <v>274</v>
+      </c>
+      <c r="E102" s="4">
+        <v>92</v>
+      </c>
+      <c r="F102" s="4">
+        <v>71</v>
+      </c>
+      <c r="G102" s="4">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A103" s="3">
+        <v>43957</v>
+      </c>
+      <c r="B103" s="4">
+        <v>432614</v>
+      </c>
+      <c r="C103" s="4">
+        <v>16319</v>
+      </c>
+      <c r="D103" s="4">
+        <v>266</v>
+      </c>
+      <c r="E103" s="4">
+        <v>89</v>
+      </c>
+      <c r="F103" s="4">
+        <v>69</v>
+      </c>
+      <c r="G103" s="4">
+        <v>239</v>
       </c>
     </row>
   </sheetData>

--- a/data/Israel/covid19-data-israel.xlsx
+++ b/data/Israel/covid19-data-israel.xlsx
@@ -422,10 +422,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G103"/>
+  <dimension ref="A1:G117"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="G110" sqref="G110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -807,7 +807,7 @@
         <v>43871</v>
       </c>
       <c r="B17" s="4">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C17" s="4">
         <v>0</v>
@@ -830,7 +830,7 @@
         <v>43872</v>
       </c>
       <c r="B18" s="4">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C18" s="4">
         <v>0</v>
@@ -853,7 +853,7 @@
         <v>43873</v>
       </c>
       <c r="B19" s="4">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C19" s="4">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>43874</v>
       </c>
       <c r="B20" s="4">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C20" s="4">
         <v>0</v>
@@ -899,7 +899,7 @@
         <v>43875</v>
       </c>
       <c r="B21" s="4">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C21" s="4">
         <v>0</v>
@@ -922,7 +922,7 @@
         <v>43876</v>
       </c>
       <c r="B22" s="4">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C22" s="4">
         <v>0</v>
@@ -945,7 +945,7 @@
         <v>43877</v>
       </c>
       <c r="B23" s="4">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="C23" s="4">
         <v>0</v>
@@ -968,7 +968,7 @@
         <v>43878</v>
       </c>
       <c r="B24" s="4">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="C24" s="4">
         <v>0</v>
@@ -991,7 +991,7 @@
         <v>43879</v>
       </c>
       <c r="B25" s="4">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="C25" s="4">
         <v>0</v>
@@ -1014,7 +1014,7 @@
         <v>43880</v>
       </c>
       <c r="B26" s="4">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="C26" s="4">
         <v>0</v>
@@ -1037,7 +1037,7 @@
         <v>43881</v>
       </c>
       <c r="B27" s="4">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="C27" s="4">
         <v>0</v>
@@ -1060,7 +1060,7 @@
         <v>43882</v>
       </c>
       <c r="B28" s="4">
-        <v>459</v>
+        <v>462</v>
       </c>
       <c r="C28" s="4">
         <v>1</v>
@@ -1083,7 +1083,7 @@
         <v>43883</v>
       </c>
       <c r="B29" s="4">
-        <v>472</v>
+        <v>475</v>
       </c>
       <c r="C29" s="4">
         <v>1</v>
@@ -1106,7 +1106,7 @@
         <v>43884</v>
       </c>
       <c r="B30" s="4">
-        <v>528</v>
+        <v>531</v>
       </c>
       <c r="C30" s="4">
         <v>1</v>
@@ -1129,7 +1129,7 @@
         <v>43885</v>
       </c>
       <c r="B31" s="4">
-        <v>603</v>
+        <v>607</v>
       </c>
       <c r="C31" s="4">
         <v>2</v>
@@ -1152,7 +1152,7 @@
         <v>43886</v>
       </c>
       <c r="B32" s="4">
-        <v>709</v>
+        <v>715</v>
       </c>
       <c r="C32" s="4">
         <v>2</v>
@@ -1175,7 +1175,7 @@
         <v>43887</v>
       </c>
       <c r="B33" s="4">
-        <v>817</v>
+        <v>823</v>
       </c>
       <c r="C33" s="4">
         <v>2</v>
@@ -1198,7 +1198,7 @@
         <v>43888</v>
       </c>
       <c r="B34" s="4">
-        <v>988</v>
+        <v>994</v>
       </c>
       <c r="C34" s="4">
         <v>3</v>
@@ -1221,7 +1221,7 @@
         <v>43889</v>
       </c>
       <c r="B35" s="4">
-        <v>1107</v>
+        <v>1113</v>
       </c>
       <c r="C35" s="4">
         <v>6</v>
@@ -1244,7 +1244,7 @@
         <v>43890</v>
       </c>
       <c r="B36" s="4">
-        <v>1266</v>
+        <v>1272</v>
       </c>
       <c r="C36" s="4">
         <v>6</v>
@@ -1267,7 +1267,7 @@
         <v>43891</v>
       </c>
       <c r="B37" s="4">
-        <v>1454</v>
+        <v>1460</v>
       </c>
       <c r="C37" s="4">
         <v>7</v>
@@ -1290,7 +1290,7 @@
         <v>43892</v>
       </c>
       <c r="B38" s="4">
-        <v>1625</v>
+        <v>1631</v>
       </c>
       <c r="C38" s="4">
         <v>12</v>
@@ -1313,7 +1313,7 @@
         <v>43893</v>
       </c>
       <c r="B39" s="4">
-        <v>1860</v>
+        <v>1866</v>
       </c>
       <c r="C39" s="4">
         <v>15</v>
@@ -1336,7 +1336,7 @@
         <v>43894</v>
       </c>
       <c r="B40" s="4">
-        <v>1989</v>
+        <v>1995</v>
       </c>
       <c r="C40" s="4">
         <v>15</v>
@@ -1359,7 +1359,7 @@
         <v>43895</v>
       </c>
       <c r="B41" s="4">
-        <v>2163</v>
+        <v>2169</v>
       </c>
       <c r="C41" s="4">
         <v>17</v>
@@ -1382,10 +1382,10 @@
         <v>43896</v>
       </c>
       <c r="B42" s="4">
-        <v>2438</v>
+        <v>2444</v>
       </c>
       <c r="C42" s="4">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D42" s="4">
         <v>16</v>
@@ -1405,10 +1405,10 @@
         <v>43897</v>
       </c>
       <c r="B43" s="4">
-        <v>2774</v>
+        <v>2780</v>
       </c>
       <c r="C43" s="4">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D43" s="4">
         <v>20</v>
@@ -1428,10 +1428,10 @@
         <v>43898</v>
       </c>
       <c r="B44" s="4">
-        <v>3195</v>
+        <v>3201</v>
       </c>
       <c r="C44" s="4">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D44" s="4">
         <v>26</v>
@@ -1451,10 +1451,10 @@
         <v>43899</v>
       </c>
       <c r="B45" s="4">
-        <v>3714</v>
+        <v>3719</v>
       </c>
       <c r="C45" s="4">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D45" s="4">
         <v>40</v>
@@ -1474,10 +1474,10 @@
         <v>43900</v>
       </c>
       <c r="B46" s="4">
-        <v>4234</v>
+        <v>4239</v>
       </c>
       <c r="C46" s="4">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D46" s="4">
         <v>59</v>
@@ -1497,10 +1497,10 @@
         <v>43901</v>
       </c>
       <c r="B47" s="4">
-        <v>4636</v>
+        <v>4641</v>
       </c>
       <c r="C47" s="4">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D47" s="4">
         <v>81</v>
@@ -1520,10 +1520,10 @@
         <v>43902</v>
       </c>
       <c r="B48" s="4">
-        <v>5243</v>
+        <v>5248</v>
       </c>
       <c r="C48" s="4">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D48" s="4">
         <v>103</v>
@@ -1543,10 +1543,10 @@
         <v>43903</v>
       </c>
       <c r="B49" s="4">
-        <v>5939</v>
+        <v>5945</v>
       </c>
       <c r="C49" s="4">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D49" s="4">
         <v>123</v>
@@ -1566,13 +1566,13 @@
         <v>43904</v>
       </c>
       <c r="B50" s="4">
-        <v>6553</v>
+        <v>6559</v>
       </c>
       <c r="C50" s="4">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D50" s="4">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E50" s="4">
         <v>6</v>
@@ -1589,10 +1589,10 @@
         <v>43905</v>
       </c>
       <c r="B51" s="4">
-        <v>7733</v>
+        <v>7743</v>
       </c>
       <c r="C51" s="4">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D51" s="4">
         <v>201</v>
@@ -1612,10 +1612,10 @@
         <v>43906</v>
       </c>
       <c r="B52" s="4">
-        <v>9076</v>
+        <v>9087</v>
       </c>
       <c r="C52" s="4">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D52" s="4">
         <v>221</v>
@@ -1635,10 +1635,10 @@
         <v>43907</v>
       </c>
       <c r="B53" s="4">
-        <v>10723</v>
+        <v>10734</v>
       </c>
       <c r="C53" s="4">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="D53" s="4">
         <v>256</v>
@@ -1658,10 +1658,10 @@
         <v>43908</v>
       </c>
       <c r="B54" s="4">
-        <v>12834</v>
+        <v>12844</v>
       </c>
       <c r="C54" s="4">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="D54" s="4">
         <v>306</v>
@@ -1681,10 +1681,10 @@
         <v>43909</v>
       </c>
       <c r="B55" s="4">
-        <v>14907</v>
+        <v>14918</v>
       </c>
       <c r="C55" s="4">
-        <v>643</v>
+        <v>640</v>
       </c>
       <c r="D55" s="4">
         <v>295</v>
@@ -1704,13 +1704,13 @@
         <v>43910</v>
       </c>
       <c r="B56" s="4">
-        <v>17230</v>
+        <v>17241</v>
       </c>
       <c r="C56" s="4">
-        <v>813</v>
+        <v>810</v>
       </c>
       <c r="D56" s="4">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="E56" s="4">
         <v>23</v>
@@ -1727,10 +1727,10 @@
         <v>43911</v>
       </c>
       <c r="B57" s="4">
-        <v>19333</v>
+        <v>19346</v>
       </c>
       <c r="C57" s="4">
-        <v>1019</v>
+        <v>1017</v>
       </c>
       <c r="D57" s="4">
         <v>276</v>
@@ -1750,10 +1750,10 @@
         <v>43912</v>
       </c>
       <c r="B58" s="4">
-        <v>22674</v>
+        <v>22691</v>
       </c>
       <c r="C58" s="4">
-        <v>1268</v>
+        <v>1269</v>
       </c>
       <c r="D58" s="4">
         <v>323</v>
@@ -1773,10 +1773,10 @@
         <v>43913</v>
       </c>
       <c r="B59" s="4">
-        <v>26293</v>
+        <v>26313</v>
       </c>
       <c r="C59" s="4">
-        <v>1616</v>
+        <v>1617</v>
       </c>
       <c r="D59" s="4">
         <v>350</v>
@@ -1796,10 +1796,10 @@
         <v>43914</v>
       </c>
       <c r="B60" s="4">
-        <v>31078</v>
+        <v>31101</v>
       </c>
       <c r="C60" s="4">
-        <v>2038</v>
+        <v>2040</v>
       </c>
       <c r="D60" s="4">
         <v>393</v>
@@ -1819,10 +1819,10 @@
         <v>43915</v>
       </c>
       <c r="B61" s="4">
-        <v>37011</v>
+        <v>37035</v>
       </c>
       <c r="C61" s="4">
-        <v>2462</v>
+        <v>2464</v>
       </c>
       <c r="D61" s="4">
         <v>412</v>
@@ -1842,10 +1842,10 @@
         <v>43916</v>
       </c>
       <c r="B62" s="4">
-        <v>43521</v>
+        <v>43541</v>
       </c>
       <c r="C62" s="4">
-        <v>2988</v>
+        <v>2987</v>
       </c>
       <c r="D62" s="4">
         <v>464</v>
@@ -1865,10 +1865,10 @@
         <v>43917</v>
       </c>
       <c r="B63" s="4">
-        <v>49269</v>
+        <v>49295</v>
       </c>
       <c r="C63" s="4">
-        <v>3422</v>
+        <v>3421</v>
       </c>
       <c r="D63" s="4">
         <v>515</v>
@@ -1888,10 +1888,10 @@
         <v>43918</v>
       </c>
       <c r="B64" s="4">
-        <v>55011</v>
+        <v>55033</v>
       </c>
       <c r="C64" s="4">
-        <v>3904</v>
+        <v>3901</v>
       </c>
       <c r="D64" s="4">
         <v>512</v>
@@ -1911,16 +1911,16 @@
         <v>43919</v>
       </c>
       <c r="B65" s="4">
-        <v>62593</v>
+        <v>62609</v>
       </c>
       <c r="C65" s="4">
-        <v>4437</v>
+        <v>4434</v>
       </c>
       <c r="D65" s="4">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="E65" s="4">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F65" s="4">
         <v>50</v>
@@ -1934,16 +1934,16 @@
         <v>43920</v>
       </c>
       <c r="B66" s="4">
-        <v>69689</v>
+        <v>69705</v>
       </c>
       <c r="C66" s="4">
-        <v>4985</v>
+        <v>4980</v>
       </c>
       <c r="D66" s="4">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="E66" s="4">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F66" s="4">
         <v>55</v>
@@ -1957,16 +1957,16 @@
         <v>43921</v>
       </c>
       <c r="B67" s="4">
-        <v>77664</v>
+        <v>77687</v>
       </c>
       <c r="C67" s="4">
         <v>5713</v>
       </c>
       <c r="D67" s="4">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="E67" s="4">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F67" s="4">
         <v>64</v>
@@ -1980,16 +1980,16 @@
         <v>43922</v>
       </c>
       <c r="B68" s="4">
-        <v>86661</v>
+        <v>86693</v>
       </c>
       <c r="C68" s="4">
         <v>6408</v>
       </c>
       <c r="D68" s="4">
-        <v>767</v>
+        <v>769</v>
       </c>
       <c r="E68" s="4">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="F68" s="4">
         <v>72</v>
@@ -2003,16 +2003,16 @@
         <v>43923</v>
       </c>
       <c r="B69" s="4">
-        <v>96891</v>
+        <v>96917</v>
       </c>
       <c r="C69" s="4">
-        <v>7129</v>
+        <v>7128</v>
       </c>
       <c r="D69" s="4">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="E69" s="4">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="F69" s="4">
         <v>79</v>
@@ -2026,16 +2026,16 @@
         <v>43924</v>
       </c>
       <c r="B70" s="4">
-        <v>107217</v>
+        <v>107254</v>
       </c>
       <c r="C70" s="4">
-        <v>7726</v>
+        <v>7725</v>
       </c>
       <c r="D70" s="4">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="E70" s="4">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F70" s="4">
         <v>92</v>
@@ -2049,16 +2049,16 @@
         <v>43925</v>
       </c>
       <c r="B71" s="4">
-        <v>113561</v>
+        <v>113602</v>
       </c>
       <c r="C71" s="4">
-        <v>8154</v>
+        <v>8153</v>
       </c>
       <c r="D71" s="4">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="E71" s="4">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="F71" s="4">
         <v>107</v>
@@ -2072,16 +2072,16 @@
         <v>43926</v>
       </c>
       <c r="B72" s="4">
-        <v>122923</v>
+        <v>122967</v>
       </c>
       <c r="C72" s="4">
-        <v>8733</v>
+        <v>8732</v>
       </c>
       <c r="D72" s="4">
-        <v>824</v>
+        <v>825</v>
       </c>
       <c r="E72" s="4">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="F72" s="4">
         <v>106</v>
@@ -2095,16 +2095,16 @@
         <v>43927</v>
       </c>
       <c r="B73" s="4">
-        <v>130416</v>
+        <v>130466</v>
       </c>
       <c r="C73" s="4">
-        <v>9185</v>
+        <v>9184</v>
       </c>
       <c r="D73" s="4">
-        <v>807</v>
+        <v>809</v>
       </c>
       <c r="E73" s="4">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="F73" s="4">
         <v>110</v>
@@ -2118,7 +2118,7 @@
         <v>43928</v>
       </c>
       <c r="B74" s="4">
-        <v>137343</v>
+        <v>137407</v>
       </c>
       <c r="C74" s="4">
         <v>9564</v>
@@ -2127,7 +2127,7 @@
         <v>744</v>
       </c>
       <c r="E74" s="4">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="F74" s="4">
         <v>106</v>
@@ -2141,16 +2141,16 @@
         <v>43929</v>
       </c>
       <c r="B75" s="4">
-        <v>143216</v>
+        <v>143288</v>
       </c>
       <c r="C75" s="4">
         <v>9902</v>
       </c>
       <c r="D75" s="4">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="E75" s="4">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="F75" s="4">
         <v>114</v>
@@ -2164,16 +2164,16 @@
         <v>43930</v>
       </c>
       <c r="B76" s="4">
-        <v>148960</v>
+        <v>149033</v>
       </c>
       <c r="C76" s="4">
         <v>10246</v>
       </c>
       <c r="D76" s="4">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="E76" s="4">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="F76" s="4">
         <v>117</v>
@@ -2187,13 +2187,13 @@
         <v>43931</v>
       </c>
       <c r="B77" s="4">
-        <v>156283</v>
+        <v>156367</v>
       </c>
       <c r="C77" s="4">
         <v>10606</v>
       </c>
       <c r="D77" s="4">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="E77" s="4">
         <v>169</v>
@@ -2210,13 +2210,13 @@
         <v>43932</v>
       </c>
       <c r="B78" s="4">
-        <v>162973</v>
+        <v>163062</v>
       </c>
       <c r="C78" s="4">
         <v>10951</v>
       </c>
       <c r="D78" s="4">
-        <v>624</v>
+        <v>626</v>
       </c>
       <c r="E78" s="4">
         <v>182</v>
@@ -2233,13 +2233,13 @@
         <v>43933</v>
       </c>
       <c r="B79" s="4">
-        <v>173587</v>
+        <v>173675</v>
       </c>
       <c r="C79" s="4">
-        <v>11508</v>
+        <v>11507</v>
       </c>
       <c r="D79" s="4">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="E79" s="4">
         <v>177</v>
@@ -2256,13 +2256,13 @@
         <v>43934</v>
       </c>
       <c r="B80" s="4">
-        <v>184542</v>
+        <v>184639</v>
       </c>
       <c r="C80" s="4">
-        <v>11951</v>
+        <v>11948</v>
       </c>
       <c r="D80" s="4">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="E80" s="4">
         <v>192</v>
@@ -2279,10 +2279,10 @@
         <v>43935</v>
       </c>
       <c r="B81" s="4">
-        <v>197204</v>
+        <v>197306</v>
       </c>
       <c r="C81" s="4">
-        <v>12353</v>
+        <v>12349</v>
       </c>
       <c r="D81" s="4">
         <v>673</v>
@@ -2291,7 +2291,7 @@
         <v>178</v>
       </c>
       <c r="F81" s="4">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G81" s="4">
         <v>124</v>
@@ -2302,10 +2302,10 @@
         <v>43936</v>
       </c>
       <c r="B82" s="4">
-        <v>206648</v>
+        <v>206769</v>
       </c>
       <c r="C82" s="4">
-        <v>12663</v>
+        <v>12659</v>
       </c>
       <c r="D82" s="4">
         <v>672</v>
@@ -2325,16 +2325,16 @@
         <v>43937</v>
       </c>
       <c r="B83" s="4">
-        <v>219430</v>
+        <v>219557</v>
       </c>
       <c r="C83" s="4">
-        <v>12964</v>
+        <v>12960</v>
       </c>
       <c r="D83" s="4">
         <v>703</v>
       </c>
       <c r="E83" s="4">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F83" s="4">
         <v>136</v>
@@ -2348,10 +2348,10 @@
         <v>43938</v>
       </c>
       <c r="B84" s="4">
-        <v>231008</v>
+        <v>231152</v>
       </c>
       <c r="C84" s="4">
-        <v>13262</v>
+        <v>13256</v>
       </c>
       <c r="D84" s="4">
         <v>664</v>
@@ -2371,10 +2371,10 @@
         <v>43939</v>
       </c>
       <c r="B85" s="4">
-        <v>241641</v>
+        <v>241770</v>
       </c>
       <c r="C85" s="4">
-        <v>13571</v>
+        <v>13556</v>
       </c>
       <c r="D85" s="4">
         <v>643</v>
@@ -2394,10 +2394,10 @@
         <v>43940</v>
       </c>
       <c r="B86" s="4">
-        <v>253105</v>
+        <v>253240</v>
       </c>
       <c r="C86" s="4">
-        <v>13852</v>
+        <v>13837</v>
       </c>
       <c r="D86" s="4">
         <v>619</v>
@@ -2417,10 +2417,10 @@
         <v>43941</v>
       </c>
       <c r="B87" s="4">
-        <v>268452</v>
+        <v>268584</v>
       </c>
       <c r="C87" s="4">
-        <v>14153</v>
+        <v>14137</v>
       </c>
       <c r="D87" s="4">
         <v>611</v>
@@ -2440,10 +2440,10 @@
         <v>43942</v>
       </c>
       <c r="B88" s="4">
-        <v>282044</v>
+        <v>282194</v>
       </c>
       <c r="C88" s="4">
-        <v>14442</v>
+        <v>14422</v>
       </c>
       <c r="D88" s="4">
         <v>543</v>
@@ -2463,10 +2463,10 @@
         <v>43943</v>
       </c>
       <c r="B89" s="4">
-        <v>295344</v>
+        <v>295500</v>
       </c>
       <c r="C89" s="4">
-        <v>14669</v>
+        <v>14649</v>
       </c>
       <c r="D89" s="4">
         <v>531</v>
@@ -2486,10 +2486,10 @@
         <v>43944</v>
       </c>
       <c r="B90" s="4">
-        <v>309529</v>
+        <v>309703</v>
       </c>
       <c r="C90" s="4">
-        <v>14949</v>
+        <v>14925</v>
       </c>
       <c r="D90" s="4">
         <v>502</v>
@@ -2498,7 +2498,7 @@
         <v>146</v>
       </c>
       <c r="F90" s="4">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G90" s="4">
         <v>194</v>
@@ -2509,13 +2509,13 @@
         <v>43945</v>
       </c>
       <c r="B91" s="4">
-        <v>322144</v>
+        <v>322332</v>
       </c>
       <c r="C91" s="4">
-        <v>15204</v>
+        <v>15179</v>
       </c>
       <c r="D91" s="4">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="E91" s="4">
         <v>144</v>
@@ -2532,10 +2532,10 @@
         <v>43946</v>
       </c>
       <c r="B92" s="4">
-        <v>331225</v>
+        <v>331420</v>
       </c>
       <c r="C92" s="4">
-        <v>15364</v>
+        <v>15338</v>
       </c>
       <c r="D92" s="4">
         <v>441</v>
@@ -2555,19 +2555,19 @@
         <v>43947</v>
       </c>
       <c r="B93" s="4">
-        <v>339699</v>
+        <v>339890</v>
       </c>
       <c r="C93" s="4">
-        <v>15452</v>
+        <v>15425</v>
       </c>
       <c r="D93" s="4">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="E93" s="4">
         <v>142</v>
       </c>
       <c r="F93" s="4">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G93" s="4">
         <v>202</v>
@@ -2578,10 +2578,10 @@
         <v>43948</v>
       </c>
       <c r="B94" s="4">
-        <v>350720</v>
+        <v>351008</v>
       </c>
       <c r="C94" s="4">
-        <v>15566</v>
+        <v>15539</v>
       </c>
       <c r="D94" s="4">
         <v>411</v>
@@ -2601,10 +2601,10 @@
         <v>43949</v>
       </c>
       <c r="B95" s="4">
-        <v>361365</v>
+        <v>361649</v>
       </c>
       <c r="C95" s="4">
-        <v>15734</v>
+        <v>15699</v>
       </c>
       <c r="D95" s="4">
         <v>390</v>
@@ -2624,10 +2624,10 @@
         <v>43950</v>
       </c>
       <c r="B96" s="4">
-        <v>370367</v>
+        <v>370649</v>
       </c>
       <c r="C96" s="4">
-        <v>15817</v>
+        <v>15781</v>
       </c>
       <c r="D96" s="4">
         <v>376</v>
@@ -2647,10 +2647,10 @@
         <v>43951</v>
       </c>
       <c r="B97" s="4">
-        <v>380299</v>
+        <v>380587</v>
       </c>
       <c r="C97" s="4">
-        <v>15961</v>
+        <v>15925</v>
       </c>
       <c r="D97" s="4">
         <v>377</v>
@@ -2670,13 +2670,13 @@
         <v>43952</v>
       </c>
       <c r="B98" s="4">
-        <v>391348</v>
+        <v>391647</v>
       </c>
       <c r="C98" s="4">
-        <v>16078</v>
+        <v>16042</v>
       </c>
       <c r="D98" s="4">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="E98" s="4">
         <v>111</v>
@@ -2693,10 +2693,10 @@
         <v>43953</v>
       </c>
       <c r="B99" s="4">
-        <v>396916</v>
+        <v>397214</v>
       </c>
       <c r="C99" s="4">
-        <v>16135</v>
+        <v>16099</v>
       </c>
       <c r="D99" s="4">
         <v>334</v>
@@ -2716,13 +2716,13 @@
         <v>43954</v>
       </c>
       <c r="B100" s="4">
-        <v>404944</v>
+        <v>405253</v>
       </c>
       <c r="C100" s="4">
-        <v>16164</v>
+        <v>16128</v>
       </c>
       <c r="D100" s="4">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="E100" s="4">
         <v>102</v>
@@ -2739,13 +2739,13 @@
         <v>43955</v>
       </c>
       <c r="B101" s="4">
-        <v>414205</v>
+        <v>414505</v>
       </c>
       <c r="C101" s="4">
-        <v>16219</v>
+        <v>16182</v>
       </c>
       <c r="D101" s="4">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="E101" s="4">
         <v>98</v>
@@ -2762,13 +2762,13 @@
         <v>43956</v>
       </c>
       <c r="B102" s="4">
-        <v>423158</v>
+        <v>423467</v>
       </c>
       <c r="C102" s="4">
-        <v>16253</v>
+        <v>16215</v>
       </c>
       <c r="D102" s="4">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="E102" s="4">
         <v>92</v>
@@ -2785,13 +2785,13 @@
         <v>43957</v>
       </c>
       <c r="B103" s="4">
-        <v>432614</v>
+        <v>432932</v>
       </c>
       <c r="C103" s="4">
-        <v>16319</v>
+        <v>16280</v>
       </c>
       <c r="D103" s="4">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="E103" s="4">
         <v>89</v>
@@ -2801,6 +2801,328 @@
       </c>
       <c r="G103" s="4">
         <v>239</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A104" s="3">
+        <v>43958</v>
+      </c>
+      <c r="B104" s="4">
+        <v>443042</v>
+      </c>
+      <c r="C104" s="4">
+        <v>16341</v>
+      </c>
+      <c r="D104" s="4">
+        <v>256</v>
+      </c>
+      <c r="E104" s="4">
+        <v>85</v>
+      </c>
+      <c r="F104" s="4">
+        <v>70</v>
+      </c>
+      <c r="G104" s="4">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A105" s="3">
+        <v>43959</v>
+      </c>
+      <c r="B105" s="4">
+        <v>451208</v>
+      </c>
+      <c r="C105" s="4">
+        <v>16374</v>
+      </c>
+      <c r="D105" s="4">
+        <v>239</v>
+      </c>
+      <c r="E105" s="4">
+        <v>78</v>
+      </c>
+      <c r="F105" s="4">
+        <v>63</v>
+      </c>
+      <c r="G105" s="4">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A106" s="3">
+        <v>43960</v>
+      </c>
+      <c r="B106" s="4">
+        <v>455080</v>
+      </c>
+      <c r="C106" s="4">
+        <v>16392</v>
+      </c>
+      <c r="D106" s="4">
+        <v>238</v>
+      </c>
+      <c r="E106" s="4">
+        <v>78</v>
+      </c>
+      <c r="F106" s="4">
+        <v>63</v>
+      </c>
+      <c r="G106" s="4">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A107" s="3">
+        <v>43961</v>
+      </c>
+      <c r="B107" s="4">
+        <v>460019</v>
+      </c>
+      <c r="C107" s="4">
+        <v>16421</v>
+      </c>
+      <c r="D107" s="4">
+        <v>242</v>
+      </c>
+      <c r="E107" s="4">
+        <v>74</v>
+      </c>
+      <c r="F107" s="4">
+        <v>65</v>
+      </c>
+      <c r="G107" s="4">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A108" s="3">
+        <v>43962</v>
+      </c>
+      <c r="B108" s="4">
+        <v>469220</v>
+      </c>
+      <c r="C108" s="4">
+        <v>16464</v>
+      </c>
+      <c r="D108" s="4">
+        <v>225</v>
+      </c>
+      <c r="E108" s="4">
+        <v>69</v>
+      </c>
+      <c r="F108" s="4">
+        <v>59</v>
+      </c>
+      <c r="G108" s="4">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A109" s="3">
+        <v>43963</v>
+      </c>
+      <c r="B109" s="4">
+        <v>476742</v>
+      </c>
+      <c r="C109" s="4">
+        <v>16488</v>
+      </c>
+      <c r="D109" s="4">
+        <v>220</v>
+      </c>
+      <c r="E109" s="4">
+        <v>65</v>
+      </c>
+      <c r="F109" s="4">
+        <v>55</v>
+      </c>
+      <c r="G109" s="4">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A110" s="3">
+        <v>43964</v>
+      </c>
+      <c r="B110" s="4">
+        <v>484884</v>
+      </c>
+      <c r="C110" s="4">
+        <v>16525</v>
+      </c>
+      <c r="D110" s="4">
+        <v>197</v>
+      </c>
+      <c r="E110" s="4">
+        <v>61</v>
+      </c>
+      <c r="F110" s="4">
+        <v>52</v>
+      </c>
+      <c r="G110" s="4">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A111" s="3">
+        <v>43965</v>
+      </c>
+      <c r="B111" s="4">
+        <v>493189</v>
+      </c>
+      <c r="C111" s="4">
+        <v>16548</v>
+      </c>
+      <c r="D111" s="4">
+        <v>188</v>
+      </c>
+      <c r="E111" s="4">
+        <v>61</v>
+      </c>
+      <c r="F111" s="4">
+        <v>51</v>
+      </c>
+      <c r="G111" s="4">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A112" s="3">
+        <v>43966</v>
+      </c>
+      <c r="B112" s="4">
+        <v>498847</v>
+      </c>
+      <c r="C112" s="4">
+        <v>16561</v>
+      </c>
+      <c r="D112" s="4">
+        <v>181</v>
+      </c>
+      <c r="E112" s="4">
+        <v>61</v>
+      </c>
+      <c r="F112" s="4">
+        <v>51</v>
+      </c>
+      <c r="G112" s="4">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A113" s="3">
+        <v>43967</v>
+      </c>
+      <c r="B113" s="4">
+        <v>500355</v>
+      </c>
+      <c r="C113" s="4">
+        <v>16566</v>
+      </c>
+      <c r="D113" s="4">
+        <v>177</v>
+      </c>
+      <c r="E113" s="4">
+        <v>60</v>
+      </c>
+      <c r="F113" s="4">
+        <v>50</v>
+      </c>
+      <c r="G113" s="4">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A114" s="3">
+        <v>43968</v>
+      </c>
+      <c r="B114" s="4">
+        <v>504969</v>
+      </c>
+      <c r="C114" s="4">
+        <v>16581</v>
+      </c>
+      <c r="D114" s="4">
+        <v>185</v>
+      </c>
+      <c r="E114" s="4">
+        <v>55</v>
+      </c>
+      <c r="F114" s="4">
+        <v>44</v>
+      </c>
+      <c r="G114" s="4">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A115" s="3">
+        <v>43969</v>
+      </c>
+      <c r="B115" s="4">
+        <v>512643</v>
+      </c>
+      <c r="C115" s="4">
+        <v>16610</v>
+      </c>
+      <c r="D115" s="4">
+        <v>170</v>
+      </c>
+      <c r="E115" s="4">
+        <v>52</v>
+      </c>
+      <c r="F115" s="4">
+        <v>42</v>
+      </c>
+      <c r="G115" s="4">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A116" s="3">
+        <v>43970</v>
+      </c>
+      <c r="B116" s="4">
+        <v>519760</v>
+      </c>
+      <c r="C116" s="4">
+        <v>16632</v>
+      </c>
+      <c r="D116" s="4">
+        <v>158</v>
+      </c>
+      <c r="E116" s="4">
+        <v>51</v>
+      </c>
+      <c r="F116" s="4">
+        <v>39</v>
+      </c>
+      <c r="G116" s="4">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A117" s="3">
+        <v>43971</v>
+      </c>
+      <c r="B117" s="4">
+        <v>525728</v>
+      </c>
+      <c r="C117" s="4">
+        <v>16647</v>
+      </c>
+      <c r="D117" s="4">
+        <v>152</v>
+      </c>
+      <c r="E117" s="4">
+        <v>46</v>
+      </c>
+      <c r="F117" s="4">
+        <v>40</v>
+      </c>
+      <c r="G117" s="4">
+        <v>279</v>
       </c>
     </row>
   </sheetData>

--- a/data/Israel/covid19-data-israel.xlsx
+++ b/data/Israel/covid19-data-israel.xlsx
@@ -5,21 +5,21 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matan.har-zvi\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matan.har-zvi\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7080"/>
   </bookViews>
   <sheets>
-    <sheet name="Covid19 Data Israel 23072020" sheetId="1" r:id="rId1"/>
+    <sheet name="covid-19-data-israel-12082020" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="123">
   <si>
     <t>תאריך</t>
   </si>
@@ -364,6 +364,30 @@
   </si>
   <si>
     <t>7/23/2020 12:00:00 AM</t>
+  </si>
+  <si>
+    <t>7/24/2020 12:00:00 AM</t>
+  </si>
+  <si>
+    <t>7/25/2020 12:00:00 AM</t>
+  </si>
+  <si>
+    <t>7/26/2020 12:00:00 AM</t>
+  </si>
+  <si>
+    <t>7/27/2020 12:00:00 AM</t>
+  </si>
+  <si>
+    <t>7/28/2020 12:00:00 AM</t>
+  </si>
+  <si>
+    <t>7/29/2020 12:00:00 AM</t>
+  </si>
+  <si>
+    <t>7/30/2020 12:00:00 AM</t>
+  </si>
+  <si>
+    <t>7/31/2020 12:00:00 AM</t>
   </si>
 </sst>
 </file>
@@ -1190,9 +1214,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G181"/>
+  <dimension ref="A1:G201"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A166" workbookViewId="0"/>
+    <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
+      <selection activeCell="L10" sqref="L10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
@@ -1236,7 +1262,7 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -1259,7 +1285,7 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -1282,7 +1308,7 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -1305,7 +1331,7 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -1328,7 +1354,7 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -1351,7 +1377,7 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -1374,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -1397,7 +1423,7 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -1420,7 +1446,7 @@
         <v>0</v>
       </c>
       <c r="F10">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -1443,7 +1469,7 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -1466,7 +1492,7 @@
         <v>0</v>
       </c>
       <c r="F12">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -1489,7 +1515,7 @@
         <v>0</v>
       </c>
       <c r="F13">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -1512,7 +1538,7 @@
         <v>0</v>
       </c>
       <c r="F14">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -1535,7 +1561,7 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -1558,7 +1584,7 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -1581,7 +1607,7 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -1604,7 +1630,7 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -1627,7 +1653,7 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -1650,7 +1676,7 @@
         <v>0</v>
       </c>
       <c r="F20">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -1673,7 +1699,7 @@
         <v>0</v>
       </c>
       <c r="F21">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -1696,7 +1722,7 @@
         <v>0</v>
       </c>
       <c r="F22">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -1719,7 +1745,7 @@
         <v>0</v>
       </c>
       <c r="F23">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -1742,7 +1768,7 @@
         <v>0</v>
       </c>
       <c r="F24">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -1765,7 +1791,7 @@
         <v>0</v>
       </c>
       <c r="F25">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -1788,7 +1814,7 @@
         <v>0</v>
       </c>
       <c r="F26">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="G26">
         <v>0</v>
@@ -1811,7 +1837,7 @@
         <v>0</v>
       </c>
       <c r="F27">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="G27">
         <v>0</v>
@@ -1834,7 +1860,7 @@
         <v>0</v>
       </c>
       <c r="F28">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="G28">
         <v>0</v>
@@ -1857,7 +1883,7 @@
         <v>0</v>
       </c>
       <c r="F29">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="G29">
         <v>0</v>
@@ -1880,7 +1906,7 @@
         <v>0</v>
       </c>
       <c r="F30">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="G30">
         <v>0</v>
@@ -1903,7 +1929,7 @@
         <v>0</v>
       </c>
       <c r="F31">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="G31">
         <v>0</v>
@@ -1926,7 +1952,7 @@
         <v>0</v>
       </c>
       <c r="F32">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="G32">
         <v>0</v>
@@ -1949,7 +1975,7 @@
         <v>0</v>
       </c>
       <c r="F33">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="G33">
         <v>0</v>
@@ -1972,7 +1998,7 @@
         <v>0</v>
       </c>
       <c r="F34">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="G34">
         <v>0</v>
@@ -1995,7 +2021,7 @@
         <v>0</v>
       </c>
       <c r="F35">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G35">
         <v>0</v>
@@ -2018,7 +2044,7 @@
         <v>0</v>
       </c>
       <c r="F36">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G36">
         <v>0</v>
@@ -2041,7 +2067,7 @@
         <v>0</v>
       </c>
       <c r="F37">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="G37">
         <v>0</v>
@@ -2064,7 +2090,7 @@
         <v>0</v>
       </c>
       <c r="F38">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="G38">
         <v>0</v>
@@ -2087,7 +2113,7 @@
         <v>0</v>
       </c>
       <c r="F39">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="G39">
         <v>0</v>
@@ -2104,13 +2130,13 @@
         <v>0</v>
       </c>
       <c r="D40">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E40">
         <v>0</v>
       </c>
       <c r="F40">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="G40">
         <v>0</v>
@@ -2133,7 +2159,7 @@
         <v>0</v>
       </c>
       <c r="F41">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="G41">
         <v>0</v>
@@ -2156,7 +2182,7 @@
         <v>1</v>
       </c>
       <c r="F42">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="G42">
         <v>0</v>
@@ -2179,7 +2205,7 @@
         <v>2</v>
       </c>
       <c r="F43">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="G43">
         <v>0</v>
@@ -2202,7 +2228,7 @@
         <v>4</v>
       </c>
       <c r="F44">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="G44">
         <v>0</v>
@@ -2225,7 +2251,7 @@
         <v>5</v>
       </c>
       <c r="F45">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="G45">
         <v>0</v>
@@ -2248,7 +2274,7 @@
         <v>5</v>
       </c>
       <c r="F46">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="G46">
         <v>0</v>
@@ -2271,7 +2297,7 @@
         <v>6</v>
       </c>
       <c r="F47">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="G47">
         <v>0</v>
@@ -2294,7 +2320,7 @@
         <v>6</v>
       </c>
       <c r="F48">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="G48">
         <v>0</v>
@@ -2317,7 +2343,7 @@
         <v>6</v>
       </c>
       <c r="F49">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="G49">
         <v>0</v>
@@ -2340,7 +2366,7 @@
         <v>4</v>
       </c>
       <c r="F50">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="G50">
         <v>0</v>
@@ -2363,7 +2389,7 @@
         <v>6</v>
       </c>
       <c r="F51">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="G51">
         <v>0</v>
@@ -2386,7 +2412,7 @@
         <v>7</v>
       </c>
       <c r="F52">
-        <v>292</v>
+        <v>297</v>
       </c>
       <c r="G52">
         <v>0</v>
@@ -2409,7 +2435,7 @@
         <v>7</v>
       </c>
       <c r="F53">
-        <v>386</v>
+        <v>391</v>
       </c>
       <c r="G53">
         <v>0</v>
@@ -2432,7 +2458,7 @@
         <v>7</v>
       </c>
       <c r="F54">
-        <v>504</v>
+        <v>509</v>
       </c>
       <c r="G54">
         <v>0</v>
@@ -2455,7 +2481,7 @@
         <v>12</v>
       </c>
       <c r="F55">
-        <v>639</v>
+        <v>644</v>
       </c>
       <c r="G55">
         <v>0</v>
@@ -2478,7 +2504,7 @@
         <v>12</v>
       </c>
       <c r="F56">
-        <v>807</v>
+        <v>812</v>
       </c>
       <c r="G56">
         <v>1</v>
@@ -2501,7 +2527,7 @@
         <v>15</v>
       </c>
       <c r="F57" s="2">
-        <v>1017</v>
+        <v>1022</v>
       </c>
       <c r="G57">
         <v>1</v>
@@ -2524,7 +2550,7 @@
         <v>22</v>
       </c>
       <c r="F58" s="2">
-        <v>1271</v>
+        <v>1276</v>
       </c>
       <c r="G58">
         <v>1</v>
@@ -2547,7 +2573,7 @@
         <v>24</v>
       </c>
       <c r="F59" s="2">
-        <v>1623</v>
+        <v>1628</v>
       </c>
       <c r="G59">
         <v>1</v>
@@ -2570,7 +2596,7 @@
         <v>26</v>
       </c>
       <c r="F60" s="2">
-        <v>2046</v>
+        <v>2051</v>
       </c>
       <c r="G60">
         <v>4</v>
@@ -2593,7 +2619,7 @@
         <v>28</v>
       </c>
       <c r="F61" s="2">
-        <v>2471</v>
+        <v>2476</v>
       </c>
       <c r="G61">
         <v>5</v>
@@ -2616,7 +2642,7 @@
         <v>31</v>
       </c>
       <c r="F62" s="2">
-        <v>2991</v>
+        <v>2996</v>
       </c>
       <c r="G62">
         <v>10</v>
@@ -2639,7 +2665,7 @@
         <v>37</v>
       </c>
       <c r="F63" s="2">
-        <v>3425</v>
+        <v>3430</v>
       </c>
       <c r="G63">
         <v>12</v>
@@ -2662,7 +2688,7 @@
         <v>41</v>
       </c>
       <c r="F64" s="2">
-        <v>3905</v>
+        <v>3910</v>
       </c>
       <c r="G64">
         <v>13</v>
@@ -2685,7 +2711,7 @@
         <v>50</v>
       </c>
       <c r="F65" s="2">
-        <v>4437</v>
+        <v>4442</v>
       </c>
       <c r="G65">
         <v>16</v>
@@ -2708,7 +2734,7 @@
         <v>55</v>
       </c>
       <c r="F66" s="2">
-        <v>4983</v>
+        <v>4988</v>
       </c>
       <c r="G66">
         <v>17</v>
@@ -2722,7 +2748,7 @@
         <v>77810</v>
       </c>
       <c r="C67">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D67">
         <v>668</v>
@@ -2731,7 +2757,7 @@
         <v>64</v>
       </c>
       <c r="F67" s="2">
-        <v>5721</v>
+        <v>5726</v>
       </c>
       <c r="G67">
         <v>21</v>
@@ -2754,7 +2780,7 @@
         <v>72</v>
       </c>
       <c r="F68" s="2">
-        <v>6418</v>
+        <v>6423</v>
       </c>
       <c r="G68">
         <v>29</v>
@@ -2777,7 +2803,7 @@
         <v>79</v>
       </c>
       <c r="F69" s="2">
-        <v>7137</v>
+        <v>7142</v>
       </c>
       <c r="G69">
         <v>39</v>
@@ -2800,7 +2826,7 @@
         <v>93</v>
       </c>
       <c r="F70" s="2">
-        <v>7734</v>
+        <v>7739</v>
       </c>
       <c r="G70">
         <v>44</v>
@@ -2823,7 +2849,7 @@
         <v>107</v>
       </c>
       <c r="F71" s="2">
-        <v>8161</v>
+        <v>8166</v>
       </c>
       <c r="G71">
         <v>51</v>
@@ -2846,7 +2872,7 @@
         <v>106</v>
       </c>
       <c r="F72" s="2">
-        <v>8744</v>
+        <v>8749</v>
       </c>
       <c r="G72">
         <v>57</v>
@@ -2869,7 +2895,7 @@
         <v>110</v>
       </c>
       <c r="F73" s="2">
-        <v>9195</v>
+        <v>9200</v>
       </c>
       <c r="G73">
         <v>64</v>
@@ -2892,7 +2918,7 @@
         <v>106</v>
       </c>
       <c r="F74" s="2">
-        <v>9573</v>
+        <v>9578</v>
       </c>
       <c r="G74">
         <v>71</v>
@@ -2909,13 +2935,13 @@
         <v>166</v>
       </c>
       <c r="D75">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="E75">
         <v>115</v>
       </c>
       <c r="F75" s="2">
-        <v>9911</v>
+        <v>9916</v>
       </c>
       <c r="G75">
         <v>80</v>
@@ -2926,7 +2952,7 @@
         <v>44078</v>
       </c>
       <c r="B76" s="2">
-        <v>149220</v>
+        <v>149219</v>
       </c>
       <c r="C76">
         <v>166</v>
@@ -2938,7 +2964,7 @@
         <v>117</v>
       </c>
       <c r="F76" s="2">
-        <v>10254</v>
+        <v>10259</v>
       </c>
       <c r="G76">
         <v>89</v>
@@ -2949,7 +2975,7 @@
         <v>44108</v>
       </c>
       <c r="B77" s="2">
-        <v>156566</v>
+        <v>156565</v>
       </c>
       <c r="C77">
         <v>170</v>
@@ -2961,7 +2987,7 @@
         <v>128</v>
       </c>
       <c r="F77" s="2">
-        <v>10613</v>
+        <v>10618</v>
       </c>
       <c r="G77">
         <v>97</v>
@@ -2972,7 +2998,7 @@
         <v>44139</v>
       </c>
       <c r="B78" s="2">
-        <v>163268</v>
+        <v>163267</v>
       </c>
       <c r="C78">
         <v>182</v>
@@ -2984,7 +3010,7 @@
         <v>130</v>
       </c>
       <c r="F78" s="2">
-        <v>10958</v>
+        <v>10963</v>
       </c>
       <c r="G78">
         <v>103</v>
@@ -2995,7 +3021,7 @@
         <v>44169</v>
       </c>
       <c r="B79" s="2">
-        <v>173868</v>
+        <v>173867</v>
       </c>
       <c r="C79">
         <v>177</v>
@@ -3007,7 +3033,7 @@
         <v>130</v>
       </c>
       <c r="F79" s="2">
-        <v>11512</v>
+        <v>11517</v>
       </c>
       <c r="G79">
         <v>110</v>
@@ -3018,7 +3044,7 @@
         <v>49</v>
       </c>
       <c r="B80" s="2">
-        <v>184817</v>
+        <v>184816</v>
       </c>
       <c r="C80">
         <v>192</v>
@@ -3030,7 +3056,7 @@
         <v>137</v>
       </c>
       <c r="F80" s="2">
-        <v>11950</v>
+        <v>11955</v>
       </c>
       <c r="G80">
         <v>118</v>
@@ -3041,7 +3067,7 @@
         <v>50</v>
       </c>
       <c r="B81" s="2">
-        <v>197495</v>
+        <v>197494</v>
       </c>
       <c r="C81">
         <v>178</v>
@@ -3053,7 +3079,7 @@
         <v>134</v>
       </c>
       <c r="F81" s="2">
-        <v>12349</v>
+        <v>12354</v>
       </c>
       <c r="G81">
         <v>126</v>
@@ -3064,7 +3090,7 @@
         <v>51</v>
       </c>
       <c r="B82" s="2">
-        <v>206946</v>
+        <v>206945</v>
       </c>
       <c r="C82">
         <v>180</v>
@@ -3076,7 +3102,7 @@
         <v>133</v>
       </c>
       <c r="F82" s="2">
-        <v>12660</v>
+        <v>12665</v>
       </c>
       <c r="G82">
         <v>139</v>
@@ -3087,10 +3113,10 @@
         <v>52</v>
       </c>
       <c r="B83" s="2">
-        <v>219735</v>
+        <v>219734</v>
       </c>
       <c r="C83">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D83">
         <v>703</v>
@@ -3099,7 +3125,7 @@
         <v>136</v>
       </c>
       <c r="F83" s="2">
-        <v>12956</v>
+        <v>12961</v>
       </c>
       <c r="G83">
         <v>146</v>
@@ -3110,19 +3136,19 @@
         <v>53</v>
       </c>
       <c r="B84" s="2">
-        <v>231331</v>
+        <v>231330</v>
       </c>
       <c r="C84">
         <v>166</v>
       </c>
       <c r="D84">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="E84">
         <v>125</v>
       </c>
       <c r="F84" s="2">
-        <v>13254</v>
+        <v>13259</v>
       </c>
       <c r="G84">
         <v>155</v>
@@ -3133,7 +3159,7 @@
         <v>54</v>
       </c>
       <c r="B85" s="2">
-        <v>241938</v>
+        <v>241937</v>
       </c>
       <c r="C85">
         <v>174</v>
@@ -3145,7 +3171,7 @@
         <v>118</v>
       </c>
       <c r="F85" s="2">
-        <v>13545</v>
+        <v>13550</v>
       </c>
       <c r="G85">
         <v>166</v>
@@ -3156,7 +3182,7 @@
         <v>55</v>
       </c>
       <c r="B86" s="2">
-        <v>253418</v>
+        <v>253417</v>
       </c>
       <c r="C86">
         <v>157</v>
@@ -3168,7 +3194,7 @@
         <v>118</v>
       </c>
       <c r="F86" s="2">
-        <v>13822</v>
+        <v>13827</v>
       </c>
       <c r="G86">
         <v>174</v>
@@ -3179,10 +3205,10 @@
         <v>56</v>
       </c>
       <c r="B87" s="2">
-        <v>268785</v>
+        <v>268784</v>
       </c>
       <c r="C87">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D87">
         <v>612</v>
@@ -3191,7 +3217,7 @@
         <v>123</v>
       </c>
       <c r="F87" s="2">
-        <v>14121</v>
+        <v>14126</v>
       </c>
       <c r="G87">
         <v>180</v>
@@ -3202,7 +3228,7 @@
         <v>57</v>
       </c>
       <c r="B88" s="2">
-        <v>282398</v>
+        <v>282397</v>
       </c>
       <c r="C88">
         <v>145</v>
@@ -3214,7 +3240,7 @@
         <v>119</v>
       </c>
       <c r="F88" s="2">
-        <v>14404</v>
+        <v>14409</v>
       </c>
       <c r="G88">
         <v>189</v>
@@ -3225,7 +3251,7 @@
         <v>58</v>
       </c>
       <c r="B89" s="2">
-        <v>295691</v>
+        <v>295690</v>
       </c>
       <c r="C89">
         <v>149</v>
@@ -3237,7 +3263,7 @@
         <v>110</v>
       </c>
       <c r="F89" s="2">
-        <v>14630</v>
+        <v>14635</v>
       </c>
       <c r="G89">
         <v>192</v>
@@ -3248,7 +3274,7 @@
         <v>59</v>
       </c>
       <c r="B90" s="2">
-        <v>309874</v>
+        <v>309873</v>
       </c>
       <c r="C90">
         <v>146</v>
@@ -3260,7 +3286,7 @@
         <v>114</v>
       </c>
       <c r="F90" s="2">
-        <v>14906</v>
+        <v>14911</v>
       </c>
       <c r="G90">
         <v>196</v>
@@ -3271,7 +3297,7 @@
         <v>60</v>
       </c>
       <c r="B91" s="2">
-        <v>322500</v>
+        <v>322499</v>
       </c>
       <c r="C91">
         <v>144</v>
@@ -3283,7 +3309,7 @@
         <v>108</v>
       </c>
       <c r="F91" s="2">
-        <v>15154</v>
+        <v>15159</v>
       </c>
       <c r="G91">
         <v>199</v>
@@ -3294,7 +3320,7 @@
         <v>61</v>
       </c>
       <c r="B92" s="2">
-        <v>331578</v>
+        <v>331577</v>
       </c>
       <c r="C92">
         <v>136</v>
@@ -3306,7 +3332,7 @@
         <v>107</v>
       </c>
       <c r="F92" s="2">
-        <v>15313</v>
+        <v>15318</v>
       </c>
       <c r="G92">
         <v>202</v>
@@ -3317,7 +3343,7 @@
         <v>62</v>
       </c>
       <c r="B93" s="2">
-        <v>340041</v>
+        <v>340040</v>
       </c>
       <c r="C93">
         <v>142</v>
@@ -3329,7 +3355,7 @@
         <v>111</v>
       </c>
       <c r="F93" s="2">
-        <v>15396</v>
+        <v>15401</v>
       </c>
       <c r="G93">
         <v>204</v>
@@ -3340,19 +3366,19 @@
         <v>63</v>
       </c>
       <c r="B94" s="2">
-        <v>351446</v>
+        <v>351444</v>
       </c>
       <c r="C94">
         <v>133</v>
       </c>
       <c r="D94">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="E94">
         <v>102</v>
       </c>
       <c r="F94" s="2">
-        <v>15523</v>
+        <v>15528</v>
       </c>
       <c r="G94">
         <v>208</v>
@@ -3363,7 +3389,7 @@
         <v>64</v>
       </c>
       <c r="B95" s="2">
-        <v>362087</v>
+        <v>362085</v>
       </c>
       <c r="C95">
         <v>128</v>
@@ -3375,7 +3401,7 @@
         <v>101</v>
       </c>
       <c r="F95" s="2">
-        <v>15683</v>
+        <v>15688</v>
       </c>
       <c r="G95">
         <v>213</v>
@@ -3386,7 +3412,7 @@
         <v>65</v>
       </c>
       <c r="B96" s="2">
-        <v>371083</v>
+        <v>371082</v>
       </c>
       <c r="C96">
         <v>121</v>
@@ -3398,7 +3424,7 @@
         <v>96</v>
       </c>
       <c r="F96" s="2">
-        <v>15765</v>
+        <v>15770</v>
       </c>
       <c r="G96">
         <v>219</v>
@@ -3409,7 +3435,7 @@
         <v>66</v>
       </c>
       <c r="B97" s="2">
-        <v>381013</v>
+        <v>381012</v>
       </c>
       <c r="C97">
         <v>113</v>
@@ -3421,7 +3447,7 @@
         <v>90</v>
       </c>
       <c r="F97" s="2">
-        <v>15907</v>
+        <v>15912</v>
       </c>
       <c r="G97">
         <v>225</v>
@@ -3432,7 +3458,7 @@
         <v>43835</v>
       </c>
       <c r="B98" s="2">
-        <v>392065</v>
+        <v>392064</v>
       </c>
       <c r="C98">
         <v>111</v>
@@ -3444,7 +3470,7 @@
         <v>89</v>
       </c>
       <c r="F98" s="2">
-        <v>16024</v>
+        <v>16029</v>
       </c>
       <c r="G98">
         <v>229</v>
@@ -3455,7 +3481,7 @@
         <v>43866</v>
       </c>
       <c r="B99" s="2">
-        <v>397633</v>
+        <v>397632</v>
       </c>
       <c r="C99">
         <v>112</v>
@@ -3467,7 +3493,7 @@
         <v>90</v>
       </c>
       <c r="F99" s="2">
-        <v>16081</v>
+        <v>16086</v>
       </c>
       <c r="G99">
         <v>232</v>
@@ -3478,7 +3504,7 @@
         <v>43895</v>
       </c>
       <c r="B100" s="2">
-        <v>405662</v>
+        <v>405661</v>
       </c>
       <c r="C100">
         <v>102</v>
@@ -3490,7 +3516,7 @@
         <v>84</v>
       </c>
       <c r="F100" s="2">
-        <v>16108</v>
+        <v>16113</v>
       </c>
       <c r="G100">
         <v>235</v>
@@ -3501,7 +3527,7 @@
         <v>43926</v>
       </c>
       <c r="B101" s="2">
-        <v>414919</v>
+        <v>414918</v>
       </c>
       <c r="C101">
         <v>98</v>
@@ -3513,7 +3539,7 @@
         <v>78</v>
       </c>
       <c r="F101" s="2">
-        <v>16161</v>
+        <v>16166</v>
       </c>
       <c r="G101">
         <v>238</v>
@@ -3524,7 +3550,7 @@
         <v>43956</v>
       </c>
       <c r="B102" s="2">
-        <v>423876</v>
+        <v>423875</v>
       </c>
       <c r="C102">
         <v>92</v>
@@ -3536,7 +3562,7 @@
         <v>72</v>
       </c>
       <c r="F102" s="2">
-        <v>16193</v>
+        <v>16198</v>
       </c>
       <c r="G102">
         <v>240</v>
@@ -3547,7 +3573,7 @@
         <v>43987</v>
       </c>
       <c r="B103" s="2">
-        <v>433343</v>
+        <v>433342</v>
       </c>
       <c r="C103">
         <v>89</v>
@@ -3559,7 +3585,7 @@
         <v>70</v>
       </c>
       <c r="F103" s="2">
-        <v>16258</v>
+        <v>16263</v>
       </c>
       <c r="G103">
         <v>241</v>
@@ -3570,7 +3596,7 @@
         <v>44017</v>
       </c>
       <c r="B104" s="2">
-        <v>443462</v>
+        <v>443461</v>
       </c>
       <c r="C104">
         <v>85</v>
@@ -3582,7 +3608,7 @@
         <v>71</v>
       </c>
       <c r="F104" s="2">
-        <v>16319</v>
+        <v>16324</v>
       </c>
       <c r="G104">
         <v>242</v>
@@ -3593,7 +3619,7 @@
         <v>44048</v>
       </c>
       <c r="B105" s="2">
-        <v>451619</v>
+        <v>451617</v>
       </c>
       <c r="C105">
         <v>78</v>
@@ -3605,7 +3631,7 @@
         <v>64</v>
       </c>
       <c r="F105" s="2">
-        <v>16352</v>
+        <v>16357</v>
       </c>
       <c r="G105">
         <v>248</v>
@@ -3616,7 +3642,7 @@
         <v>44079</v>
       </c>
       <c r="B106" s="2">
-        <v>455487</v>
+        <v>455485</v>
       </c>
       <c r="C106">
         <v>78</v>
@@ -3628,7 +3654,7 @@
         <v>64</v>
       </c>
       <c r="F106" s="2">
-        <v>16371</v>
+        <v>16376</v>
       </c>
       <c r="G106">
         <v>250</v>
@@ -3639,7 +3665,7 @@
         <v>44109</v>
       </c>
       <c r="B107" s="2">
-        <v>460431</v>
+        <v>460429</v>
       </c>
       <c r="C107">
         <v>74</v>
@@ -3651,7 +3677,7 @@
         <v>66</v>
       </c>
       <c r="F107" s="2">
-        <v>16400</v>
+        <v>16405</v>
       </c>
       <c r="G107">
         <v>255</v>
@@ -3662,7 +3688,7 @@
         <v>44140</v>
       </c>
       <c r="B108" s="2">
-        <v>469648</v>
+        <v>469646</v>
       </c>
       <c r="C108">
         <v>69</v>
@@ -3674,7 +3700,7 @@
         <v>60</v>
       </c>
       <c r="F108" s="2">
-        <v>16439</v>
+        <v>16444</v>
       </c>
       <c r="G108">
         <v>260</v>
@@ -3691,13 +3717,13 @@
         <v>65</v>
       </c>
       <c r="D109">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="E109">
         <v>56</v>
       </c>
       <c r="F109" s="2">
-        <v>16462</v>
+        <v>16467</v>
       </c>
       <c r="G109">
         <v>263</v>
@@ -3708,7 +3734,7 @@
         <v>67</v>
       </c>
       <c r="B110" s="2">
-        <v>485455</v>
+        <v>485456</v>
       </c>
       <c r="C110">
         <v>61</v>
@@ -3720,7 +3746,7 @@
         <v>53</v>
       </c>
       <c r="F110" s="2">
-        <v>16499</v>
+        <v>16504</v>
       </c>
       <c r="G110">
         <v>266</v>
@@ -3731,7 +3757,7 @@
         <v>68</v>
       </c>
       <c r="B111" s="2">
-        <v>493871</v>
+        <v>493872</v>
       </c>
       <c r="C111">
         <v>61</v>
@@ -3743,7 +3769,7 @@
         <v>52</v>
       </c>
       <c r="F111" s="2">
-        <v>16523</v>
+        <v>16528</v>
       </c>
       <c r="G111">
         <v>268</v>
@@ -3754,7 +3780,7 @@
         <v>69</v>
       </c>
       <c r="B112" s="2">
-        <v>499566</v>
+        <v>499568</v>
       </c>
       <c r="C112">
         <v>61</v>
@@ -3766,7 +3792,7 @@
         <v>52</v>
       </c>
       <c r="F112" s="2">
-        <v>16535</v>
+        <v>16540</v>
       </c>
       <c r="G112">
         <v>268</v>
@@ -3777,7 +3803,7 @@
         <v>70</v>
       </c>
       <c r="B113" s="2">
-        <v>501068</v>
+        <v>501070</v>
       </c>
       <c r="C113">
         <v>60</v>
@@ -3789,7 +3815,7 @@
         <v>51</v>
       </c>
       <c r="F113" s="2">
-        <v>16540</v>
+        <v>16545</v>
       </c>
       <c r="G113">
         <v>271</v>
@@ -3800,7 +3826,7 @@
         <v>71</v>
       </c>
       <c r="B114" s="2">
-        <v>505701</v>
+        <v>505703</v>
       </c>
       <c r="C114">
         <v>55</v>
@@ -3812,7 +3838,7 @@
         <v>45</v>
       </c>
       <c r="F114" s="2">
-        <v>16555</v>
+        <v>16560</v>
       </c>
       <c r="G114">
         <v>275</v>
@@ -3823,7 +3849,7 @@
         <v>72</v>
       </c>
       <c r="B115" s="2">
-        <v>513393</v>
+        <v>513395</v>
       </c>
       <c r="C115">
         <v>52</v>
@@ -3835,7 +3861,7 @@
         <v>43</v>
       </c>
       <c r="F115" s="2">
-        <v>16582</v>
+        <v>16587</v>
       </c>
       <c r="G115">
         <v>278</v>
@@ -3846,7 +3872,7 @@
         <v>73</v>
       </c>
       <c r="B116" s="2">
-        <v>520534</v>
+        <v>520537</v>
       </c>
       <c r="C116">
         <v>51</v>
@@ -3858,7 +3884,7 @@
         <v>40</v>
       </c>
       <c r="F116" s="2">
-        <v>16604</v>
+        <v>16609</v>
       </c>
       <c r="G116">
         <v>280</v>
@@ -3869,7 +3895,7 @@
         <v>74</v>
       </c>
       <c r="B117" s="2">
-        <v>526502</v>
+        <v>526505</v>
       </c>
       <c r="C117">
         <v>46</v>
@@ -3881,7 +3907,7 @@
         <v>41</v>
       </c>
       <c r="F117" s="2">
-        <v>16619</v>
+        <v>16624</v>
       </c>
       <c r="G117">
         <v>281</v>
@@ -3892,7 +3918,7 @@
         <v>75</v>
       </c>
       <c r="B118" s="2">
-        <v>532666</v>
+        <v>532669</v>
       </c>
       <c r="C118">
         <v>47</v>
@@ -3904,7 +3930,7 @@
         <v>37</v>
       </c>
       <c r="F118" s="2">
-        <v>16636</v>
+        <v>16641</v>
       </c>
       <c r="G118">
         <v>281</v>
@@ -3915,7 +3941,7 @@
         <v>76</v>
       </c>
       <c r="B119" s="2">
-        <v>537662</v>
+        <v>537665</v>
       </c>
       <c r="C119">
         <v>47</v>
@@ -3927,7 +3953,7 @@
         <v>37</v>
       </c>
       <c r="F119" s="2">
-        <v>16656</v>
+        <v>16661</v>
       </c>
       <c r="G119">
         <v>281</v>
@@ -3938,7 +3964,7 @@
         <v>77</v>
       </c>
       <c r="B120" s="2">
-        <v>538380</v>
+        <v>538383</v>
       </c>
       <c r="C120">
         <v>47</v>
@@ -3950,7 +3976,7 @@
         <v>37</v>
       </c>
       <c r="F120" s="2">
-        <v>16661</v>
+        <v>16666</v>
       </c>
       <c r="G120">
         <v>281</v>
@@ -3961,7 +3987,7 @@
         <v>78</v>
       </c>
       <c r="B121" s="2">
-        <v>542187</v>
+        <v>542190</v>
       </c>
       <c r="C121">
         <v>43</v>
@@ -3973,7 +3999,7 @@
         <v>34</v>
       </c>
       <c r="F121" s="2">
-        <v>16674</v>
+        <v>16679</v>
       </c>
       <c r="G121">
         <v>282</v>
@@ -3984,7 +4010,7 @@
         <v>79</v>
       </c>
       <c r="B122" s="2">
-        <v>547521</v>
+        <v>547524</v>
       </c>
       <c r="C122">
         <v>41</v>
@@ -3996,7 +4022,7 @@
         <v>29</v>
       </c>
       <c r="F122" s="2">
-        <v>16696</v>
+        <v>16701</v>
       </c>
       <c r="G122">
         <v>284</v>
@@ -4007,7 +4033,7 @@
         <v>80</v>
       </c>
       <c r="B123" s="2">
-        <v>554339</v>
+        <v>554343</v>
       </c>
       <c r="C123">
         <v>36</v>
@@ -4019,7 +4045,7 @@
         <v>32</v>
       </c>
       <c r="F123" s="2">
-        <v>16746</v>
+        <v>16751</v>
       </c>
       <c r="G123">
         <v>284</v>
@@ -4030,7 +4056,7 @@
         <v>81</v>
       </c>
       <c r="B124" s="2">
-        <v>561067</v>
+        <v>561071</v>
       </c>
       <c r="C124">
         <v>39</v>
@@ -4039,10 +4065,10 @@
         <v>120</v>
       </c>
       <c r="E124">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F124" s="2">
-        <v>16786</v>
+        <v>16791</v>
       </c>
       <c r="G124">
         <v>286</v>
@@ -4053,7 +4079,7 @@
         <v>82</v>
       </c>
       <c r="B125" s="2">
-        <v>566419</v>
+        <v>566423</v>
       </c>
       <c r="C125">
         <v>36</v>
@@ -4065,7 +4091,7 @@
         <v>34</v>
       </c>
       <c r="F125" s="2">
-        <v>16863</v>
+        <v>16868</v>
       </c>
       <c r="G125">
         <v>287</v>
@@ -4076,7 +4102,7 @@
         <v>83</v>
       </c>
       <c r="B126" s="2">
-        <v>568282</v>
+        <v>568286</v>
       </c>
       <c r="C126">
         <v>39</v>
@@ -4088,7 +4114,7 @@
         <v>37</v>
       </c>
       <c r="F126" s="2">
-        <v>16976</v>
+        <v>16981</v>
       </c>
       <c r="G126">
         <v>287</v>
@@ -4099,7 +4125,7 @@
         <v>84</v>
       </c>
       <c r="B127" s="2">
-        <v>569340</v>
+        <v>569344</v>
       </c>
       <c r="C127">
         <v>35</v>
@@ -4111,7 +4137,7 @@
         <v>33</v>
       </c>
       <c r="F127" s="2">
-        <v>17004</v>
+        <v>17009</v>
       </c>
       <c r="G127">
         <v>287</v>
@@ -4122,7 +4148,7 @@
         <v>85</v>
       </c>
       <c r="B128" s="2">
-        <v>574980</v>
+        <v>574984</v>
       </c>
       <c r="C128">
         <v>35</v>
@@ -4134,7 +4160,7 @@
         <v>31</v>
       </c>
       <c r="F128" s="2">
-        <v>17092</v>
+        <v>17097</v>
       </c>
       <c r="G128">
         <v>287</v>
@@ -4145,7 +4171,7 @@
         <v>43836</v>
       </c>
       <c r="B129" s="2">
-        <v>583135</v>
+        <v>583139</v>
       </c>
       <c r="C129">
         <v>34</v>
@@ -4157,7 +4183,7 @@
         <v>30</v>
       </c>
       <c r="F129" s="2">
-        <v>17192</v>
+        <v>17197</v>
       </c>
       <c r="G129">
         <v>290</v>
@@ -4168,7 +4194,7 @@
         <v>43867</v>
       </c>
       <c r="B130" s="2">
-        <v>594893</v>
+        <v>594896</v>
       </c>
       <c r="C130">
         <v>29</v>
@@ -4180,7 +4206,7 @@
         <v>29</v>
       </c>
       <c r="F130" s="2">
-        <v>17313</v>
+        <v>17318</v>
       </c>
       <c r="G130">
         <v>292</v>
@@ -4191,7 +4217,7 @@
         <v>43896</v>
       </c>
       <c r="B131" s="2">
-        <v>608103</v>
+        <v>608106</v>
       </c>
       <c r="C131">
         <v>28</v>
@@ -4203,7 +4229,7 @@
         <v>25</v>
       </c>
       <c r="F131" s="2">
-        <v>17409</v>
+        <v>17414</v>
       </c>
       <c r="G131">
         <v>293</v>
@@ -4214,7 +4240,7 @@
         <v>43927</v>
       </c>
       <c r="B132" s="2">
-        <v>623000</v>
+        <v>623004</v>
       </c>
       <c r="C132">
         <v>30</v>
@@ -4226,7 +4252,7 @@
         <v>23</v>
       </c>
       <c r="F132" s="2">
-        <v>17551</v>
+        <v>17556</v>
       </c>
       <c r="G132">
         <v>293</v>
@@ -4237,7 +4263,7 @@
         <v>43957</v>
       </c>
       <c r="B133" s="2">
-        <v>639472</v>
+        <v>639477</v>
       </c>
       <c r="C133">
         <v>29</v>
@@ -4249,7 +4275,7 @@
         <v>23</v>
       </c>
       <c r="F133" s="2">
-        <v>17675</v>
+        <v>17680</v>
       </c>
       <c r="G133">
         <v>294</v>
@@ -4260,7 +4286,7 @@
         <v>43988</v>
       </c>
       <c r="B134" s="2">
-        <v>651009</v>
+        <v>651014</v>
       </c>
       <c r="C134">
         <v>29</v>
@@ -4272,7 +4298,7 @@
         <v>21</v>
       </c>
       <c r="F134" s="2">
-        <v>17753</v>
+        <v>17758</v>
       </c>
       <c r="G134">
         <v>298</v>
@@ -4283,7 +4309,7 @@
         <v>44018</v>
       </c>
       <c r="B135" s="2">
-        <v>666106</v>
+        <v>666112</v>
       </c>
       <c r="C135">
         <v>29</v>
@@ -4295,7 +4321,7 @@
         <v>23</v>
       </c>
       <c r="F135" s="2">
-        <v>17893</v>
+        <v>17898</v>
       </c>
       <c r="G135">
         <v>300</v>
@@ -4306,7 +4332,7 @@
         <v>44049</v>
       </c>
       <c r="B136" s="2">
-        <v>680750</v>
+        <v>680756</v>
       </c>
       <c r="C136">
         <v>30</v>
@@ -4318,7 +4344,7 @@
         <v>23</v>
       </c>
       <c r="F136" s="2">
-        <v>18072</v>
+        <v>18077</v>
       </c>
       <c r="G136">
         <v>300</v>
@@ -4329,7 +4355,7 @@
         <v>44080</v>
       </c>
       <c r="B137" s="2">
-        <v>695808</v>
+        <v>695821</v>
       </c>
       <c r="C137">
         <v>31</v>
@@ -4341,7 +4367,7 @@
         <v>24</v>
       </c>
       <c r="F137" s="2">
-        <v>18244</v>
+        <v>18249</v>
       </c>
       <c r="G137">
         <v>301</v>
@@ -4352,7 +4378,7 @@
         <v>44110</v>
       </c>
       <c r="B138" s="2">
-        <v>714276</v>
+        <v>714289</v>
       </c>
       <c r="C138">
         <v>32</v>
@@ -4364,7 +4390,7 @@
         <v>24</v>
       </c>
       <c r="F138" s="2">
-        <v>18482</v>
+        <v>18488</v>
       </c>
       <c r="G138">
         <v>302</v>
@@ -4375,7 +4401,7 @@
         <v>44141</v>
       </c>
       <c r="B139" s="2">
-        <v>730084</v>
+        <v>730096</v>
       </c>
       <c r="C139">
         <v>35</v>
@@ -4387,7 +4413,7 @@
         <v>24</v>
       </c>
       <c r="F139" s="2">
-        <v>18673</v>
+        <v>18679</v>
       </c>
       <c r="G139">
         <v>302</v>
@@ -4398,7 +4424,7 @@
         <v>44171</v>
       </c>
       <c r="B140" s="2">
-        <v>743215</v>
+        <v>743228</v>
       </c>
       <c r="C140">
         <v>34</v>
@@ -4410,7 +4436,7 @@
         <v>25</v>
       </c>
       <c r="F140" s="2">
-        <v>18856</v>
+        <v>18862</v>
       </c>
       <c r="G140">
         <v>302</v>
@@ -4421,7 +4447,7 @@
         <v>86</v>
       </c>
       <c r="B141" s="2">
-        <v>750198</v>
+        <v>750215</v>
       </c>
       <c r="C141">
         <v>35</v>
@@ -4433,7 +4459,7 @@
         <v>26</v>
       </c>
       <c r="F141" s="2">
-        <v>19005</v>
+        <v>19012</v>
       </c>
       <c r="G141">
         <v>303</v>
@@ -4444,7 +4470,7 @@
         <v>87</v>
       </c>
       <c r="B142" s="2">
-        <v>759036</v>
+        <v>759054</v>
       </c>
       <c r="C142">
         <v>32</v>
@@ -4456,7 +4482,7 @@
         <v>23</v>
       </c>
       <c r="F142" s="2">
-        <v>19141</v>
+        <v>19148</v>
       </c>
       <c r="G142">
         <v>305</v>
@@ -4467,7 +4493,7 @@
         <v>88</v>
       </c>
       <c r="B143" s="2">
-        <v>773409</v>
+        <v>773426</v>
       </c>
       <c r="C143">
         <v>36</v>
@@ -4479,7 +4505,7 @@
         <v>25</v>
       </c>
       <c r="F143" s="2">
-        <v>19339</v>
+        <v>19346</v>
       </c>
       <c r="G143">
         <v>305</v>
@@ -4490,7 +4516,7 @@
         <v>89</v>
       </c>
       <c r="B144" s="2">
-        <v>789643</v>
+        <v>789665</v>
       </c>
       <c r="C144">
         <v>38</v>
@@ -4502,7 +4528,7 @@
         <v>26</v>
       </c>
       <c r="F144" s="2">
-        <v>19636</v>
+        <v>19644</v>
       </c>
       <c r="G144">
         <v>306</v>
@@ -4513,7 +4539,7 @@
         <v>90</v>
       </c>
       <c r="B145" s="2">
-        <v>805661</v>
+        <v>805687</v>
       </c>
       <c r="C145">
         <v>36</v>
@@ -4525,7 +4551,7 @@
         <v>29</v>
       </c>
       <c r="F145" s="2">
-        <v>19905</v>
+        <v>19914</v>
       </c>
       <c r="G145">
         <v>306</v>
@@ -4536,7 +4562,7 @@
         <v>91</v>
       </c>
       <c r="B146" s="2">
-        <v>823031</v>
+        <v>823078</v>
       </c>
       <c r="C146">
         <v>39</v>
@@ -4548,7 +4574,7 @@
         <v>28</v>
       </c>
       <c r="F146" s="2">
-        <v>20207</v>
+        <v>20216</v>
       </c>
       <c r="G146">
         <v>306</v>
@@ -4559,7 +4585,7 @@
         <v>92</v>
       </c>
       <c r="B147" s="2">
-        <v>835816</v>
+        <v>835862</v>
       </c>
       <c r="C147">
         <v>39</v>
@@ -4571,7 +4597,7 @@
         <v>29</v>
       </c>
       <c r="F147" s="2">
-        <v>20515</v>
+        <v>20524</v>
       </c>
       <c r="G147">
         <v>307</v>
@@ -4582,7 +4608,7 @@
         <v>93</v>
       </c>
       <c r="B148" s="2">
-        <v>841824</v>
+        <v>841871</v>
       </c>
       <c r="C148">
         <v>40</v>
@@ -4594,7 +4620,7 @@
         <v>28</v>
       </c>
       <c r="F148" s="2">
-        <v>20672</v>
+        <v>20681</v>
       </c>
       <c r="G148">
         <v>308</v>
@@ -4605,7 +4631,7 @@
         <v>94</v>
       </c>
       <c r="B149" s="2">
-        <v>850974</v>
+        <v>851023</v>
       </c>
       <c r="C149">
         <v>45</v>
@@ -4617,7 +4643,7 @@
         <v>29</v>
       </c>
       <c r="F149" s="2">
-        <v>20844</v>
+        <v>20853</v>
       </c>
       <c r="G149">
         <v>308</v>
@@ -4628,10 +4654,10 @@
         <v>95</v>
       </c>
       <c r="B150" s="2">
-        <v>864980</v>
+        <v>865032</v>
       </c>
       <c r="C150">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D150">
         <v>229</v>
@@ -4640,7 +4666,7 @@
         <v>29</v>
       </c>
       <c r="F150" s="2">
-        <v>21189</v>
+        <v>21199</v>
       </c>
       <c r="G150">
         <v>309</v>
@@ -4651,7 +4677,7 @@
         <v>96</v>
       </c>
       <c r="B151" s="2">
-        <v>884824</v>
+        <v>884878</v>
       </c>
       <c r="C151">
         <v>40</v>
@@ -4663,7 +4689,7 @@
         <v>26</v>
       </c>
       <c r="F151" s="2">
-        <v>21636</v>
+        <v>21647</v>
       </c>
       <c r="G151">
         <v>310</v>
@@ -4674,7 +4700,7 @@
         <v>97</v>
       </c>
       <c r="B152" s="2">
-        <v>903215</v>
+        <v>903271</v>
       </c>
       <c r="C152">
         <v>45</v>
@@ -4686,7 +4712,7 @@
         <v>27</v>
       </c>
       <c r="F152" s="2">
-        <v>22121</v>
+        <v>22132</v>
       </c>
       <c r="G152">
         <v>310</v>
@@ -4697,7 +4723,7 @@
         <v>98</v>
       </c>
       <c r="B153" s="2">
-        <v>921878</v>
+        <v>921933</v>
       </c>
       <c r="C153">
         <v>44</v>
@@ -4709,7 +4735,7 @@
         <v>28</v>
       </c>
       <c r="F153" s="2">
-        <v>22634</v>
+        <v>22645</v>
       </c>
       <c r="G153">
         <v>314</v>
@@ -4720,7 +4746,7 @@
         <v>99</v>
       </c>
       <c r="B154" s="2">
-        <v>938404</v>
+        <v>938459</v>
       </c>
       <c r="C154">
         <v>45</v>
@@ -4732,7 +4758,7 @@
         <v>26</v>
       </c>
       <c r="F154" s="2">
-        <v>23098</v>
+        <v>23109</v>
       </c>
       <c r="G154">
         <v>317</v>
@@ -4743,7 +4769,7 @@
         <v>100</v>
       </c>
       <c r="B155" s="2">
-        <v>948892</v>
+        <v>948949</v>
       </c>
       <c r="C155">
         <v>40</v>
@@ -4755,7 +4781,7 @@
         <v>22</v>
       </c>
       <c r="F155" s="2">
-        <v>23499</v>
+        <v>23510</v>
       </c>
       <c r="G155">
         <v>320</v>
@@ -4766,7 +4792,7 @@
         <v>101</v>
       </c>
       <c r="B156" s="2">
-        <v>959281</v>
+        <v>959338</v>
       </c>
       <c r="C156">
         <v>39</v>
@@ -4778,7 +4804,7 @@
         <v>22</v>
       </c>
       <c r="F156" s="2">
-        <v>23880</v>
+        <v>23891</v>
       </c>
       <c r="G156">
         <v>321</v>
@@ -4789,7 +4815,7 @@
         <v>102</v>
       </c>
       <c r="B157" s="2">
-        <v>980296</v>
+        <v>980354</v>
       </c>
       <c r="C157">
         <v>44</v>
@@ -4801,7 +4827,7 @@
         <v>24</v>
       </c>
       <c r="F157" s="2">
-        <v>24632</v>
+        <v>24643</v>
       </c>
       <c r="G157">
         <v>321</v>
@@ -4812,7 +4838,7 @@
         <v>103</v>
       </c>
       <c r="B158" s="2">
-        <v>1001132</v>
+        <v>1001192</v>
       </c>
       <c r="C158">
         <v>56</v>
@@ -4824,7 +4850,7 @@
         <v>24</v>
       </c>
       <c r="F158" s="2">
-        <v>25412</v>
+        <v>25423</v>
       </c>
       <c r="G158">
         <v>322</v>
@@ -4835,7 +4861,7 @@
         <v>43837</v>
       </c>
       <c r="B159" s="2">
-        <v>1022591</v>
+        <v>1022652</v>
       </c>
       <c r="C159">
         <v>59</v>
@@ -4847,7 +4873,7 @@
         <v>24</v>
       </c>
       <c r="F159" s="2">
-        <v>26379</v>
+        <v>26390</v>
       </c>
       <c r="G159">
         <v>325</v>
@@ -4858,19 +4884,19 @@
         <v>43868</v>
       </c>
       <c r="B160" s="2">
-        <v>1047631</v>
+        <v>1047691</v>
       </c>
       <c r="C160">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D160">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="E160">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F160" s="2">
-        <v>27523</v>
+        <v>27535</v>
       </c>
       <c r="G160">
         <v>326</v>
@@ -4881,19 +4907,19 @@
         <v>43897</v>
       </c>
       <c r="B161" s="2">
-        <v>1068581</v>
+        <v>1068644</v>
       </c>
       <c r="C161">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D161">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="E161">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F161" s="2">
-        <v>28467</v>
+        <v>28481</v>
       </c>
       <c r="G161">
         <v>328</v>
@@ -4904,19 +4930,19 @@
         <v>43928</v>
       </c>
       <c r="B162" s="2">
-        <v>1085887</v>
+        <v>1085950</v>
       </c>
       <c r="C162">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D162">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="E162">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F162" s="2">
-        <v>29288</v>
+        <v>29302</v>
       </c>
       <c r="G162">
         <v>332</v>
@@ -4927,19 +4953,19 @@
         <v>43958</v>
       </c>
       <c r="B163" s="2">
-        <v>1106980</v>
+        <v>1107052</v>
       </c>
       <c r="C163">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D163">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="E163">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F163" s="2">
-        <v>30128</v>
+        <v>30141</v>
       </c>
       <c r="G163">
         <v>333</v>
@@ -4950,19 +4976,19 @@
         <v>43989</v>
       </c>
       <c r="B164" s="2">
-        <v>1132572</v>
+        <v>1132650</v>
       </c>
       <c r="C164">
         <v>91</v>
       </c>
       <c r="D164">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="E164">
         <v>34</v>
       </c>
       <c r="F164" s="2">
-        <v>31264</v>
+        <v>31279</v>
       </c>
       <c r="G164">
         <v>339</v>
@@ -4973,19 +4999,19 @@
         <v>44019</v>
       </c>
       <c r="B165" s="2">
-        <v>1161166</v>
+        <v>1161243</v>
       </c>
       <c r="C165">
         <v>93</v>
       </c>
       <c r="D165">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="E165">
         <v>35</v>
       </c>
       <c r="F165" s="2">
-        <v>32650</v>
+        <v>32664</v>
       </c>
       <c r="G165">
         <v>344</v>
@@ -4996,19 +5022,19 @@
         <v>44050</v>
       </c>
       <c r="B166" s="2">
-        <v>1190551</v>
+        <v>1190628</v>
       </c>
       <c r="C166">
         <v>112</v>
       </c>
       <c r="D166">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="E166">
         <v>38</v>
       </c>
       <c r="F166" s="2">
-        <v>33971</v>
+        <v>33985</v>
       </c>
       <c r="G166">
         <v>349</v>
@@ -5019,22 +5045,22 @@
         <v>44081</v>
       </c>
       <c r="B167" s="2">
-        <v>1220595</v>
+        <v>1220671</v>
       </c>
       <c r="C167">
         <v>127</v>
       </c>
       <c r="D167">
-        <v>540</v>
+        <v>542</v>
       </c>
       <c r="E167">
         <v>41</v>
       </c>
       <c r="F167" s="2">
-        <v>35492</v>
+        <v>35506</v>
       </c>
       <c r="G167">
-        <v>352</v>
+        <v>353</v>
       </c>
     </row>
     <row r="168" spans="1:7" x14ac:dyDescent="0.2">
@@ -5042,22 +5068,22 @@
         <v>44111</v>
       </c>
       <c r="B168" s="2">
-        <v>1246437</v>
+        <v>1246534</v>
       </c>
       <c r="C168">
         <v>132</v>
       </c>
       <c r="D168">
-        <v>554</v>
+        <v>556</v>
       </c>
       <c r="E168">
         <v>41</v>
       </c>
       <c r="F168" s="2">
-        <v>36902</v>
+        <v>36918</v>
       </c>
       <c r="G168">
-        <v>356</v>
+        <v>357</v>
       </c>
     </row>
     <row r="169" spans="1:7" x14ac:dyDescent="0.2">
@@ -5065,22 +5091,22 @@
         <v>44142</v>
       </c>
       <c r="B169" s="2">
-        <v>1266882</v>
+        <v>1267003</v>
       </c>
       <c r="C169">
         <v>137</v>
       </c>
       <c r="D169">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="E169">
         <v>47</v>
       </c>
       <c r="F169" s="2">
-        <v>38064</v>
+        <v>38079</v>
       </c>
       <c r="G169">
-        <v>360</v>
+        <v>361</v>
       </c>
     </row>
     <row r="170" spans="1:7" x14ac:dyDescent="0.2">
@@ -5088,22 +5114,22 @@
         <v>44172</v>
       </c>
       <c r="B170" s="2">
-        <v>1288615</v>
+        <v>1288764</v>
       </c>
       <c r="C170">
         <v>153</v>
       </c>
       <c r="D170">
-        <v>636</v>
+        <v>638</v>
       </c>
       <c r="E170">
         <v>47</v>
       </c>
       <c r="F170" s="2">
-        <v>39308</v>
+        <v>39325</v>
       </c>
       <c r="G170">
-        <v>366</v>
+        <v>368</v>
       </c>
     </row>
     <row r="171" spans="1:7" x14ac:dyDescent="0.2">
@@ -5111,22 +5137,22 @@
         <v>104</v>
       </c>
       <c r="B171" s="2">
-        <v>1317898</v>
+        <v>1318050</v>
       </c>
       <c r="C171">
         <v>184</v>
       </c>
       <c r="D171">
-        <v>646</v>
+        <v>648</v>
       </c>
       <c r="E171">
         <v>53</v>
       </c>
       <c r="F171" s="2">
-        <v>41024</v>
+        <v>41040</v>
       </c>
       <c r="G171">
-        <v>369</v>
+        <v>371</v>
       </c>
     </row>
     <row r="172" spans="1:7" x14ac:dyDescent="0.2">
@@ -5134,22 +5160,22 @@
         <v>105</v>
       </c>
       <c r="B172" s="2">
-        <v>1349637</v>
+        <v>1349800</v>
       </c>
       <c r="C172">
         <v>190</v>
       </c>
       <c r="D172">
-        <v>632</v>
+        <v>634</v>
       </c>
       <c r="E172">
         <v>55</v>
       </c>
       <c r="F172" s="2">
-        <v>42627</v>
+        <v>42642</v>
       </c>
       <c r="G172">
-        <v>374</v>
+        <v>376</v>
       </c>
     </row>
     <row r="173" spans="1:7" x14ac:dyDescent="0.2">
@@ -5157,22 +5183,22 @@
         <v>106</v>
       </c>
       <c r="B173" s="2">
-        <v>1380317</v>
+        <v>1380492</v>
       </c>
       <c r="C173">
         <v>209</v>
       </c>
       <c r="D173">
-        <v>668</v>
+        <v>670</v>
       </c>
       <c r="E173">
         <v>57</v>
       </c>
       <c r="F173" s="2">
-        <v>44507</v>
+        <v>44520</v>
       </c>
       <c r="G173">
-        <v>379</v>
+        <v>381</v>
       </c>
     </row>
     <row r="174" spans="1:7" x14ac:dyDescent="0.2">
@@ -5180,22 +5206,22 @@
         <v>107</v>
       </c>
       <c r="B174" s="2">
-        <v>1411382</v>
+        <v>1411565</v>
       </c>
       <c r="C174">
         <v>210</v>
       </c>
       <c r="D174">
-        <v>682</v>
+        <v>684</v>
       </c>
       <c r="E174">
         <v>60</v>
       </c>
       <c r="F174" s="2">
-        <v>46438</v>
+        <v>46451</v>
       </c>
       <c r="G174">
-        <v>388</v>
+        <v>390</v>
       </c>
     </row>
     <row r="175" spans="1:7" x14ac:dyDescent="0.2">
@@ -5203,22 +5229,22 @@
         <v>108</v>
       </c>
       <c r="B175" s="2">
-        <v>1437089</v>
+        <v>1437283</v>
       </c>
       <c r="C175">
         <v>219</v>
       </c>
       <c r="D175">
-        <v>692</v>
+        <v>694</v>
       </c>
       <c r="E175">
         <v>58</v>
       </c>
       <c r="F175" s="2">
-        <v>48039</v>
+        <v>48052</v>
       </c>
       <c r="G175">
-        <v>398</v>
+        <v>400</v>
       </c>
     </row>
     <row r="176" spans="1:7" x14ac:dyDescent="0.2">
@@ -5226,22 +5252,22 @@
         <v>109</v>
       </c>
       <c r="B176" s="2">
-        <v>1457553</v>
+        <v>1457751</v>
       </c>
       <c r="C176">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D176">
-        <v>696</v>
+        <v>698</v>
       </c>
       <c r="E176">
         <v>57</v>
       </c>
       <c r="F176" s="2">
-        <v>49481</v>
+        <v>49494</v>
       </c>
       <c r="G176">
-        <v>405</v>
+        <v>407</v>
       </c>
     </row>
     <row r="177" spans="1:7" x14ac:dyDescent="0.2">
@@ -5249,22 +5275,22 @@
         <v>110</v>
       </c>
       <c r="B177" s="2">
-        <v>1477367</v>
+        <v>1477602</v>
       </c>
       <c r="C177">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="D177">
-        <v>810</v>
+        <v>813</v>
       </c>
       <c r="E177">
         <v>74</v>
       </c>
       <c r="F177" s="2">
-        <v>50488</v>
+        <v>50510</v>
       </c>
       <c r="G177">
-        <v>412</v>
+        <v>414</v>
       </c>
     </row>
     <row r="178" spans="1:7" x14ac:dyDescent="0.2">
@@ -5272,22 +5298,22 @@
         <v>111</v>
       </c>
       <c r="B178" s="2">
-        <v>1504859</v>
+        <v>1505203</v>
       </c>
       <c r="C178">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="D178">
-        <v>809</v>
+        <v>812</v>
       </c>
       <c r="E178">
         <v>79</v>
       </c>
       <c r="F178" s="2">
-        <v>52375</v>
+        <v>52406</v>
       </c>
       <c r="G178">
-        <v>421</v>
+        <v>423</v>
       </c>
     </row>
     <row r="179" spans="1:7" x14ac:dyDescent="0.2">
@@ -5295,22 +5321,22 @@
         <v>112</v>
       </c>
       <c r="B179" s="2">
-        <v>1535031</v>
+        <v>1535383</v>
       </c>
       <c r="C179">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="D179">
-        <v>791</v>
+        <v>796</v>
       </c>
       <c r="E179">
         <v>81</v>
       </c>
       <c r="F179" s="2">
-        <v>54379</v>
+        <v>54409</v>
       </c>
       <c r="G179">
-        <v>430</v>
+        <v>432</v>
       </c>
     </row>
     <row r="180" spans="1:7" x14ac:dyDescent="0.2">
@@ -5318,22 +5344,22 @@
         <v>113</v>
       </c>
       <c r="B180" s="2">
-        <v>1563840</v>
+        <v>1564200</v>
       </c>
       <c r="C180">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="D180">
-        <v>782</v>
+        <v>787</v>
       </c>
       <c r="E180">
         <v>80</v>
       </c>
       <c r="F180" s="2">
-        <v>56422</v>
+        <v>56451</v>
       </c>
       <c r="G180">
-        <v>435</v>
+        <v>437</v>
       </c>
     </row>
     <row r="181" spans="1:7" x14ac:dyDescent="0.2">
@@ -5341,22 +5367,482 @@
         <v>114</v>
       </c>
       <c r="B181" s="2">
-        <v>1596095</v>
+        <v>1596741</v>
       </c>
       <c r="C181">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="D181">
-        <v>802</v>
+        <v>807</v>
       </c>
       <c r="E181">
         <v>84</v>
       </c>
       <c r="F181" s="2">
-        <v>58377</v>
+        <v>58437</v>
       </c>
       <c r="G181">
-        <v>449</v>
+        <v>451</v>
+      </c>
+    </row>
+    <row r="182" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A182" t="s">
+        <v>115</v>
+      </c>
+      <c r="B182" s="2">
+        <v>1621145</v>
+      </c>
+      <c r="C182">
+        <v>328</v>
+      </c>
+      <c r="D182">
+        <v>802</v>
+      </c>
+      <c r="E182">
+        <v>86</v>
+      </c>
+      <c r="F182" s="2">
+        <v>60269</v>
+      </c>
+      <c r="G182">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="183" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A183" t="s">
+        <v>116</v>
+      </c>
+      <c r="B183" s="2">
+        <v>1636611</v>
+      </c>
+      <c r="C183">
+        <v>322</v>
+      </c>
+      <c r="D183">
+        <v>801</v>
+      </c>
+      <c r="E183">
+        <v>99</v>
+      </c>
+      <c r="F183" s="2">
+        <v>61382</v>
+      </c>
+      <c r="G183">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="184" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A184" t="s">
+        <v>117</v>
+      </c>
+      <c r="B184" s="2">
+        <v>1648803</v>
+      </c>
+      <c r="C184">
+        <v>310</v>
+      </c>
+      <c r="D184">
+        <v>877</v>
+      </c>
+      <c r="E184">
+        <v>99</v>
+      </c>
+      <c r="F184" s="2">
+        <v>62426</v>
+      </c>
+      <c r="G184">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="185" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A185" t="s">
+        <v>118</v>
+      </c>
+      <c r="B185" s="2">
+        <v>1677048</v>
+      </c>
+      <c r="C185">
+        <v>315</v>
+      </c>
+      <c r="D185">
+        <v>901</v>
+      </c>
+      <c r="E185">
+        <v>94</v>
+      </c>
+      <c r="F185" s="2">
+        <v>64481</v>
+      </c>
+      <c r="G185">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="186" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A186" t="s">
+        <v>119</v>
+      </c>
+      <c r="B186" s="2">
+        <v>1703708</v>
+      </c>
+      <c r="C186">
+        <v>322</v>
+      </c>
+      <c r="D186">
+        <v>893</v>
+      </c>
+      <c r="E186">
+        <v>95</v>
+      </c>
+      <c r="F186" s="2">
+        <v>66609</v>
+      </c>
+      <c r="G186">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="187" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A187" t="s">
+        <v>120</v>
+      </c>
+      <c r="B187" s="2">
+        <v>1729934</v>
+      </c>
+      <c r="C187">
+        <v>336</v>
+      </c>
+      <c r="D187">
+        <v>876</v>
+      </c>
+      <c r="E187">
+        <v>98</v>
+      </c>
+      <c r="F187" s="2">
+        <v>68571</v>
+      </c>
+      <c r="G187">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="188" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A188" t="s">
+        <v>121</v>
+      </c>
+      <c r="B188" s="2">
+        <v>1751899</v>
+      </c>
+      <c r="C188">
+        <v>318</v>
+      </c>
+      <c r="D188">
+        <v>846</v>
+      </c>
+      <c r="E188">
+        <v>102</v>
+      </c>
+      <c r="F188" s="2">
+        <v>70361</v>
+      </c>
+      <c r="G188">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="189" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A189" t="s">
+        <v>122</v>
+      </c>
+      <c r="B189" s="2">
+        <v>1774797</v>
+      </c>
+      <c r="C189">
+        <v>316</v>
+      </c>
+      <c r="D189">
+        <v>844</v>
+      </c>
+      <c r="E189">
+        <v>94</v>
+      </c>
+      <c r="F189" s="2">
+        <v>71716</v>
+      </c>
+      <c r="G189">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="190" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A190" s="1">
+        <v>43838</v>
+      </c>
+      <c r="B190" s="2">
+        <v>1782579</v>
+      </c>
+      <c r="C190">
+        <v>338</v>
+      </c>
+      <c r="D190">
+        <v>850</v>
+      </c>
+      <c r="E190">
+        <v>94</v>
+      </c>
+      <c r="F190" s="2">
+        <v>72344</v>
+      </c>
+      <c r="G190">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="191" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A191" s="1">
+        <v>43869</v>
+      </c>
+      <c r="B191" s="2">
+        <v>1792574</v>
+      </c>
+      <c r="C191">
+        <v>350</v>
+      </c>
+      <c r="D191">
+        <v>925</v>
+      </c>
+      <c r="E191">
+        <v>100</v>
+      </c>
+      <c r="F191" s="2">
+        <v>73057</v>
+      </c>
+      <c r="G191">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="192" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A192" s="1">
+        <v>43898</v>
+      </c>
+      <c r="B192" s="2">
+        <v>1816158</v>
+      </c>
+      <c r="C192">
+        <v>331</v>
+      </c>
+      <c r="D192">
+        <v>905</v>
+      </c>
+      <c r="E192">
+        <v>95</v>
+      </c>
+      <c r="F192" s="2">
+        <v>74860</v>
+      </c>
+      <c r="G192">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="193" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A193" s="1">
+        <v>43929</v>
+      </c>
+      <c r="B193" s="2">
+        <v>1842252</v>
+      </c>
+      <c r="C193">
+        <v>343</v>
+      </c>
+      <c r="D193">
+        <v>867</v>
+      </c>
+      <c r="E193">
+        <v>99</v>
+      </c>
+      <c r="F193" s="2">
+        <v>76585</v>
+      </c>
+      <c r="G193">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="194" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A194" s="1">
+        <v>43959</v>
+      </c>
+      <c r="B194" s="2">
+        <v>1868049</v>
+      </c>
+      <c r="C194">
+        <v>356</v>
+      </c>
+      <c r="D194">
+        <v>882</v>
+      </c>
+      <c r="E194">
+        <v>106</v>
+      </c>
+      <c r="F194" s="2">
+        <v>78276</v>
+      </c>
+      <c r="G194">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="195" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A195" s="1">
+        <v>43990</v>
+      </c>
+      <c r="B195" s="2">
+        <v>1896850</v>
+      </c>
+      <c r="C195">
+        <v>358</v>
+      </c>
+      <c r="D195">
+        <v>866</v>
+      </c>
+      <c r="E195">
+        <v>99</v>
+      </c>
+      <c r="F195" s="2">
+        <v>79953</v>
+      </c>
+      <c r="G195">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="196" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A196" s="1">
+        <v>44020</v>
+      </c>
+      <c r="B196" s="2">
+        <v>1922144</v>
+      </c>
+      <c r="C196">
+        <v>370</v>
+      </c>
+      <c r="D196">
+        <v>870</v>
+      </c>
+      <c r="E196">
+        <v>107</v>
+      </c>
+      <c r="F196" s="2">
+        <v>81707</v>
+      </c>
+      <c r="G196">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="197" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A197" s="1">
+        <v>44051</v>
+      </c>
+      <c r="B197" s="2">
+        <v>1930742</v>
+      </c>
+      <c r="C197">
+        <v>391</v>
+      </c>
+      <c r="D197">
+        <v>885</v>
+      </c>
+      <c r="E197">
+        <v>106</v>
+      </c>
+      <c r="F197" s="2">
+        <v>82469</v>
+      </c>
+      <c r="G197">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="198" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A198" s="1">
+        <v>44082</v>
+      </c>
+      <c r="B198" s="2">
+        <v>1942890</v>
+      </c>
+      <c r="C198">
+        <v>391</v>
+      </c>
+      <c r="D198">
+        <v>989</v>
+      </c>
+      <c r="E198">
+        <v>115</v>
+      </c>
+      <c r="F198" s="2">
+        <v>83389</v>
+      </c>
+      <c r="G198">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="199" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A199" s="1">
+        <v>44112</v>
+      </c>
+      <c r="B199" s="2">
+        <v>1967243</v>
+      </c>
+      <c r="C199">
+        <v>396</v>
+      </c>
+      <c r="D199">
+        <v>925</v>
+      </c>
+      <c r="E199">
+        <v>113</v>
+      </c>
+      <c r="F199" s="2">
+        <v>85076</v>
+      </c>
+      <c r="G199">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="200" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A200" s="1">
+        <v>44143</v>
+      </c>
+      <c r="B200" s="2">
+        <v>1994922</v>
+      </c>
+      <c r="C200">
+        <v>377</v>
+      </c>
+      <c r="D200">
+        <v>888</v>
+      </c>
+      <c r="E200">
+        <v>110</v>
+      </c>
+      <c r="F200" s="2">
+        <v>86906</v>
+      </c>
+      <c r="G200">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="201" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A201" s="1">
+        <v>44173</v>
+      </c>
+      <c r="B201" s="2">
+        <v>2021151</v>
+      </c>
+      <c r="C201">
+        <v>377</v>
+      </c>
+      <c r="D201">
+        <v>864</v>
+      </c>
+      <c r="E201">
+        <v>110</v>
+      </c>
+      <c r="F201" s="2">
+        <v>88524</v>
+      </c>
+      <c r="G201">
+        <v>646</v>
       </c>
     </row>
   </sheetData>
